--- a/scripts/teamInfo_perm.xlsx
+++ b/scripts/teamInfo_perm.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bitnami\wampstack-5.6.19-0\apache2\htdocs\scripts\"/>
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$352</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="620">
   <si>
     <t>Boston College</t>
   </si>
@@ -275,9 +278,6 @@
     <t>Coastal Carolina University</t>
   </si>
   <si>
-    <t>Gardner-Webb University</t>
-  </si>
-  <si>
     <t>High Point University</t>
   </si>
   <si>
@@ -299,9 +299,6 @@
     <t>Winthrop University</t>
   </si>
   <si>
-    <t>University of Illinois at Urbana-Champaign</t>
-  </si>
-  <si>
     <t>Indiana University Bloomington</t>
   </si>
   <si>
@@ -320,9 +317,6 @@
     <t>University of Minnesota</t>
   </si>
   <si>
-    <t>University of Nebraska-Lincoln</t>
-  </si>
-  <si>
     <t>Northwestern University</t>
   </si>
   <si>
@@ -338,9 +332,6 @@
     <t>Rutgers University</t>
   </si>
   <si>
-    <t>University of Wisconsin–Madison</t>
-  </si>
-  <si>
     <t>Baylor University</t>
   </si>
   <si>
@@ -356,9 +347,6 @@
     <t>University of Oklahoma</t>
   </si>
   <si>
-    <t>Oklahoma State University–Stillwater</t>
-  </si>
-  <si>
     <t>University of Texas at Austin</t>
   </si>
   <si>
@@ -476,9 +464,6 @@
     <t>University of Detroit Mercy</t>
   </si>
   <si>
-    <t>University of Wisconsin-Milwaukee</t>
-  </si>
-  <si>
     <t>Northern Kentucky University</t>
   </si>
   <si>
@@ -488,9 +473,6 @@
     <t>University of Illinois at Chicago</t>
   </si>
   <si>
-    <t>University of Wisconsin–Green Bay</t>
-  </si>
-  <si>
     <t>Valparaiso University</t>
   </si>
   <si>
@@ -590,9 +572,6 @@
     <t>Western Michigan University</t>
   </si>
   <si>
-    <t>Bethune-Cookman University</t>
-  </si>
-  <si>
     <t>Coppin State University</t>
   </si>
   <si>
@@ -608,9 +587,6 @@
     <t>Howard University</t>
   </si>
   <si>
-    <t>University of Maryland Eastern Shore</t>
-  </si>
-  <si>
     <t>Morgan State University</t>
   </si>
   <si>
@@ -764,9 +740,6 @@
     <t>University of California, Berkeley</t>
   </si>
   <si>
-    <t>University of Colorado</t>
-  </si>
-  <si>
     <t>University of Oregon</t>
   </si>
   <si>
@@ -926,9 +899,6 @@
     <t>Stephen F. Austin State University</t>
   </si>
   <si>
-    <t>Texas A&amp;M University-Corpus Christi</t>
-  </si>
-  <si>
     <t>Alabama Agricultural and Mechanical University</t>
   </si>
   <si>
@@ -962,12 +932,6 @@
     <t>University of Denver</t>
   </si>
   <si>
-    <t>Indiana University - Purdue University Fort Wayne</t>
-  </si>
-  <si>
-    <t>Indiana University - Purdue University Indianapolis</t>
-  </si>
-  <si>
     <t>North Dakota State University</t>
   </si>
   <si>
@@ -1058,9 +1022,6 @@
     <t>Grand Canyon University</t>
   </si>
   <si>
-    <t>University of Missouri–Kansas City</t>
-  </si>
-  <si>
     <t>New Mexico State University</t>
   </si>
   <si>
@@ -1232,9 +1193,6 @@
     <t>Prov.png</t>
   </si>
   <si>
-    <t>#FFFFFF</t>
-  </si>
-  <si>
     <t>Purdue.png</t>
   </si>
   <si>
@@ -1470,6 +1428,465 @@
   </si>
   <si>
     <t>in_2016</t>
+  </si>
+  <si>
+    <t>Oklahoma State University, Stillwater</t>
+  </si>
+  <si>
+    <t>University of Missouri, Kansas City</t>
+  </si>
+  <si>
+    <t>University of Wisconsin, Green Bay</t>
+  </si>
+  <si>
+    <t>University of Wisconsin, Madison</t>
+  </si>
+  <si>
+    <t>Bethune, Cookman University</t>
+  </si>
+  <si>
+    <t>Gardner, Webb University</t>
+  </si>
+  <si>
+    <t>Indiana University ,  Purdue University Fort Wayne</t>
+  </si>
+  <si>
+    <t>Indiana University ,  Purdue University Indianapolis</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M University, Corpus Christi</t>
+  </si>
+  <si>
+    <t>University of Illinois at Urbana, Champaign</t>
+  </si>
+  <si>
+    <t>University of Nebraska, Lincoln</t>
+  </si>
+  <si>
+    <t>University of Wisconsin, Milwaukee</t>
+  </si>
+  <si>
+    <t>University of Colorado, Boulder</t>
+  </si>
+  <si>
+    <t>UTChatt.png</t>
+  </si>
+  <si>
+    <t>UWGB.png</t>
+  </si>
+  <si>
+    <t>#A50004</t>
+  </si>
+  <si>
+    <t>AustinPeay.png</t>
+  </si>
+  <si>
+    <t>#602D89</t>
+  </si>
+  <si>
+    <t>HolyCross.png</t>
+  </si>
+  <si>
+    <t>FDU.png</t>
+  </si>
+  <si>
+    <t>FGCU.png</t>
+  </si>
+  <si>
+    <t>MTSU.png</t>
+  </si>
+  <si>
+    <t>TAMU.png</t>
+  </si>
+  <si>
+    <t>UALR.png</t>
+  </si>
+  <si>
+    <t>Iona.png</t>
+  </si>
+  <si>
+    <t>JackSt.png</t>
+  </si>
+  <si>
+    <t>Monmouth.png</t>
+  </si>
+  <si>
+    <t>OregonSt.png</t>
+  </si>
+  <si>
+    <t>StJoes.png</t>
+  </si>
+  <si>
+    <t>StMarys.png</t>
+  </si>
+  <si>
+    <t>SetonHall.png</t>
+  </si>
+  <si>
+    <t>SDakSt.png</t>
+  </si>
+  <si>
+    <t>StBona.png</t>
+  </si>
+  <si>
+    <t>StonyB.png</t>
+  </si>
+  <si>
+    <t>Temple.png</t>
+  </si>
+  <si>
+    <t>Cal.png</t>
+  </si>
+  <si>
+    <t>CUBoulder.png</t>
+  </si>
+  <si>
+    <t>UConn.png</t>
+  </si>
+  <si>
+    <t>Hawaii.png</t>
+  </si>
+  <si>
+    <t>UNCAshe.png</t>
+  </si>
+  <si>
+    <t>UNCW.png</t>
+  </si>
+  <si>
+    <t>Pitt.png</t>
+  </si>
+  <si>
+    <t>SouthCarolina.png</t>
+  </si>
+  <si>
+    <t>USC.png</t>
+  </si>
+  <si>
+    <t>WeberSt.png</t>
+  </si>
+  <si>
+    <t>Yale.png</t>
+  </si>
+  <si>
+    <t>#00356B</t>
+  </si>
+  <si>
+    <t>#492365</t>
+  </si>
+  <si>
+    <t>#990000</t>
+  </si>
+  <si>
+    <t>#8C2633</t>
+  </si>
+  <si>
+    <t>#192857</t>
+  </si>
+  <si>
+    <t>#006D66</t>
+  </si>
+  <si>
+    <t>#F47321</t>
+  </si>
+  <si>
+    <t>#024930</t>
+  </si>
+  <si>
+    <t>#000E2F</t>
+  </si>
+  <si>
+    <t>#CFB87C</t>
+  </si>
+  <si>
+    <t>Akron.png</t>
+  </si>
+  <si>
+    <t>TexasTech.png</t>
+  </si>
+  <si>
+    <t>#00285E</t>
+  </si>
+  <si>
+    <t>#500000</t>
+  </si>
+  <si>
+    <t>#990033</t>
+  </si>
+  <si>
+    <t>#54261A</t>
+  </si>
+  <si>
+    <t>#003893</t>
+  </si>
+  <si>
+    <t>#000069</t>
+  </si>
+  <si>
+    <t>#CC2D30</t>
+  </si>
+  <si>
+    <t>#9E1B32</t>
+  </si>
+  <si>
+    <t>#C34500</t>
+  </si>
+  <si>
+    <t>#BE1139</t>
+  </si>
+  <si>
+    <t>#0066CC</t>
+  </si>
+  <si>
+    <t>#002147</t>
+  </si>
+  <si>
+    <t>#910026</t>
+  </si>
+  <si>
+    <t>#00287A</t>
+  </si>
+  <si>
+    <t>CSUB.png</t>
+  </si>
+  <si>
+    <t>CSULB.png</t>
+  </si>
+  <si>
+    <t>TAMUCC.png</t>
+  </si>
+  <si>
+    <t>CSUFresno.png</t>
+  </si>
+  <si>
+    <t>Southern.png</t>
+  </si>
+  <si>
+    <t>Montana.png</t>
+  </si>
+  <si>
+    <t>#5E001D</t>
+  </si>
+  <si>
+    <t>#9BDDFF</t>
+  </si>
+  <si>
+    <t>#0067C5</t>
+  </si>
+  <si>
+    <t>#FFC61E</t>
+  </si>
+  <si>
+    <t>#A0274B</t>
+  </si>
+  <si>
+    <t>#D44500</t>
+  </si>
+  <si>
+    <t>#FFCB05</t>
+  </si>
+  <si>
+    <t>#997F3D</t>
+  </si>
+  <si>
+    <t>Vandy.png</t>
+  </si>
+  <si>
+    <t>Mich.png</t>
+  </si>
+  <si>
+    <t>Miami.png</t>
+  </si>
+  <si>
+    <t>Memphis.png</t>
+  </si>
+  <si>
+    <t>ULM.png</t>
+  </si>
+  <si>
+    <t>Bama.png</t>
+  </si>
+  <si>
+    <t>Cuse.png</t>
+  </si>
+  <si>
+    <t>Tulsa.png</t>
+  </si>
+  <si>
+    <t>Bucknell.png</t>
+  </si>
+  <si>
+    <t>Creighton.png</t>
+  </si>
+  <si>
+    <t>#3C4982</t>
+  </si>
+  <si>
+    <t>ETSU.png</t>
+  </si>
+  <si>
+    <t>#041E42</t>
+  </si>
+  <si>
+    <t>FSU.png</t>
+  </si>
+  <si>
+    <t>#782F40</t>
+  </si>
+  <si>
+    <t>Gtech.png</t>
+  </si>
+  <si>
+    <t>#C59353</t>
+  </si>
+  <si>
+    <t>IllSt.png</t>
+  </si>
+  <si>
+    <t>JvilleSt.png</t>
+  </si>
+  <si>
+    <t>KSU.png</t>
+  </si>
+  <si>
+    <t>#512888</t>
+  </si>
+  <si>
+    <t>KentSt.png</t>
+  </si>
+  <si>
+    <t>#002664</t>
+  </si>
+  <si>
+    <t>Marquette.png</t>
+  </si>
+  <si>
+    <t>MtStMary.png</t>
+  </si>
+  <si>
+    <t>#2C4E87</t>
+  </si>
+  <si>
+    <t>NCCU.png</t>
+  </si>
+  <si>
+    <t>NKU.png</t>
+  </si>
+  <si>
+    <t>#FFC72C</t>
+  </si>
+  <si>
+    <t>NW.png</t>
+  </si>
+  <si>
+    <t>#4E2A84</t>
+  </si>
+  <si>
+    <t>Princeton.png</t>
+  </si>
+  <si>
+    <t>#EE7F2D</t>
+  </si>
+  <si>
+    <t>StFrancisPA.png</t>
+  </si>
+  <si>
+    <t>#BD1F25</t>
+  </si>
+  <si>
+    <t>Siena.png</t>
+  </si>
+  <si>
+    <t>#006B54</t>
+  </si>
+  <si>
+    <t>TxSt.png</t>
+  </si>
+  <si>
+    <t>#501214</t>
+  </si>
+  <si>
+    <t>Troy.png</t>
+  </si>
+  <si>
+    <t>UCDavis.png</t>
+  </si>
+  <si>
+    <t>UF.png</t>
+  </si>
+  <si>
+    <t>#FA4616</t>
+  </si>
+  <si>
+    <t>Houston.png</t>
+  </si>
+  <si>
+    <t>#C8102E</t>
+  </si>
+  <si>
+    <t>UIUC.png</t>
+  </si>
+  <si>
+    <t>#FA6300</t>
+  </si>
+  <si>
+    <t>Minn.png</t>
+  </si>
+  <si>
+    <t>#7A0019</t>
+  </si>
+  <si>
+    <t>UNO.png</t>
+  </si>
+  <si>
+    <t>UNR.png</t>
+  </si>
+  <si>
+    <t>NewOrleans.png</t>
+  </si>
+  <si>
+    <t>UND.png</t>
+  </si>
+  <si>
+    <t>#009A44</t>
+  </si>
+  <si>
+    <t>URI.png</t>
+  </si>
+  <si>
+    <t>UTexA.png</t>
+  </si>
+  <si>
+    <t>#F58025</t>
+  </si>
+  <si>
+    <t>UVM.png</t>
+  </si>
+  <si>
+    <t>#007155</t>
+  </si>
+  <si>
+    <t>UWM.png</t>
+  </si>
+  <si>
+    <t>#FFBD00</t>
+  </si>
+  <si>
+    <t>VTech.png</t>
+  </si>
+  <si>
+    <t>WF.png</t>
+  </si>
+  <si>
+    <t>#9E7E38</t>
+  </si>
+  <si>
+    <t>Winthrop.png</t>
+  </si>
+  <si>
+    <t>in_2017</t>
+  </si>
+  <si>
+    <t>University of Maryland, Eastern Shore</t>
   </si>
 </sst>
 </file>
@@ -1838,46 +2255,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F352"/>
+  <dimension ref="A1:G352"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A328" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G340" sqref="G340"/>
+    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H189" sqref="H189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="52.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="B1" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="C1" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="D1" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="E1" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="F1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>466</v>
+      </c>
+      <c r="G1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1885,14 +2305,17 @@
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1900,14 +2323,17 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1915,14 +2341,17 @@
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1930,14 +2359,17 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1945,14 +2377,17 @@
       <c r="F6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1960,14 +2395,17 @@
       <c r="F7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1975,14 +2413,17 @@
       <c r="F8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1990,14 +2431,17 @@
       <c r="F9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2005,29 +2449,41 @@
       <c r="F10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>231</v>
+        <v>222</v>
+      </c>
+      <c r="C11" t="s">
+        <v>483</v>
+      </c>
+      <c r="D11" t="s">
+        <v>482</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2035,20 +2491,23 @@
       <c r="F12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C13" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="D13" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2056,20 +2515,23 @@
       <c r="F13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="C14" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="D14" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -2077,14 +2539,17 @@
       <c r="F14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>188</v>
+        <v>471</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2092,8 +2557,11 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2107,20 +2575,23 @@
       <c r="F16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="C17" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -2128,8 +2599,11 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2143,14 +2617,17 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2158,14 +2635,17 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2173,14 +2653,17 @@
       <c r="F20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -2188,20 +2671,23 @@
       <c r="F21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="C22" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="D22" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2209,14 +2695,17 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2224,14 +2713,17 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2239,14 +2731,23 @@
       <c r="F24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>258</v>
+        <v>248</v>
+      </c>
+      <c r="C25" t="s">
+        <v>561</v>
+      </c>
+      <c r="D25" t="s">
+        <v>458</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2254,8 +2755,11 @@
       <c r="F25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2264,25 +2768,28 @@
         <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="D26" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2290,44 +2797,65 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>341</v>
+        <v>328</v>
+      </c>
+      <c r="C28" t="s">
+        <v>539</v>
+      </c>
+      <c r="D28" t="s">
+        <v>419</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>213</v>
+        <v>204</v>
+      </c>
+      <c r="C29" t="s">
+        <v>542</v>
+      </c>
+      <c r="D29" t="s">
+        <v>549</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2335,14 +2863,23 @@
       <c r="F30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>119</v>
+        <v>114</v>
+      </c>
+      <c r="C31" t="s">
+        <v>540</v>
+      </c>
+      <c r="D31" t="s">
+        <v>548</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2350,14 +2887,17 @@
       <c r="F31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2365,8 +2905,11 @@
       <c r="F32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2380,8 +2923,11 @@
       <c r="F33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2395,14 +2941,17 @@
       <c r="F34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2410,14 +2959,17 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2425,14 +2977,17 @@
       <c r="F36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2440,8 +2995,11 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2455,14 +3013,17 @@
       <c r="F38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2470,8 +3031,11 @@
       <c r="F39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2485,14 +3049,17 @@
       <c r="F40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2500,8 +3067,11 @@
       <c r="F41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2510,10 +3080,10 @@
         <v>82</v>
       </c>
       <c r="C42" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="D42" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -2521,14 +3091,17 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2536,14 +3109,17 @@
       <c r="F43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2551,29 +3127,41 @@
       <c r="F44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>260</v>
+        <v>250</v>
+      </c>
+      <c r="C45" t="s">
+        <v>485</v>
+      </c>
+      <c r="D45" t="s">
+        <v>484</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2581,14 +3169,17 @@
       <c r="F46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2596,14 +3187,17 @@
       <c r="F47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2611,14 +3205,17 @@
       <c r="F48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2626,14 +3223,17 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2641,8 +3241,11 @@
       <c r="F50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2650,20 +3253,29 @@
       <c r="B51" t="s">
         <v>59</v>
       </c>
+      <c r="C51" t="s">
+        <v>562</v>
+      </c>
+      <c r="D51" t="s">
+        <v>563</v>
+      </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="G51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2671,8 +3283,11 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2681,10 +3296,10 @@
         <v>44</v>
       </c>
       <c r="C53" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="D53" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -2692,14 +3307,17 @@
       <c r="F53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="G53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2707,8 +3325,11 @@
       <c r="F54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2722,14 +3343,17 @@
       <c r="F55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2737,14 +3361,17 @@
       <c r="F56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="G56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2752,8 +3379,11 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2762,10 +3392,10 @@
         <v>23</v>
       </c>
       <c r="C58" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="D58" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -2773,8 +3403,11 @@
       <c r="F58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="G58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2788,8 +3421,11 @@
       <c r="F59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="G59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -2803,14 +3439,23 @@
       <c r="F60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="G60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>280</v>
+        <v>270</v>
+      </c>
+      <c r="C61" t="s">
+        <v>564</v>
+      </c>
+      <c r="D61" t="s">
+        <v>565</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2818,14 +3463,17 @@
       <c r="F61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="G61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2833,14 +3481,17 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2848,14 +3499,17 @@
       <c r="F63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="G63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2863,8 +3517,11 @@
       <c r="F64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="G64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -2873,10 +3530,10 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="D65" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -2884,14 +3541,17 @@
       <c r="F65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="G65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2899,14 +3559,17 @@
       <c r="F66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="G66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2914,29 +3577,41 @@
       <c r="F67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="G67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68">
         <f t="shared" ref="A68:A131" si="1">A67+1</f>
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>223</v>
+        <v>214</v>
+      </c>
+      <c r="C68" t="s">
+        <v>486</v>
+      </c>
+      <c r="D68" t="s">
+        <v>433</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2944,14 +3619,17 @@
       <c r="F69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="G69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -2959,8 +3637,11 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -2968,20 +3649,29 @@
       <c r="B71" t="s">
         <v>36</v>
       </c>
+      <c r="C71" t="s">
+        <v>487</v>
+      </c>
+      <c r="D71" t="s">
+        <v>538</v>
+      </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="F71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -2989,8 +3679,11 @@
       <c r="F72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="G72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -2998,14 +3691,23 @@
       <c r="B73" t="s">
         <v>24</v>
       </c>
+      <c r="C73" t="s">
+        <v>566</v>
+      </c>
+      <c r="D73" t="s">
+        <v>567</v>
+      </c>
       <c r="E73">
         <v>0</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="G73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -3019,14 +3721,17 @@
       <c r="F74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="G74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3034,14 +3739,17 @@
       <c r="F75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="G75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>83</v>
+        <v>472</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -3049,8 +3757,11 @@
       <c r="F76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -3064,8 +3775,11 @@
       <c r="F77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="G77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -3079,8 +3793,11 @@
       <c r="F78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="G78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -3089,10 +3806,10 @@
         <v>61</v>
       </c>
       <c r="C79" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="D79" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -3100,8 +3817,11 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -3109,20 +3829,29 @@
       <c r="B80" t="s">
         <v>25</v>
       </c>
+      <c r="C80" t="s">
+        <v>568</v>
+      </c>
+      <c r="D80" t="s">
+        <v>569</v>
+      </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="F80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="G80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -3130,20 +3859,23 @@
       <c r="F81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="G81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="C82" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="D82" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -3151,35 +3883,41 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="C83" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="D83" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="E83">
         <v>1</v>
       </c>
       <c r="F83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -3187,14 +3925,17 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -3202,41 +3943,47 @@
       <c r="F85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:6">
+      <c r="G85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C86" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="D86" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="E86">
         <v>1</v>
       </c>
       <c r="F86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C87" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="D87" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -3244,14 +3991,17 @@
       <c r="F87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:6">
+      <c r="G87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -3259,14 +4009,17 @@
       <c r="F88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:6">
+      <c r="G88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -3274,14 +4027,17 @@
       <c r="F89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:6">
+      <c r="G89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -3289,14 +4045,17 @@
       <c r="F90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:6">
+      <c r="G90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -3304,8 +4063,11 @@
       <c r="F91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:6">
+      <c r="G91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -3319,14 +4081,23 @@
       <c r="F92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:6">
+      <c r="G92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>203</v>
+        <v>194</v>
+      </c>
+      <c r="C93" t="s">
+        <v>570</v>
+      </c>
+      <c r="D93" t="s">
+        <v>394</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -3334,14 +4105,17 @@
       <c r="F93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:6">
+      <c r="G93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -3349,14 +4123,17 @@
       <c r="F94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:6">
+      <c r="G94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>312</v>
+        <v>473</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -3364,14 +4141,17 @@
       <c r="F95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:6">
+      <c r="G95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>313</v>
+        <v>474</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -3379,20 +4159,23 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C97" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="D97" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -3400,35 +4183,47 @@
       <c r="F97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>168</v>
+        <v>161</v>
+      </c>
+      <c r="C98" t="s">
+        <v>491</v>
+      </c>
+      <c r="D98" t="s">
+        <v>537</v>
       </c>
       <c r="E98">
         <v>0</v>
       </c>
       <c r="F98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C99" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="D99" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -3436,14 +4231,23 @@
       <c r="F99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>306</v>
+        <v>295</v>
+      </c>
+      <c r="C100" t="s">
+        <v>492</v>
+      </c>
+      <c r="D100" t="s">
+        <v>536</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -3451,14 +4255,23 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>235</v>
+        <v>226</v>
+      </c>
+      <c r="C101" t="s">
+        <v>571</v>
+      </c>
+      <c r="D101" t="s">
+        <v>364</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -3466,8 +4279,11 @@
       <c r="F101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:6">
+      <c r="G101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -3481,14 +4297,17 @@
       <c r="F102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -3496,14 +4315,23 @@
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>108</v>
+        <v>104</v>
+      </c>
+      <c r="C104" t="s">
+        <v>572</v>
+      </c>
+      <c r="D104" t="s">
+        <v>573</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -3511,8 +4339,11 @@
       <c r="F104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:6">
+      <c r="G104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -3526,14 +4357,23 @@
       <c r="F105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:6">
+      <c r="G105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>182</v>
+        <v>175</v>
+      </c>
+      <c r="C106" t="s">
+        <v>574</v>
+      </c>
+      <c r="D106" t="s">
+        <v>575</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -3541,8 +4381,11 @@
       <c r="F106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:6">
+      <c r="G106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -3556,20 +4399,23 @@
       <c r="F107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:6">
+      <c r="G107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C108" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="D108" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -3577,14 +4423,17 @@
       <c r="F108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:6">
+      <c r="G108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -3592,14 +4441,17 @@
       <c r="F109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:6">
+      <c r="G109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -3607,14 +4459,17 @@
       <c r="F110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:6">
+      <c r="G110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -3622,8 +4477,11 @@
       <c r="F111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:6">
+      <c r="G111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -3637,14 +4495,17 @@
       <c r="F112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:6">
+      <c r="G112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -3652,14 +4513,17 @@
       <c r="F113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:6">
+      <c r="G113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -3667,20 +4531,23 @@
       <c r="F114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:6">
+      <c r="G114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="C115" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="D115" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -3688,14 +4555,17 @@
       <c r="F115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:6">
+      <c r="G115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -3703,14 +4573,17 @@
       <c r="F116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:6">
+      <c r="G116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -3718,14 +4591,17 @@
       <c r="F117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:6">
+      <c r="G117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -3733,14 +4609,17 @@
       <c r="F118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:6">
+      <c r="G118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -3748,20 +4627,23 @@
       <c r="F119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:6">
+      <c r="G119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C120" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="D120" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -3769,14 +4651,17 @@
       <c r="F120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:6">
+      <c r="G120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -3784,8 +4669,11 @@
       <c r="F121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:6">
+      <c r="G121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -3793,20 +4681,29 @@
       <c r="B122" t="s">
         <v>62</v>
       </c>
+      <c r="C122" t="s">
+        <v>576</v>
+      </c>
+      <c r="D122" t="s">
+        <v>358</v>
+      </c>
       <c r="E122">
         <v>0</v>
       </c>
       <c r="F122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:6">
+      <c r="G122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123">
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -3814,14 +4711,17 @@
       <c r="F123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:6">
+      <c r="G123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124">
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -3829,14 +4729,17 @@
       <c r="F124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:6">
+      <c r="G124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -3844,14 +4747,17 @@
       <c r="F125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:6">
+      <c r="G125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -3859,20 +4765,23 @@
       <c r="F126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:6">
+      <c r="G126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C127" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="D127" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="E127">
         <v>1</v>
@@ -3880,29 +4789,41 @@
       <c r="F127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:6">
+      <c r="G127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128">
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>139</v>
+        <v>134</v>
+      </c>
+      <c r="C128" t="s">
+        <v>488</v>
+      </c>
+      <c r="D128" t="s">
+        <v>535</v>
       </c>
       <c r="E128">
         <v>0</v>
       </c>
       <c r="F128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129">
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -3910,14 +4831,17 @@
       <c r="F129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:6">
+      <c r="G129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130">
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -3925,14 +4849,17 @@
       <c r="F130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:6">
+      <c r="G130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131">
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -3940,14 +4867,23 @@
       <c r="F131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:6">
+      <c r="G131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132">
         <f t="shared" ref="A132:A195" si="2">A131+1</f>
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>171</v>
+        <v>164</v>
+      </c>
+      <c r="C132" t="s">
+        <v>493</v>
+      </c>
+      <c r="D132" t="s">
+        <v>534</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -3955,8 +4891,11 @@
       <c r="F132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:6">
+      <c r="G132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -3970,14 +4909,17 @@
       <c r="F133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:6">
+      <c r="G133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134">
         <f t="shared" si="2"/>
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -3985,14 +4927,17 @@
       <c r="F134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:6">
+      <c r="G134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135">
         <f t="shared" si="2"/>
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -4000,14 +4945,23 @@
       <c r="F135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:6">
+      <c r="G135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136">
         <f t="shared" si="2"/>
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>225</v>
+        <v>216</v>
+      </c>
+      <c r="C136" t="s">
+        <v>577</v>
+      </c>
+      <c r="D136" t="s">
+        <v>578</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -4015,14 +4969,17 @@
       <c r="F136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:6">
+      <c r="G136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137">
         <f t="shared" si="2"/>
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -4030,8 +4987,11 @@
       <c r="F137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:6">
+      <c r="G137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -4045,20 +5005,23 @@
       <c r="F138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:6">
+      <c r="G138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139">
         <f t="shared" si="2"/>
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="C139" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="D139" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="E139">
         <v>1</v>
@@ -4066,14 +5029,17 @@
       <c r="F139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:6">
+      <c r="G139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140">
         <f t="shared" si="2"/>
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -4081,14 +5047,17 @@
       <c r="F140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:6">
+      <c r="G140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -4096,14 +5065,17 @@
       <c r="F141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:6">
+      <c r="G141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142">
         <f t="shared" si="2"/>
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -4111,14 +5083,17 @@
       <c r="F142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:6">
+      <c r="G142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143">
         <f t="shared" si="2"/>
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -4126,14 +5101,23 @@
       <c r="F143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:6">
+      <c r="G143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144">
         <f t="shared" si="2"/>
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>198</v>
+        <v>189</v>
+      </c>
+      <c r="C144" t="s">
+        <v>579</v>
+      </c>
+      <c r="D144" t="s">
+        <v>516</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -4141,8 +5125,11 @@
       <c r="F144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:6">
+      <c r="G144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -4151,10 +5138,10 @@
         <v>29</v>
       </c>
       <c r="C145" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="D145" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="E145">
         <v>1</v>
@@ -4162,20 +5149,23 @@
       <c r="F145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:6">
+      <c r="G145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146">
         <f t="shared" si="2"/>
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="C146" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="D146" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -4183,20 +5173,23 @@
       <c r="F146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:6">
+      <c r="G146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147">
         <f t="shared" si="2"/>
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C147" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="D147" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="E147">
         <v>1</v>
@@ -4204,8 +5197,11 @@
       <c r="F147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:6">
+      <c r="G147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
       <c r="A148">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -4219,14 +5215,17 @@
       <c r="F148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:6">
+      <c r="G148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149">
         <f t="shared" si="2"/>
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E149">
         <v>0</v>
@@ -4234,14 +5233,23 @@
       <c r="F149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:6">
+      <c r="G149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150">
         <f t="shared" si="2"/>
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>151</v>
+        <v>145</v>
+      </c>
+      <c r="C150" t="s">
+        <v>580</v>
+      </c>
+      <c r="D150" t="s">
+        <v>581</v>
       </c>
       <c r="E150">
         <v>0</v>
@@ -4249,14 +5257,17 @@
       <c r="F150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:6">
+      <c r="G150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="E151">
         <v>0</v>
@@ -4264,14 +5275,23 @@
       <c r="F151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:6">
+      <c r="G151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
       <c r="A152">
         <f t="shared" si="2"/>
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>99</v>
+        <v>96</v>
+      </c>
+      <c r="C152" t="s">
+        <v>582</v>
+      </c>
+      <c r="D152" t="s">
+        <v>583</v>
       </c>
       <c r="E152">
         <v>0</v>
@@ -4279,14 +5299,17 @@
       <c r="F152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:6">
+      <c r="G152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
       <c r="A153">
         <f t="shared" si="2"/>
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E153">
         <v>0</v>
@@ -4294,20 +5317,23 @@
       <c r="F153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:6">
+      <c r="G153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154">
         <f t="shared" si="2"/>
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C154" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="D154" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="E154">
         <v>1</v>
@@ -4315,14 +5341,17 @@
       <c r="F154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:6">
+      <c r="G154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155">
         <f t="shared" si="2"/>
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -4330,20 +5359,23 @@
       <c r="F155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:6">
+      <c r="G155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
       <c r="A156">
         <f t="shared" si="2"/>
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>110</v>
+        <v>467</v>
       </c>
       <c r="C156" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="D156" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="E156">
         <v>1</v>
@@ -4351,14 +5383,17 @@
       <c r="F156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:6">
+      <c r="G156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157">
         <f t="shared" si="2"/>
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E157">
         <v>0</v>
@@ -4366,14 +5401,17 @@
       <c r="F157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:6">
+      <c r="G157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158">
         <f t="shared" si="2"/>
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="E158">
         <v>0</v>
@@ -4381,35 +5419,47 @@
       <c r="F158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:6">
+      <c r="G158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
       <c r="A159">
         <f t="shared" si="2"/>
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>248</v>
+        <v>238</v>
+      </c>
+      <c r="C159" t="s">
+        <v>494</v>
+      </c>
+      <c r="D159" t="s">
+        <v>533</v>
       </c>
       <c r="E159">
         <v>0</v>
       </c>
       <c r="F159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160">
         <f t="shared" si="2"/>
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C160" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="D160" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="E160">
         <v>0</v>
@@ -4417,14 +5467,17 @@
       <c r="F160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:6">
+      <c r="G160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
       <c r="A161">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="E161">
         <v>0</v>
@@ -4432,8 +5485,11 @@
       <c r="F161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:6">
+      <c r="G161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
       <c r="A162">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -4447,14 +5503,17 @@
       <c r="F162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:6">
+      <c r="G162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
       <c r="A163">
         <f t="shared" si="2"/>
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="E163">
         <v>0</v>
@@ -4462,14 +5521,17 @@
       <c r="F163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:6">
+      <c r="G163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
       <c r="A164">
         <f t="shared" si="2"/>
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E164">
         <v>0</v>
@@ -4477,14 +5539,23 @@
       <c r="F164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:6">
+      <c r="G164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
       <c r="A165">
         <f t="shared" si="2"/>
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>164</v>
+        <v>157</v>
+      </c>
+      <c r="C165" t="s">
+        <v>584</v>
+      </c>
+      <c r="D165" t="s">
+        <v>585</v>
       </c>
       <c r="E165">
         <v>0</v>
@@ -4492,8 +5563,11 @@
       <c r="F165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:6">
+      <c r="G165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
       <c r="A166">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -4502,31 +5576,34 @@
         <v>63</v>
       </c>
       <c r="C166" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="D166" t="s">
-        <v>402</v>
+        <v>344</v>
       </c>
       <c r="E166">
         <v>1</v>
       </c>
       <c r="F166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
       <c r="A167">
         <f t="shared" si="2"/>
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C167" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="D167" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="E167">
         <v>1</v>
@@ -4534,14 +5611,17 @@
       <c r="F167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:6">
+      <c r="G167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
       <c r="A168">
         <f t="shared" si="2"/>
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E168">
         <v>0</v>
@@ -4549,14 +5629,17 @@
       <c r="F168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:6">
+      <c r="G168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
       <c r="A169">
         <f t="shared" si="2"/>
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E169">
         <v>0</v>
@@ -4564,14 +5647,17 @@
       <c r="F169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:6">
+      <c r="G169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
       <c r="A170">
         <f t="shared" si="2"/>
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E170">
         <v>0</v>
@@ -4579,14 +5665,17 @@
       <c r="F170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:6">
+      <c r="G170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
       <c r="A171">
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="E171">
         <v>0</v>
@@ -4594,20 +5683,23 @@
       <c r="F171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:6">
+      <c r="G171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
       <c r="A172">
         <f t="shared" si="2"/>
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C172" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="D172" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="E172">
         <v>1</v>
@@ -4615,14 +5707,17 @@
       <c r="F172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:6">
+      <c r="G172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
       <c r="A173">
         <f t="shared" si="2"/>
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -4630,14 +5725,17 @@
       <c r="F173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:6">
+      <c r="G173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
       <c r="A174">
         <f t="shared" si="2"/>
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="E174">
         <v>0</v>
@@ -4645,14 +5743,23 @@
       <c r="F174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:6">
+      <c r="G174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
       <c r="A175">
         <f t="shared" si="2"/>
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>229</v>
+        <v>220</v>
+      </c>
+      <c r="C175" t="s">
+        <v>586</v>
+      </c>
+      <c r="D175" t="s">
+        <v>587</v>
       </c>
       <c r="E175">
         <v>0</v>
@@ -4660,8 +5767,11 @@
       <c r="F175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:6">
+      <c r="G175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
       <c r="A176">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -4669,14 +5779,23 @@
       <c r="B176" t="s">
         <v>55</v>
       </c>
+      <c r="C176" t="s">
+        <v>495</v>
+      </c>
+      <c r="D176" t="s">
+        <v>532</v>
+      </c>
       <c r="E176">
         <v>0</v>
       </c>
       <c r="F176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
       <c r="A177">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -4690,14 +5809,23 @@
       <c r="F177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:6">
+      <c r="G177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
       <c r="A178">
         <f t="shared" si="2"/>
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>337</v>
+        <v>324</v>
+      </c>
+      <c r="C178" t="s">
+        <v>496</v>
+      </c>
+      <c r="D178" t="s">
+        <v>531</v>
       </c>
       <c r="E178">
         <v>0</v>
@@ -4705,14 +5833,17 @@
       <c r="F178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:6">
+      <c r="G178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
       <c r="A179">
         <f t="shared" si="2"/>
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E179">
         <v>0</v>
@@ -4720,14 +5851,17 @@
       <c r="F179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:6">
+      <c r="G179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
       <c r="A180">
         <f t="shared" si="2"/>
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="E180">
         <v>0</v>
@@ -4735,14 +5869,17 @@
       <c r="F180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:6">
+      <c r="G180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
       <c r="A181">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="E181">
         <v>0</v>
@@ -4750,20 +5887,23 @@
       <c r="F181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:6">
+      <c r="G181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
       <c r="A182">
         <f t="shared" si="2"/>
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C182" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="D182" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="E182">
         <v>1</v>
@@ -4771,14 +5911,17 @@
       <c r="F182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:6">
+      <c r="G182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
       <c r="A183">
         <f t="shared" si="2"/>
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="E183">
         <v>0</v>
@@ -4786,14 +5929,17 @@
       <c r="F183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:6">
+      <c r="G183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
       <c r="A184">
         <f t="shared" si="2"/>
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="E184">
         <v>0</v>
@@ -4801,14 +5947,17 @@
       <c r="F184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:6">
+      <c r="G184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
       <c r="A185">
         <f t="shared" si="2"/>
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="E185">
         <v>0</v>
@@ -4816,8 +5965,11 @@
       <c r="F185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:6">
+      <c r="G185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
       <c r="A186">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -4825,20 +5977,35 @@
       <c r="B186" t="s">
         <v>65</v>
       </c>
+      <c r="C186" t="s">
+        <v>497</v>
+      </c>
+      <c r="D186" t="s">
+        <v>530</v>
+      </c>
       <c r="E186">
         <v>0</v>
       </c>
       <c r="F186">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:6">
+      <c r="G186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
       <c r="A187">
         <f t="shared" si="2"/>
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>176</v>
+        <v>169</v>
+      </c>
+      <c r="C187" t="s">
+        <v>588</v>
+      </c>
+      <c r="D187" t="s">
+        <v>589</v>
       </c>
       <c r="E187">
         <v>0</v>
@@ -4846,14 +6013,17 @@
       <c r="F187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:6">
+      <c r="G187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
       <c r="A188">
         <f t="shared" si="2"/>
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E188">
         <v>0</v>
@@ -4861,29 +6031,41 @@
       <c r="F188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:6">
+      <c r="G188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
       <c r="A189">
         <f t="shared" si="2"/>
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>318</v>
+        <v>305</v>
+      </c>
+      <c r="C189" t="s">
+        <v>498</v>
+      </c>
+      <c r="D189" t="s">
+        <v>529</v>
       </c>
       <c r="E189">
         <v>0</v>
       </c>
       <c r="F189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
       <c r="A190">
         <f t="shared" si="2"/>
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E190">
         <v>0</v>
@@ -4891,14 +6073,17 @@
       <c r="F190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:6">
+      <c r="G190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
       <c r="A191">
         <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="E191">
         <v>0</v>
@@ -4906,14 +6091,17 @@
       <c r="F191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:6">
+      <c r="G191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
       <c r="A192">
         <f t="shared" si="2"/>
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="E192">
         <v>0</v>
@@ -4921,14 +6109,17 @@
       <c r="F192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:6">
+      <c r="G192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
       <c r="A193">
         <f t="shared" si="2"/>
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="E193">
         <v>0</v>
@@ -4936,8 +6127,11 @@
       <c r="F193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:6">
+      <c r="G193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
       <c r="A194">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -4946,10 +6140,10 @@
         <v>18</v>
       </c>
       <c r="C194" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="D194" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="E194">
         <v>1</v>
@@ -4957,23 +6151,35 @@
       <c r="F194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:6">
+      <c r="G194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
       <c r="A195">
         <f t="shared" si="2"/>
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>309</v>
+        <v>298</v>
+      </c>
+      <c r="C195" t="s">
+        <v>543</v>
+      </c>
+      <c r="D195" t="s">
+        <v>546</v>
       </c>
       <c r="E195">
         <v>0</v>
       </c>
       <c r="F195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
       <c r="A196">
         <f t="shared" ref="A196:A259" si="3">A195+1</f>
         <v>195</v>
@@ -4987,8 +6193,11 @@
       <c r="F196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:6">
+      <c r="G196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
       <c r="A197">
         <f t="shared" si="3"/>
         <v>196</v>
@@ -4996,20 +6205,29 @@
       <c r="B197" t="s">
         <v>54</v>
       </c>
+      <c r="C197" t="s">
+        <v>499</v>
+      </c>
+      <c r="D197" t="s">
+        <v>528</v>
+      </c>
       <c r="E197">
         <v>0</v>
       </c>
       <c r="F197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:6">
+      <c r="G197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
       <c r="A198">
         <f t="shared" si="3"/>
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="E198">
         <v>0</v>
@@ -5017,8 +6235,11 @@
       <c r="F198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:6">
+      <c r="G198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
       <c r="A199">
         <f t="shared" si="3"/>
         <v>198</v>
@@ -5027,10 +6248,10 @@
         <v>64</v>
       </c>
       <c r="C199" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="D199" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="E199">
         <v>1</v>
@@ -5038,14 +6259,17 @@
       <c r="F199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:6">
+      <c r="G199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
       <c r="A200">
         <f t="shared" si="3"/>
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="E200">
         <v>0</v>
@@ -5053,29 +6277,35 @@
       <c r="F200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:6">
+      <c r="G200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
       <c r="A201">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C201" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="D201" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="E201">
         <v>1</v>
       </c>
       <c r="F201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
       <c r="A202">
         <f t="shared" si="3"/>
         <v>201</v>
@@ -5089,8 +6319,11 @@
       <c r="F202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:6">
+      <c r="G202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
       <c r="A203">
         <f t="shared" si="3"/>
         <v>202</v>
@@ -5098,14 +6331,23 @@
       <c r="B203" t="s">
         <v>9</v>
       </c>
+      <c r="C203" t="s">
+        <v>500</v>
+      </c>
+      <c r="D203" t="s">
+        <v>515</v>
+      </c>
       <c r="E203">
         <v>0</v>
       </c>
       <c r="F203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
       <c r="A204">
         <f t="shared" si="3"/>
         <v>203</v>
@@ -5113,14 +6355,23 @@
       <c r="B204" t="s">
         <v>32</v>
       </c>
+      <c r="C204" t="s">
+        <v>559</v>
+      </c>
+      <c r="D204" t="s">
+        <v>550</v>
+      </c>
       <c r="E204">
         <v>0</v>
       </c>
       <c r="F204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
       <c r="A205">
         <f t="shared" si="3"/>
         <v>204</v>
@@ -5128,20 +6379,29 @@
       <c r="B205" t="s">
         <v>19</v>
       </c>
+      <c r="C205" t="s">
+        <v>501</v>
+      </c>
+      <c r="D205" t="s">
+        <v>527</v>
+      </c>
       <c r="E205">
         <v>0</v>
       </c>
       <c r="F205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
       <c r="A206">
         <f t="shared" si="3"/>
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="E206">
         <v>0</v>
@@ -5149,14 +6409,17 @@
       <c r="F206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:6">
+      <c r="G206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
       <c r="A207">
         <f t="shared" si="3"/>
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="E207">
         <v>0</v>
@@ -5164,14 +6427,23 @@
       <c r="F207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:6">
+      <c r="G207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
       <c r="A208">
         <f t="shared" si="3"/>
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>277</v>
+        <v>267</v>
+      </c>
+      <c r="C208" t="s">
+        <v>489</v>
+      </c>
+      <c r="D208" t="s">
+        <v>526</v>
       </c>
       <c r="E208">
         <v>0</v>
@@ -5179,14 +6451,23 @@
       <c r="F208">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:6">
+      <c r="G208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
       <c r="A209">
         <f t="shared" si="3"/>
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>300</v>
+        <v>475</v>
+      </c>
+      <c r="C209" t="s">
+        <v>541</v>
+      </c>
+      <c r="D209" t="s">
+        <v>547</v>
       </c>
       <c r="E209">
         <v>0</v>
@@ -5194,14 +6475,17 @@
       <c r="F209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:6">
+      <c r="G209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
       <c r="A210">
         <f t="shared" si="3"/>
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E210">
         <v>0</v>
@@ -5209,20 +6493,23 @@
       <c r="F210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:6">
+      <c r="G210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
       <c r="A211">
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="C211" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="D211" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="E211">
         <v>1</v>
@@ -5230,14 +6517,23 @@
       <c r="F211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:6">
+      <c r="G211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
       <c r="A212">
         <f t="shared" si="3"/>
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>329</v>
+        <v>316</v>
+      </c>
+      <c r="C212" t="s">
+        <v>590</v>
+      </c>
+      <c r="D212" t="s">
+        <v>591</v>
       </c>
       <c r="E212">
         <v>0</v>
@@ -5245,23 +6541,35 @@
       <c r="F212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:6">
+      <c r="G212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
       <c r="A213">
         <f t="shared" si="3"/>
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>113</v>
+        <v>108</v>
+      </c>
+      <c r="C213" t="s">
+        <v>524</v>
+      </c>
+      <c r="D213" t="s">
+        <v>364</v>
       </c>
       <c r="E213">
         <v>0</v>
       </c>
       <c r="F213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
       <c r="A214">
         <f t="shared" si="3"/>
         <v>213</v>
@@ -5275,14 +6583,17 @@
       <c r="F214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:6">
+      <c r="G214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
       <c r="A215">
         <f t="shared" si="3"/>
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E215">
         <v>0</v>
@@ -5290,14 +6601,23 @@
       <c r="F215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:6">
+      <c r="G215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
       <c r="A216">
         <f t="shared" si="3"/>
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>330</v>
+        <v>317</v>
+      </c>
+      <c r="C216" t="s">
+        <v>592</v>
+      </c>
+      <c r="D216" t="s">
+        <v>516</v>
       </c>
       <c r="E216">
         <v>0</v>
@@ -5305,8 +6625,11 @@
       <c r="F216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:6">
+      <c r="G216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
       <c r="A217">
         <f t="shared" si="3"/>
         <v>216</v>
@@ -5320,14 +6643,17 @@
       <c r="F217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:6">
+      <c r="G217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
       <c r="A218">
         <f t="shared" si="3"/>
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E218">
         <v>0</v>
@@ -5335,14 +6661,17 @@
       <c r="F218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:6">
+      <c r="G218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
       <c r="A219">
         <f t="shared" si="3"/>
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="E219">
         <v>0</v>
@@ -5350,14 +6679,17 @@
       <c r="F219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:6">
+      <c r="G219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
       <c r="A220">
         <f t="shared" si="3"/>
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="E220">
         <v>0</v>
@@ -5365,8 +6697,11 @@
       <c r="F220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:6">
+      <c r="G220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
       <c r="A221">
         <f t="shared" si="3"/>
         <v>220</v>
@@ -5375,10 +6710,10 @@
         <v>2</v>
       </c>
       <c r="C221" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="D221" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="E221">
         <v>1</v>
@@ -5386,35 +6721,47 @@
       <c r="F221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:6">
+      <c r="G221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
       <c r="A222">
         <f t="shared" si="3"/>
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="C222" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="D222" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="E222">
         <v>1</v>
       </c>
       <c r="F222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
       <c r="A223">
         <f t="shared" si="3"/>
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>177</v>
+        <v>170</v>
+      </c>
+      <c r="C223" t="s">
+        <v>523</v>
+      </c>
+      <c r="D223" t="s">
+        <v>525</v>
       </c>
       <c r="E223">
         <v>0</v>
@@ -5422,14 +6769,23 @@
       <c r="F223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:6">
+      <c r="G223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
       <c r="A224">
         <f t="shared" si="3"/>
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>265</v>
+        <v>255</v>
+      </c>
+      <c r="C224" t="s">
+        <v>558</v>
+      </c>
+      <c r="D224" t="s">
+        <v>515</v>
       </c>
       <c r="E224">
         <v>0</v>
@@ -5437,20 +6793,23 @@
       <c r="F224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:6">
+      <c r="G224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
       <c r="A225">
         <f t="shared" si="3"/>
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C225" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="D225" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="E225">
         <v>1</v>
@@ -5458,20 +6817,23 @@
       <c r="F225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:6">
+      <c r="G225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
       <c r="A226">
         <f t="shared" si="3"/>
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="C226" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="D226" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="E226">
         <v>1</v>
@@ -5479,20 +6841,23 @@
       <c r="F226">
         <v>1</v>
       </c>
-    </row>
-    <row r="227" spans="1:6">
+      <c r="G226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
       <c r="A227">
         <f t="shared" si="3"/>
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="C227" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="D227" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="E227">
         <v>1</v>
@@ -5500,29 +6865,41 @@
       <c r="F227">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:6">
+      <c r="G227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
       <c r="A228">
         <f t="shared" si="3"/>
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>321</v>
+        <v>308</v>
+      </c>
+      <c r="C228" t="s">
+        <v>490</v>
+      </c>
+      <c r="D228" t="s">
+        <v>400</v>
       </c>
       <c r="E228">
         <v>0</v>
       </c>
       <c r="F228">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
       <c r="A229">
         <f t="shared" si="3"/>
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="E229">
         <v>0</v>
@@ -5530,14 +6907,23 @@
       <c r="F229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:6">
+      <c r="G229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
       <c r="A230">
         <f t="shared" si="3"/>
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>245</v>
+        <v>236</v>
+      </c>
+      <c r="C230" t="s">
+        <v>502</v>
+      </c>
+      <c r="D230" t="s">
+        <v>386</v>
       </c>
       <c r="E230">
         <v>0</v>
@@ -5545,14 +6931,23 @@
       <c r="F230">
         <v>1</v>
       </c>
-    </row>
-    <row r="231" spans="1:6">
+      <c r="G230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
       <c r="A231">
         <f t="shared" si="3"/>
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>120</v>
+        <v>115</v>
+      </c>
+      <c r="C231" t="s">
+        <v>593</v>
+      </c>
+      <c r="D231" t="s">
+        <v>444</v>
       </c>
       <c r="E231">
         <v>0</v>
@@ -5560,20 +6955,23 @@
       <c r="F231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:6">
+      <c r="G231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
       <c r="A232">
         <f t="shared" si="3"/>
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C232" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="D232" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="E232">
         <v>1</v>
@@ -5581,20 +6979,23 @@
       <c r="F232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:6">
+      <c r="G232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
       <c r="A233">
         <f t="shared" si="3"/>
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C233" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="D233" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="E233">
         <v>1</v>
@@ -5602,14 +7003,17 @@
       <c r="F233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:6">
+      <c r="G233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
       <c r="A234">
         <f t="shared" si="3"/>
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E234">
         <v>0</v>
@@ -5617,14 +7021,17 @@
       <c r="F234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:6">
+      <c r="G234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
       <c r="A235">
         <f t="shared" si="3"/>
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E235">
         <v>0</v>
@@ -5632,14 +7039,17 @@
       <c r="F235">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:6">
+      <c r="G235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
       <c r="A236">
         <f t="shared" si="3"/>
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E236">
         <v>0</v>
@@ -5647,8 +7057,11 @@
       <c r="F236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:6">
+      <c r="G236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
       <c r="A237">
         <f t="shared" si="3"/>
         <v>236</v>
@@ -5662,8 +7075,11 @@
       <c r="F237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:6">
+      <c r="G237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
       <c r="A238">
         <f t="shared" si="3"/>
         <v>237</v>
@@ -5672,34 +7088,46 @@
         <v>12</v>
       </c>
       <c r="C238" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="D238" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="E238">
         <v>1</v>
       </c>
       <c r="F238">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
       <c r="A239">
         <f t="shared" si="3"/>
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>246</v>
+        <v>479</v>
+      </c>
+      <c r="C239" t="s">
+        <v>503</v>
+      </c>
+      <c r="D239" t="s">
+        <v>522</v>
       </c>
       <c r="E239">
         <v>0</v>
       </c>
       <c r="F239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
       <c r="A240">
         <f t="shared" si="3"/>
         <v>239</v>
@@ -5707,14 +7135,23 @@
       <c r="B240" t="s">
         <v>13</v>
       </c>
+      <c r="C240" t="s">
+        <v>504</v>
+      </c>
+      <c r="D240" t="s">
+        <v>521</v>
+      </c>
       <c r="E240">
         <v>0</v>
       </c>
       <c r="F240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
       <c r="A241">
         <f t="shared" si="3"/>
         <v>240</v>
@@ -5723,10 +7160,10 @@
         <v>45</v>
       </c>
       <c r="C241" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="D241" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="E241">
         <v>1</v>
@@ -5734,14 +7171,17 @@
       <c r="F241">
         <v>1</v>
       </c>
-    </row>
-    <row r="242" spans="1:6">
+      <c r="G241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
       <c r="A242">
         <f t="shared" si="3"/>
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E242">
         <v>0</v>
@@ -5749,14 +7189,17 @@
       <c r="F242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:6">
+      <c r="G242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
       <c r="A243">
         <f t="shared" si="3"/>
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E243">
         <v>0</v>
@@ -5764,14 +7207,17 @@
       <c r="F243">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:6">
+      <c r="G243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
       <c r="A244">
         <f t="shared" si="3"/>
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E244">
         <v>0</v>
@@ -5779,14 +7225,17 @@
       <c r="F244">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:6">
+      <c r="G244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
       <c r="A245">
         <f t="shared" si="3"/>
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E245">
         <v>0</v>
@@ -5794,14 +7243,23 @@
       <c r="F245">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:6">
+      <c r="G245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
       <c r="A246">
         <f t="shared" si="3"/>
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>268</v>
+        <v>258</v>
+      </c>
+      <c r="C246" t="s">
+        <v>594</v>
+      </c>
+      <c r="D246" t="s">
+        <v>595</v>
       </c>
       <c r="E246">
         <v>0</v>
@@ -5809,20 +7267,23 @@
       <c r="F246">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:6">
+      <c r="G246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
       <c r="A247">
         <f t="shared" si="3"/>
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C247" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="D247" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="E247">
         <v>1</v>
@@ -5830,8 +7291,11 @@
       <c r="F247">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:6">
+      <c r="G247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
       <c r="A248">
         <f t="shared" si="3"/>
         <v>247</v>
@@ -5845,23 +7309,35 @@
       <c r="F248">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:6">
+      <c r="G248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
       <c r="A249">
         <f t="shared" si="3"/>
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>118</v>
+        <v>113</v>
+      </c>
+      <c r="C249" t="s">
+        <v>505</v>
+      </c>
+      <c r="D249" t="s">
+        <v>520</v>
       </c>
       <c r="E249">
         <v>0</v>
       </c>
       <c r="F249">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
       <c r="A250">
         <f t="shared" si="3"/>
         <v>249</v>
@@ -5869,14 +7345,23 @@
       <c r="B250" t="s">
         <v>15</v>
       </c>
+      <c r="C250" t="s">
+        <v>596</v>
+      </c>
+      <c r="D250" t="s">
+        <v>597</v>
+      </c>
       <c r="E250">
         <v>0</v>
       </c>
       <c r="F250">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:6">
+      <c r="G250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
       <c r="A251">
         <f t="shared" si="3"/>
         <v>250</v>
@@ -5890,14 +7375,17 @@
       <c r="F251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:6">
+      <c r="G251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
       <c r="A252">
         <f t="shared" si="3"/>
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E252">
         <v>0</v>
@@ -5905,14 +7393,23 @@
       <c r="F252">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:6">
+      <c r="G252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
       <c r="A253">
         <f t="shared" si="3"/>
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>91</v>
+        <v>476</v>
+      </c>
+      <c r="C253" t="s">
+        <v>598</v>
+      </c>
+      <c r="D253" t="s">
+        <v>599</v>
       </c>
       <c r="E253">
         <v>0</v>
@@ -5920,20 +7417,23 @@
       <c r="F253">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:6">
+      <c r="G253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
       <c r="A254">
         <f t="shared" si="3"/>
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C254" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="D254" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="E254">
         <v>1</v>
@@ -5941,20 +7441,23 @@
       <c r="F254">
         <v>1</v>
       </c>
-    </row>
-    <row r="255" spans="1:6">
+      <c r="G254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
       <c r="A255">
         <f t="shared" si="3"/>
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C255" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="D255" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="E255">
         <v>1</v>
@@ -5962,20 +7465,23 @@
       <c r="F255">
         <v>1</v>
       </c>
-    </row>
-    <row r="256" spans="1:6">
+      <c r="G255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
       <c r="A256">
         <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="C256" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="D256" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="E256">
         <v>1</v>
@@ -5983,14 +7489,17 @@
       <c r="F256">
         <v>1</v>
       </c>
-    </row>
-    <row r="257" spans="1:6">
+      <c r="G256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
       <c r="A257">
         <f t="shared" si="3"/>
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="E257">
         <v>0</v>
@@ -5998,14 +7507,23 @@
       <c r="F257">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:6">
+      <c r="G257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
       <c r="A258">
         <f t="shared" si="3"/>
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>326</v>
+        <v>313</v>
+      </c>
+      <c r="C258" t="s">
+        <v>557</v>
+      </c>
+      <c r="D258" t="s">
+        <v>391</v>
       </c>
       <c r="E258">
         <v>0</v>
@@ -6013,8 +7531,11 @@
       <c r="F258">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:6">
+      <c r="G258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
       <c r="A259">
         <f t="shared" si="3"/>
         <v>258</v>
@@ -6023,10 +7544,10 @@
         <v>26</v>
       </c>
       <c r="C259" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="D259" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="E259">
         <v>1</v>
@@ -6034,8 +7555,11 @@
       <c r="F259">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:6">
+      <c r="G259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
       <c r="A260">
         <f t="shared" ref="A260:A323" si="4">A259+1</f>
         <v>259</v>
@@ -6049,14 +7573,17 @@
       <c r="F260">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:6">
+      <c r="G260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
       <c r="A261">
         <f t="shared" si="4"/>
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>194</v>
+        <v>619</v>
       </c>
       <c r="E261">
         <v>0</v>
@@ -6064,8 +7591,11 @@
       <c r="F261">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:6">
+      <c r="G261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
       <c r="A262">
         <f t="shared" si="4"/>
         <v>261</v>
@@ -6079,20 +7609,23 @@
       <c r="F262">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:6">
+      <c r="G262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
       <c r="A263">
         <f t="shared" si="4"/>
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C263" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="D263" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="E263">
         <v>1</v>
@@ -6100,8 +7633,11 @@
       <c r="F263">
         <v>1</v>
       </c>
-    </row>
-    <row r="264" spans="1:6">
+      <c r="G263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
       <c r="A264">
         <f t="shared" si="4"/>
         <v>263</v>
@@ -6115,8 +7651,11 @@
       <c r="F264">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:6">
+      <c r="G264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
       <c r="A265">
         <f t="shared" si="4"/>
         <v>264</v>
@@ -6130,8 +7669,11 @@
       <c r="F265">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:6">
+      <c r="G265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
       <c r="A266">
         <f t="shared" si="4"/>
         <v>265</v>
@@ -6139,14 +7681,23 @@
       <c r="B266" t="s">
         <v>16</v>
       </c>
+      <c r="C266" t="s">
+        <v>556</v>
+      </c>
+      <c r="D266" t="s">
+        <v>529</v>
+      </c>
       <c r="E266">
         <v>0</v>
       </c>
       <c r="F266">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:6">
+      <c r="G266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
       <c r="A267">
         <f t="shared" si="4"/>
         <v>266</v>
@@ -6154,35 +7705,59 @@
       <c r="B267" t="s">
         <v>27</v>
       </c>
+      <c r="C267" t="s">
+        <v>555</v>
+      </c>
+      <c r="D267" t="s">
+        <v>519</v>
+      </c>
       <c r="E267">
         <v>0</v>
       </c>
       <c r="F267">
         <v>1</v>
       </c>
-    </row>
-    <row r="268" spans="1:6">
+      <c r="G267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
       <c r="A268">
         <f t="shared" si="4"/>
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>95</v>
+        <v>93</v>
+      </c>
+      <c r="C268" t="s">
+        <v>554</v>
+      </c>
+      <c r="D268" t="s">
+        <v>551</v>
       </c>
       <c r="E268">
         <v>0</v>
       </c>
       <c r="F268">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
       <c r="A269">
         <f t="shared" si="4"/>
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>97</v>
+        <v>95</v>
+      </c>
+      <c r="C269" t="s">
+        <v>600</v>
+      </c>
+      <c r="D269" t="s">
+        <v>601</v>
       </c>
       <c r="E269">
         <v>0</v>
@@ -6190,20 +7765,23 @@
       <c r="F269">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:6">
+      <c r="G269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
       <c r="A270">
         <f t="shared" si="4"/>
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="C270" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="D270" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="E270">
         <v>1</v>
@@ -6211,14 +7789,17 @@
       <c r="F270">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:6">
+      <c r="G270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
       <c r="A271">
         <f t="shared" si="4"/>
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="E271">
         <v>0</v>
@@ -6226,14 +7807,17 @@
       <c r="F271">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:6">
+      <c r="G271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
       <c r="A272">
         <f t="shared" si="4"/>
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>344</v>
+        <v>468</v>
       </c>
       <c r="E272">
         <v>0</v>
@@ -6241,8 +7825,11 @@
       <c r="F272">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:6">
+      <c r="G272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
       <c r="A273">
         <f t="shared" si="4"/>
         <v>272</v>
@@ -6250,20 +7837,35 @@
       <c r="B273" t="s">
         <v>71</v>
       </c>
+      <c r="C273" t="s">
+        <v>544</v>
+      </c>
+      <c r="D273" t="s">
+        <v>545</v>
+      </c>
       <c r="E273">
         <v>0</v>
       </c>
       <c r="F273">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:6">
+      <c r="G273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
       <c r="A274">
         <f t="shared" si="4"/>
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>315</v>
+        <v>302</v>
+      </c>
+      <c r="C274" t="s">
+        <v>602</v>
+      </c>
+      <c r="D274" t="s">
+        <v>344</v>
       </c>
       <c r="E274">
         <v>0</v>
@@ -6271,14 +7873,17 @@
       <c r="F274">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:6">
+      <c r="G274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
       <c r="A275">
         <f t="shared" si="4"/>
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>98</v>
+        <v>477</v>
       </c>
       <c r="E275">
         <v>0</v>
@@ -6286,14 +7891,17 @@
       <c r="F275">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:6">
+      <c r="G275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
       <c r="A276">
         <f t="shared" si="4"/>
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="E276">
         <v>0</v>
@@ -6301,14 +7909,23 @@
       <c r="F276">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:6">
+      <c r="G276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
       <c r="A277">
         <f t="shared" si="4"/>
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>214</v>
+        <v>205</v>
+      </c>
+      <c r="C277" t="s">
+        <v>603</v>
+      </c>
+      <c r="D277" t="s">
+        <v>358</v>
       </c>
       <c r="E277">
         <v>0</v>
@@ -6316,8 +7933,11 @@
       <c r="F277">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:6">
+      <c r="G277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
       <c r="A278">
         <f t="shared" si="4"/>
         <v>277</v>
@@ -6331,14 +7951,17 @@
       <c r="F278">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:6">
+      <c r="G278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
       <c r="A279">
         <f t="shared" si="4"/>
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="E279">
         <v>0</v>
@@ -6346,14 +7969,23 @@
       <c r="F279">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:6">
+      <c r="G279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
       <c r="A280">
         <f t="shared" si="4"/>
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>294</v>
+        <v>284</v>
+      </c>
+      <c r="C280" t="s">
+        <v>604</v>
+      </c>
+      <c r="D280" t="s">
+        <v>358</v>
       </c>
       <c r="E280">
         <v>0</v>
@@ -6361,23 +7993,35 @@
       <c r="F280">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:6">
+      <c r="G280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
       <c r="A281">
         <f t="shared" si="4"/>
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="C281" t="s">
+        <v>506</v>
+      </c>
+      <c r="D281" t="s">
+        <v>433</v>
       </c>
       <c r="E281">
         <v>0</v>
       </c>
       <c r="F281">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
       <c r="A282">
         <f t="shared" si="4"/>
         <v>281</v>
@@ -6386,10 +8030,10 @@
         <v>28</v>
       </c>
       <c r="C282" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="D282" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="E282">
         <v>1</v>
@@ -6397,14 +8041,17 @@
       <c r="F282">
         <v>1</v>
       </c>
-    </row>
-    <row r="283" spans="1:6">
+      <c r="G282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
       <c r="A283">
         <f t="shared" si="4"/>
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E283">
         <v>0</v>
@@ -6412,14 +8059,17 @@
       <c r="F283">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:6">
+      <c r="G283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
       <c r="A284">
         <f t="shared" si="4"/>
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="E284">
         <v>0</v>
@@ -6427,23 +8077,35 @@
       <c r="F284">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:6">
+      <c r="G284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
       <c r="A285">
         <f t="shared" si="4"/>
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>132</v>
+        <v>127</v>
+      </c>
+      <c r="C285" t="s">
+        <v>507</v>
+      </c>
+      <c r="D285" t="s">
+        <v>518</v>
       </c>
       <c r="E285">
         <v>0</v>
       </c>
       <c r="F285">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
       <c r="A286">
         <f t="shared" si="4"/>
         <v>285</v>
@@ -6451,14 +8113,23 @@
       <c r="B286" t="s">
         <v>73</v>
       </c>
+      <c r="C286" t="s">
+        <v>605</v>
+      </c>
+      <c r="D286" t="s">
+        <v>606</v>
+      </c>
       <c r="E286">
         <v>0</v>
       </c>
       <c r="F286">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:6">
+      <c r="G286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
       <c r="A287">
         <f t="shared" si="4"/>
         <v>286</v>
@@ -6467,10 +8138,10 @@
         <v>41</v>
       </c>
       <c r="C287" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="D287" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="E287">
         <v>1</v>
@@ -6478,14 +8149,17 @@
       <c r="F287">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:6">
+      <c r="G287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
       <c r="A288">
         <f t="shared" si="4"/>
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E288">
         <v>0</v>
@@ -6493,8 +8167,11 @@
       <c r="F288">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:6">
+      <c r="G288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
       <c r="A289">
         <f t="shared" si="4"/>
         <v>288</v>
@@ -6508,29 +8185,35 @@
       <c r="F289">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:6">
+      <c r="G289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
       <c r="A290">
         <f t="shared" si="4"/>
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C290" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="D290" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="E290">
         <v>1</v>
       </c>
       <c r="F290">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
       <c r="A291">
         <f t="shared" si="4"/>
         <v>290</v>
@@ -6539,10 +8222,10 @@
         <v>30</v>
       </c>
       <c r="C291" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="D291" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="E291">
         <v>1</v>
@@ -6550,20 +8233,23 @@
       <c r="F291">
         <v>1</v>
       </c>
-    </row>
-    <row r="292" spans="1:6">
+      <c r="G291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
       <c r="A292">
         <f t="shared" si="4"/>
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C292" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="D292" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="E292">
         <v>1</v>
@@ -6571,20 +8257,23 @@
       <c r="F292">
         <v>1</v>
       </c>
-    </row>
-    <row r="293" spans="1:6">
+      <c r="G292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
       <c r="A293">
         <f t="shared" si="4"/>
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C293" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="D293" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="E293">
         <v>1</v>
@@ -6592,14 +8281,17 @@
       <c r="F293">
         <v>1</v>
       </c>
-    </row>
-    <row r="294" spans="1:6">
+      <c r="G293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
       <c r="A294">
         <f t="shared" si="4"/>
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E294">
         <v>0</v>
@@ -6607,8 +8299,11 @@
       <c r="F294">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:6">
+      <c r="G294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
       <c r="A295">
         <f t="shared" si="4"/>
         <v>294</v>
@@ -6616,20 +8311,29 @@
       <c r="B295" t="s">
         <v>31</v>
       </c>
+      <c r="C295" t="s">
+        <v>508</v>
+      </c>
+      <c r="D295" t="s">
+        <v>517</v>
+      </c>
       <c r="E295">
         <v>0</v>
       </c>
       <c r="F295">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
       <c r="A296">
         <f t="shared" si="4"/>
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="E296">
         <v>0</v>
@@ -6637,8 +8341,11 @@
       <c r="F296">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:6">
+      <c r="G296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
       <c r="A297">
         <f t="shared" si="4"/>
         <v>296</v>
@@ -6646,14 +8353,23 @@
       <c r="B297" t="s">
         <v>52</v>
       </c>
+      <c r="C297" t="s">
+        <v>607</v>
+      </c>
+      <c r="D297" t="s">
+        <v>536</v>
+      </c>
       <c r="E297">
         <v>0</v>
       </c>
       <c r="F297">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:6">
+      <c r="G297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
       <c r="A298">
         <f t="shared" si="4"/>
         <v>297</v>
@@ -6667,14 +8383,17 @@
       <c r="F298">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:6">
+      <c r="G298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
       <c r="A299">
         <f t="shared" si="4"/>
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="E299">
         <v>0</v>
@@ -6682,14 +8401,17 @@
       <c r="F299">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:6">
+      <c r="G299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
       <c r="A300">
         <f t="shared" si="4"/>
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="E300">
         <v>0</v>
@@ -6697,14 +8419,17 @@
       <c r="F300">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:6">
+      <c r="G300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
       <c r="A301">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="E301">
         <v>0</v>
@@ -6712,14 +8437,23 @@
       <c r="F301">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:6">
+      <c r="G301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
       <c r="A302">
         <f t="shared" si="4"/>
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>275</v>
+        <v>265</v>
+      </c>
+      <c r="C302" t="s">
+        <v>509</v>
+      </c>
+      <c r="D302" t="s">
+        <v>516</v>
       </c>
       <c r="E302">
         <v>0</v>
@@ -6727,8 +8461,11 @@
       <c r="F302">
         <v>0</v>
       </c>
-    </row>
-    <row r="303" spans="1:6">
+      <c r="G302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
       <c r="A303">
         <f t="shared" si="4"/>
         <v>302</v>
@@ -6742,14 +8479,17 @@
       <c r="F303">
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="1:6">
+      <c r="G303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
       <c r="A304">
         <f t="shared" si="4"/>
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="E304">
         <v>0</v>
@@ -6757,8 +8497,11 @@
       <c r="F304">
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:6">
+      <c r="G304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
       <c r="A305">
         <f t="shared" si="4"/>
         <v>304</v>
@@ -6772,29 +8515,41 @@
       <c r="F305">
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="1:6">
+      <c r="G305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
       <c r="A306">
         <f t="shared" si="4"/>
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>251</v>
+        <v>241</v>
+      </c>
+      <c r="C306" t="s">
+        <v>510</v>
+      </c>
+      <c r="D306" t="s">
+        <v>515</v>
       </c>
       <c r="E306">
         <v>0</v>
       </c>
       <c r="F306">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
       <c r="A307">
         <f t="shared" si="4"/>
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E307">
         <v>0</v>
@@ -6802,14 +8557,17 @@
       <c r="F307">
         <v>0</v>
       </c>
-    </row>
-    <row r="308" spans="1:6">
+      <c r="G307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
       <c r="A308">
         <f t="shared" si="4"/>
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="E308">
         <v>0</v>
@@ -6817,29 +8575,41 @@
       <c r="F308">
         <v>0</v>
       </c>
-    </row>
-    <row r="309" spans="1:6">
+      <c r="G308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
       <c r="A309">
         <f t="shared" si="4"/>
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>279</v>
+        <v>269</v>
+      </c>
+      <c r="C309" t="s">
+        <v>480</v>
+      </c>
+      <c r="D309" t="s">
+        <v>402</v>
       </c>
       <c r="E309">
         <v>0</v>
       </c>
       <c r="F309">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
       <c r="A310">
         <f t="shared" si="4"/>
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="E310">
         <v>0</v>
@@ -6847,14 +8617,23 @@
       <c r="F310">
         <v>0</v>
       </c>
-    </row>
-    <row r="311" spans="1:6">
+      <c r="G310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
       <c r="A311">
         <f t="shared" si="4"/>
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>328</v>
+        <v>315</v>
+      </c>
+      <c r="C311" t="s">
+        <v>608</v>
+      </c>
+      <c r="D311" t="s">
+        <v>609</v>
       </c>
       <c r="E311">
         <v>0</v>
@@ -6862,20 +8641,23 @@
       <c r="F311">
         <v>0</v>
       </c>
-    </row>
-    <row r="312" spans="1:6">
+      <c r="G311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
       <c r="A312">
         <f t="shared" si="4"/>
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C312" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="D312" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="E312">
         <v>1</v>
@@ -6883,14 +8665,17 @@
       <c r="F312">
         <v>1</v>
       </c>
-    </row>
-    <row r="313" spans="1:6">
+      <c r="G312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
       <c r="A313">
         <f t="shared" si="4"/>
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E313">
         <v>0</v>
@@ -6898,14 +8683,17 @@
       <c r="F313">
         <v>0</v>
       </c>
-    </row>
-    <row r="314" spans="1:6">
+      <c r="G313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
       <c r="A314">
         <f t="shared" si="4"/>
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E314">
         <v>0</v>
@@ -6913,14 +8701,17 @@
       <c r="F314">
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="1:6">
+      <c r="G314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
       <c r="A315">
         <f t="shared" si="4"/>
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="E315">
         <v>0</v>
@@ -6928,14 +8719,17 @@
       <c r="F315">
         <v>0</v>
       </c>
-    </row>
-    <row r="316" spans="1:6">
+      <c r="G315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
       <c r="A316">
         <f t="shared" si="4"/>
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="E316">
         <v>0</v>
@@ -6943,14 +8737,17 @@
       <c r="F316">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:6">
+      <c r="G316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7">
       <c r="A317">
         <f t="shared" si="4"/>
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="E317">
         <v>0</v>
@@ -6958,14 +8755,17 @@
       <c r="F317">
         <v>0</v>
       </c>
-    </row>
-    <row r="318" spans="1:6">
+      <c r="G317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
       <c r="A318">
         <f t="shared" si="4"/>
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E318">
         <v>0</v>
@@ -6973,8 +8773,11 @@
       <c r="F318">
         <v>0</v>
       </c>
-    </row>
-    <row r="319" spans="1:6">
+      <c r="G318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7">
       <c r="A319">
         <f t="shared" si="4"/>
         <v>318</v>
@@ -6982,26 +8785,35 @@
       <c r="B319" t="s">
         <v>21</v>
       </c>
+      <c r="C319" t="s">
+        <v>560</v>
+      </c>
+      <c r="D319" t="s">
+        <v>458</v>
+      </c>
       <c r="E319">
         <v>0</v>
       </c>
       <c r="F319">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7">
       <c r="A320">
         <f t="shared" si="4"/>
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C320" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="D320" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="E320">
         <v>1</v>
@@ -7009,8 +8821,11 @@
       <c r="F320">
         <v>1</v>
       </c>
-    </row>
-    <row r="321" spans="1:6">
+      <c r="G320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7">
       <c r="A321">
         <f t="shared" si="4"/>
         <v>320</v>
@@ -7018,14 +8833,23 @@
       <c r="B321" t="s">
         <v>10</v>
       </c>
+      <c r="C321" t="s">
+        <v>610</v>
+      </c>
+      <c r="D321" t="s">
+        <v>611</v>
+      </c>
       <c r="E321">
         <v>0</v>
       </c>
       <c r="F321">
         <v>0</v>
       </c>
-    </row>
-    <row r="322" spans="1:6">
+      <c r="G321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7">
       <c r="A322">
         <f t="shared" si="4"/>
         <v>321</v>
@@ -7034,10 +8858,10 @@
         <v>33</v>
       </c>
       <c r="C322" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="D322" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="E322">
         <v>1</v>
@@ -7045,14 +8869,17 @@
       <c r="F322">
         <v>1</v>
       </c>
-    </row>
-    <row r="323" spans="1:6">
+      <c r="G322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7">
       <c r="A323">
         <f t="shared" si="4"/>
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="E323">
         <v>0</v>
@@ -7060,35 +8887,47 @@
       <c r="F323">
         <v>0</v>
       </c>
-    </row>
-    <row r="324" spans="1:6">
+      <c r="G323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7">
       <c r="A324">
         <f t="shared" ref="A324:A351" si="5">A323+1</f>
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>154</v>
+        <v>469</v>
+      </c>
+      <c r="C324" t="s">
+        <v>481</v>
+      </c>
+      <c r="D324" t="s">
+        <v>377</v>
       </c>
       <c r="E324">
         <v>0</v>
       </c>
       <c r="F324">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7">
       <c r="A325">
         <f t="shared" si="5"/>
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>104</v>
+        <v>470</v>
       </c>
       <c r="C325" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="D325" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="E325">
         <v>1</v>
@@ -7096,14 +8935,23 @@
       <c r="F325">
         <v>1</v>
       </c>
-    </row>
-    <row r="326" spans="1:6">
+      <c r="G325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7">
       <c r="A326">
         <f t="shared" si="5"/>
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>150</v>
+        <v>478</v>
+      </c>
+      <c r="C326" t="s">
+        <v>612</v>
+      </c>
+      <c r="D326" t="s">
+        <v>613</v>
       </c>
       <c r="E326">
         <v>0</v>
@@ -7111,20 +8959,23 @@
       <c r="F326">
         <v>0</v>
       </c>
-    </row>
-    <row r="327" spans="1:6">
+      <c r="G326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7">
       <c r="A327">
         <f t="shared" si="5"/>
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C327" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="D327" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="E327">
         <v>1</v>
@@ -7132,14 +8983,17 @@
       <c r="F327">
         <v>0</v>
       </c>
-    </row>
-    <row r="328" spans="1:6">
+      <c r="G327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7">
       <c r="A328">
         <f t="shared" si="5"/>
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="E328">
         <v>0</v>
@@ -7147,14 +9001,17 @@
       <c r="F328">
         <v>0</v>
       </c>
-    </row>
-    <row r="329" spans="1:6">
+      <c r="G328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
       <c r="A329">
         <f t="shared" si="5"/>
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="E329">
         <v>0</v>
@@ -7162,20 +9019,23 @@
       <c r="F329">
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="1:6">
+      <c r="G329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7">
       <c r="A330">
         <f t="shared" si="5"/>
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C330" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="D330" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="E330">
         <v>1</v>
@@ -7183,23 +9043,35 @@
       <c r="F330">
         <v>0</v>
       </c>
-    </row>
-    <row r="331" spans="1:6">
+      <c r="G330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7">
       <c r="A331">
         <f t="shared" si="5"/>
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>278</v>
+        <v>268</v>
+      </c>
+      <c r="C331" t="s">
+        <v>553</v>
+      </c>
+      <c r="D331" t="s">
+        <v>552</v>
       </c>
       <c r="E331">
         <v>0</v>
       </c>
       <c r="F331">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7">
       <c r="A332">
         <f t="shared" si="5"/>
         <v>331</v>
@@ -7208,10 +9080,10 @@
         <v>66</v>
       </c>
       <c r="C332" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="D332" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="E332">
         <v>1</v>
@@ -7219,8 +9091,11 @@
       <c r="F332">
         <v>1</v>
       </c>
-    </row>
-    <row r="333" spans="1:6">
+      <c r="G332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7">
       <c r="A333">
         <f t="shared" si="5"/>
         <v>332</v>
@@ -7229,25 +9104,28 @@
         <v>57</v>
       </c>
       <c r="C333" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="D333" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="E333">
         <v>1</v>
       </c>
       <c r="F333">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7">
       <c r="A334">
         <f t="shared" si="5"/>
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="E334">
         <v>0</v>
@@ -7255,8 +9133,11 @@
       <c r="F334">
         <v>0</v>
       </c>
-    </row>
-    <row r="335" spans="1:6">
+      <c r="G334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7">
       <c r="A335">
         <f t="shared" si="5"/>
         <v>334</v>
@@ -7264,20 +9145,29 @@
       <c r="B335" t="s">
         <v>34</v>
       </c>
+      <c r="C335" t="s">
+        <v>614</v>
+      </c>
+      <c r="D335" t="s">
+        <v>391</v>
+      </c>
       <c r="E335">
         <v>0</v>
       </c>
       <c r="F335">
         <v>0</v>
       </c>
-    </row>
-    <row r="336" spans="1:6">
+      <c r="G335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7">
       <c r="A336">
         <f t="shared" si="5"/>
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="E336">
         <v>0</v>
@@ -7285,8 +9175,11 @@
       <c r="F336">
         <v>0</v>
       </c>
-    </row>
-    <row r="337" spans="1:6">
+      <c r="G336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7">
       <c r="A337">
         <f t="shared" si="5"/>
         <v>336</v>
@@ -7294,20 +9187,29 @@
       <c r="B337" t="s">
         <v>35</v>
       </c>
+      <c r="C337" t="s">
+        <v>615</v>
+      </c>
+      <c r="D337" t="s">
+        <v>616</v>
+      </c>
       <c r="E337">
         <v>0</v>
       </c>
       <c r="F337">
         <v>0</v>
       </c>
-    </row>
-    <row r="338" spans="1:6">
+      <c r="G337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7">
       <c r="A338">
         <f t="shared" si="5"/>
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="E338">
         <v>0</v>
@@ -7315,8 +9217,11 @@
       <c r="F338">
         <v>0</v>
       </c>
-    </row>
-    <row r="339" spans="1:6">
+      <c r="G338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7">
       <c r="A339">
         <f t="shared" si="5"/>
         <v>338</v>
@@ -7324,26 +9229,35 @@
       <c r="B339" t="s">
         <v>79</v>
       </c>
+      <c r="C339" t="s">
+        <v>511</v>
+      </c>
+      <c r="D339" t="s">
+        <v>514</v>
+      </c>
       <c r="E339">
         <v>0</v>
       </c>
       <c r="F339">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7">
       <c r="A340">
         <f t="shared" si="5"/>
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C340" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="D340" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="E340">
         <v>1</v>
@@ -7351,14 +9265,17 @@
       <c r="F340">
         <v>1</v>
       </c>
-    </row>
-    <row r="341" spans="1:6">
+      <c r="G340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7">
       <c r="A341">
         <f t="shared" si="5"/>
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="E341">
         <v>0</v>
@@ -7366,14 +9283,17 @@
       <c r="F341">
         <v>0</v>
       </c>
-    </row>
-    <row r="342" spans="1:6">
+      <c r="G341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7">
       <c r="A342">
         <f t="shared" si="5"/>
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="E342">
         <v>0</v>
@@ -7381,14 +9301,17 @@
       <c r="F342">
         <v>0</v>
       </c>
-    </row>
-    <row r="343" spans="1:6">
+      <c r="G342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7">
       <c r="A343">
         <f t="shared" si="5"/>
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E343">
         <v>0</v>
@@ -7396,14 +9319,17 @@
       <c r="F343">
         <v>0</v>
       </c>
-    </row>
-    <row r="344" spans="1:6">
+      <c r="G343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7">
       <c r="A344">
         <f t="shared" si="5"/>
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E344">
         <v>0</v>
@@ -7411,20 +9337,23 @@
       <c r="F344">
         <v>0</v>
       </c>
-    </row>
-    <row r="345" spans="1:6">
+      <c r="G344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7">
       <c r="A345">
         <f t="shared" si="5"/>
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C345" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="D345" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="E345">
         <v>1</v>
@@ -7432,14 +9361,23 @@
       <c r="F345">
         <v>1</v>
       </c>
-    </row>
-    <row r="346" spans="1:6">
+      <c r="G345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7">
       <c r="A346">
         <f t="shared" si="5"/>
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="C346" t="s">
+        <v>617</v>
+      </c>
+      <c r="D346" t="s">
+        <v>391</v>
       </c>
       <c r="E346">
         <v>0</v>
@@ -7447,20 +9385,23 @@
       <c r="F346">
         <v>0</v>
       </c>
-    </row>
-    <row r="347" spans="1:6">
+      <c r="G346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7">
       <c r="A347">
         <f t="shared" si="5"/>
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="C347" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="D347" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="E347">
         <v>1</v>
@@ -7468,14 +9409,17 @@
       <c r="F347">
         <v>0</v>
       </c>
-    </row>
-    <row r="348" spans="1:6">
+      <c r="G347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7">
       <c r="A348">
         <f t="shared" si="5"/>
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E348">
         <v>0</v>
@@ -7483,8 +9427,11 @@
       <c r="F348">
         <v>0</v>
       </c>
-    </row>
-    <row r="349" spans="1:6">
+      <c r="G348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7">
       <c r="A349">
         <f t="shared" si="5"/>
         <v>348</v>
@@ -7493,10 +9440,10 @@
         <v>67</v>
       </c>
       <c r="C349" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="D349" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="E349">
         <v>1</v>
@@ -7504,29 +9451,41 @@
       <c r="F349">
         <v>1</v>
       </c>
-    </row>
-    <row r="350" spans="1:6">
+      <c r="G349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7">
       <c r="A350">
         <f t="shared" si="5"/>
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>165</v>
+        <v>158</v>
+      </c>
+      <c r="C350" t="s">
+        <v>512</v>
+      </c>
+      <c r="D350" t="s">
+        <v>513</v>
       </c>
       <c r="E350">
         <v>0</v>
       </c>
       <c r="F350">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7">
       <c r="A351">
         <f t="shared" si="5"/>
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E351">
         <v>0</v>
@@ -7534,14 +9493,19 @@
       <c r="F351">
         <v>0</v>
       </c>
-    </row>
-    <row r="352" spans="1:6">
-      <c r="F352" s="2">
-        <f>SUM(F2:F351)</f>
-        <v>28</v>
+      <c r="G351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7">
+      <c r="F352" s="2"/>
+      <c r="G352" s="2">
+        <f>SUM(G2:G351)</f>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G352"/>
   <sortState ref="B1:B351">
     <sortCondition ref="B1"/>
   </sortState>

--- a/scripts/teamInfo_perm.xlsx
+++ b/scripts/teamInfo_perm.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bitnami\wampstack-5.6.19-0\apache2\htdocs\scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alan\Documents\GitHub\march_madness_auction\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F75F64-A0C5-4ED7-952C-5A095854AFDC}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$352</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$H$1:$H$352</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="662">
   <si>
     <t>Boston College</t>
   </si>
@@ -413,9 +414,6 @@
     <t>University of North Carolina at Wilmington</t>
   </si>
   <si>
-    <t>College of William and Mary&amp; Mary)</t>
-  </si>
-  <si>
     <t>University of North Carolina at Charlotte</t>
   </si>
   <si>
@@ -1887,12 +1885,141 @@
   </si>
   <si>
     <t>University of Maryland, Eastern Shore</t>
+  </si>
+  <si>
+    <t>in_2018</t>
+  </si>
+  <si>
+    <t>Clemson.png</t>
+  </si>
+  <si>
+    <t>#F66733</t>
+  </si>
+  <si>
+    <t>TCU.png</t>
+  </si>
+  <si>
+    <t>#4D1979</t>
+  </si>
+  <si>
+    <t>Nebraska.png</t>
+  </si>
+  <si>
+    <t>#D00000</t>
+  </si>
+  <si>
+    <t>ASU.png</t>
+  </si>
+  <si>
+    <t>#8C1D40</t>
+  </si>
+  <si>
+    <t>Auburn.png</t>
+  </si>
+  <si>
+    <t>Charleston.png</t>
+  </si>
+  <si>
+    <t>#0C2340</t>
+  </si>
+  <si>
+    <t>Mizzou.png</t>
+  </si>
+  <si>
+    <t>Tenn.png</t>
+  </si>
+  <si>
+    <t>#FF8200</t>
+  </si>
+  <si>
+    <t>UMBC.png</t>
+  </si>
+  <si>
+    <t>Lipscomb.png</t>
+  </si>
+  <si>
+    <t>Marshall.png</t>
+  </si>
+  <si>
+    <t>Radford.png</t>
+  </si>
+  <si>
+    <t>#331E54</t>
+  </si>
+  <si>
+    <t>#C2011B</t>
+  </si>
+  <si>
+    <t>WrightSt.png</t>
+  </si>
+  <si>
+    <t>#026937</t>
+  </si>
+  <si>
+    <t>LoyolaChi.png</t>
+  </si>
+  <si>
+    <t>#861F41</t>
+  </si>
+  <si>
+    <t>LIUBk.png</t>
+  </si>
+  <si>
+    <t>MurraySt.png</t>
+  </si>
+  <si>
+    <t>#002144</t>
+  </si>
+  <si>
+    <t>UNCG.png</t>
+  </si>
+  <si>
+    <t>#FFCC00</t>
+  </si>
+  <si>
+    <t>GCU.png</t>
+  </si>
+  <si>
+    <t>#522398</t>
+  </si>
+  <si>
+    <t>WKU.png</t>
+  </si>
+  <si>
+    <t>#B01E24</t>
+  </si>
+  <si>
+    <t>#00B140</t>
+  </si>
+  <si>
+    <t>SELA.png</t>
+  </si>
+  <si>
+    <t>#006341</t>
+  </si>
+  <si>
+    <t>UPenn.png</t>
+  </si>
+  <si>
+    <t>#000F3A</t>
+  </si>
+  <si>
+    <t>CSUFull.png</t>
+  </si>
+  <si>
+    <t>#00274C</t>
+  </si>
+  <si>
+    <t>USDak.png</t>
+  </si>
+  <si>
+    <t>College of William and Mary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -2254,11 +2381,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G352"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H352"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H189" sqref="H189"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I145" sqref="I145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2269,35 +2396,38 @@
     <col min="5" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B1" t="s">
         <v>335</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>336</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>337</v>
       </c>
-      <c r="D1" t="s">
-        <v>338</v>
-      </c>
       <c r="E1" t="s">
+        <v>464</v>
+      </c>
+      <c r="F1" t="s">
         <v>465</v>
       </c>
-      <c r="F1" t="s">
-        <v>466</v>
-      </c>
       <c r="G1" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>617</v>
+      </c>
+      <c r="H1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2308,14 +2438,17 @@
       <c r="G2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -2326,14 +2459,17 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2344,14 +2480,17 @@
       <c r="G4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2362,14 +2501,17 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -2380,14 +2522,17 @@
       <c r="G6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2398,14 +2543,23 @@
       <c r="G7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>235</v>
+        <v>234</v>
+      </c>
+      <c r="C8" t="s">
+        <v>626</v>
+      </c>
+      <c r="D8" t="s">
+        <v>627</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2416,14 +2570,17 @@
       <c r="G8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2434,14 +2591,23 @@
       <c r="G9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>257</v>
+        <v>256</v>
+      </c>
+      <c r="C10" t="s">
+        <v>628</v>
+      </c>
+      <c r="D10" t="s">
+        <v>630</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2452,20 +2618,23 @@
       <c r="G10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C11" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2476,14 +2645,17 @@
       <c r="G11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2494,8 +2666,11 @@
       <c r="G12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2504,11 +2679,11 @@
         <v>101</v>
       </c>
       <c r="C13" t="s">
+        <v>338</v>
+      </c>
+      <c r="D13" t="s">
         <v>339</v>
       </c>
-      <c r="D13" t="s">
-        <v>340</v>
-      </c>
       <c r="E13">
         <v>1</v>
       </c>
@@ -2518,21 +2693,24 @@
       <c r="G13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C14" t="s">
+        <v>340</v>
+      </c>
+      <c r="D14" t="s">
         <v>341</v>
       </c>
-      <c r="D14" t="s">
-        <v>342</v>
-      </c>
       <c r="E14">
         <v>1</v>
       </c>
@@ -2542,14 +2720,17 @@
       <c r="G14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2560,8 +2741,11 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2578,20 +2762,23 @@
       <c r="G16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C17" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -2602,8 +2789,11 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2620,14 +2810,17 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2638,14 +2831,17 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2656,14 +2852,17 @@
       <c r="G20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -2674,21 +2873,24 @@
       <c r="G21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C22" t="s">
+        <v>461</v>
+      </c>
+      <c r="D22" t="s">
         <v>462</v>
       </c>
-      <c r="D22" t="s">
-        <v>463</v>
-      </c>
       <c r="E22">
         <v>1</v>
       </c>
@@ -2698,14 +2900,17 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2716,14 +2921,17 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2734,20 +2942,23 @@
       <c r="G24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C25" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D25" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2758,8 +2969,11 @@
       <c r="G25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2768,11 +2982,11 @@
         <v>58</v>
       </c>
       <c r="C26" t="s">
+        <v>342</v>
+      </c>
+      <c r="D26" t="s">
         <v>343</v>
       </c>
-      <c r="D26" t="s">
-        <v>344</v>
-      </c>
       <c r="E26">
         <v>1</v>
       </c>
@@ -2782,8 +2996,11 @@
       <c r="G26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2800,20 +3017,23 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C28" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D28" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2824,20 +3044,23 @@
       <c r="G28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C29" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D29" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2848,8 +3071,11 @@
       <c r="G29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2857,6 +3083,12 @@
       <c r="B30" t="s">
         <v>111</v>
       </c>
+      <c r="C30" t="s">
+        <v>658</v>
+      </c>
+      <c r="D30" t="s">
+        <v>659</v>
+      </c>
       <c r="E30">
         <v>0</v>
       </c>
@@ -2866,8 +3098,11 @@
       <c r="G30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2876,10 +3111,10 @@
         <v>114</v>
       </c>
       <c r="C31" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D31" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2890,8 +3125,11 @@
       <c r="G31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2908,8 +3146,11 @@
       <c r="G32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2926,8 +3167,11 @@
       <c r="G33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2944,14 +3188,17 @@
       <c r="G34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2962,14 +3209,17 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2980,14 +3230,17 @@
       <c r="G36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2998,8 +3251,11 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -3016,14 +3272,17 @@
       <c r="G38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -3034,8 +3293,11 @@
       <c r="G39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -3043,6 +3305,12 @@
       <c r="B40" t="s">
         <v>22</v>
       </c>
+      <c r="C40" t="s">
+        <v>620</v>
+      </c>
+      <c r="D40" t="s">
+        <v>621</v>
+      </c>
       <c r="E40">
         <v>0</v>
       </c>
@@ -3052,14 +3320,17 @@
       <c r="G40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -3070,8 +3341,11 @@
       <c r="G41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3080,11 +3354,11 @@
         <v>82</v>
       </c>
       <c r="C42" t="s">
+        <v>344</v>
+      </c>
+      <c r="D42" t="s">
         <v>345</v>
       </c>
-      <c r="D42" t="s">
-        <v>346</v>
-      </c>
       <c r="E42">
         <v>1</v>
       </c>
@@ -3094,14 +3368,17 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -3112,8 +3389,11 @@
       <c r="G43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3121,6 +3401,12 @@
       <c r="B44" t="s">
         <v>119</v>
       </c>
+      <c r="C44" t="s">
+        <v>629</v>
+      </c>
+      <c r="D44" t="s">
+        <v>390</v>
+      </c>
       <c r="E44">
         <v>0</v>
       </c>
@@ -3130,20 +3416,23 @@
       <c r="G44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="H44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C45" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D45" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3154,14 +3443,17 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>128</v>
+        <v>661</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3172,14 +3464,17 @@
       <c r="G46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3190,14 +3485,17 @@
       <c r="G47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3208,14 +3506,17 @@
       <c r="G48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="H48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3226,14 +3527,17 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3244,8 +3548,11 @@
       <c r="G50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -3254,11 +3561,11 @@
         <v>59</v>
       </c>
       <c r="C51" t="s">
+        <v>561</v>
+      </c>
+      <c r="D51" t="s">
         <v>562</v>
       </c>
-      <c r="D51" t="s">
-        <v>563</v>
-      </c>
       <c r="E51">
         <v>0</v>
       </c>
@@ -3268,14 +3575,17 @@
       <c r="G51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="H51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3286,8 +3596,11 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -3296,11 +3609,11 @@
         <v>44</v>
       </c>
       <c r="C53" t="s">
+        <v>346</v>
+      </c>
+      <c r="D53" t="s">
         <v>347</v>
       </c>
-      <c r="D53" t="s">
-        <v>348</v>
-      </c>
       <c r="E53">
         <v>1</v>
       </c>
@@ -3310,14 +3623,17 @@
       <c r="G53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="H53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3328,8 +3644,11 @@
       <c r="G54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="H54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -3346,14 +3665,17 @@
       <c r="G55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="H55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3364,8 +3686,11 @@
       <c r="G56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="H56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -3382,8 +3707,11 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -3392,11 +3720,11 @@
         <v>23</v>
       </c>
       <c r="C58" t="s">
+        <v>348</v>
+      </c>
+      <c r="D58" t="s">
         <v>349</v>
       </c>
-      <c r="D58" t="s">
-        <v>350</v>
-      </c>
       <c r="E58">
         <v>1</v>
       </c>
@@ -3406,8 +3734,11 @@
       <c r="G58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="H58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -3424,8 +3755,11 @@
       <c r="G59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="H59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -3442,21 +3776,24 @@
       <c r="G60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="H60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C61" t="s">
+        <v>563</v>
+      </c>
+      <c r="D61" t="s">
         <v>564</v>
       </c>
-      <c r="D61" t="s">
-        <v>565</v>
-      </c>
       <c r="E61">
         <v>0</v>
       </c>
@@ -3466,14 +3803,17 @@
       <c r="G61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="H61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3484,14 +3824,17 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3502,14 +3845,17 @@
       <c r="G63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="H63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3520,8 +3866,11 @@
       <c r="G64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="H64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -3530,11 +3879,11 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
+        <v>350</v>
+      </c>
+      <c r="D65" t="s">
         <v>351</v>
       </c>
-      <c r="D65" t="s">
-        <v>352</v>
-      </c>
       <c r="E65">
         <v>1</v>
       </c>
@@ -3544,8 +3893,11 @@
       <c r="G65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="H65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -3562,14 +3914,17 @@
       <c r="G66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="H66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3580,20 +3935,23 @@
       <c r="G67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="H67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68">
         <f t="shared" ref="A68:A131" si="1">A67+1</f>
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C68" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D68" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3604,14 +3962,17 @@
       <c r="G68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="H68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3622,14 +3983,17 @@
       <c r="G69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="H69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3640,8 +4004,11 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -3650,10 +4017,10 @@
         <v>36</v>
       </c>
       <c r="C71" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D71" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3664,14 +4031,17 @@
       <c r="G71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="H71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3682,8 +4052,11 @@
       <c r="G72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="H72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -3692,11 +4065,11 @@
         <v>24</v>
       </c>
       <c r="C73" t="s">
+        <v>565</v>
+      </c>
+      <c r="D73" t="s">
         <v>566</v>
       </c>
-      <c r="D73" t="s">
-        <v>567</v>
-      </c>
       <c r="E73">
         <v>0</v>
       </c>
@@ -3706,8 +4079,11 @@
       <c r="G73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="H73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -3724,14 +4100,17 @@
       <c r="G74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="H74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3742,14 +4121,17 @@
       <c r="G75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="H75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -3760,8 +4142,11 @@
       <c r="G76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="H76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -3778,8 +4163,11 @@
       <c r="G77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="H77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -3796,8 +4184,11 @@
       <c r="G78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="H78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -3806,11 +4197,11 @@
         <v>61</v>
       </c>
       <c r="C79" t="s">
+        <v>352</v>
+      </c>
+      <c r="D79" t="s">
         <v>353</v>
       </c>
-      <c r="D79" t="s">
-        <v>354</v>
-      </c>
       <c r="E79">
         <v>1</v>
       </c>
@@ -3820,8 +4211,11 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -3830,11 +4224,11 @@
         <v>25</v>
       </c>
       <c r="C80" t="s">
+        <v>567</v>
+      </c>
+      <c r="D80" t="s">
         <v>568</v>
       </c>
-      <c r="D80" t="s">
-        <v>569</v>
-      </c>
       <c r="E80">
         <v>0</v>
       </c>
@@ -3844,14 +4238,17 @@
       <c r="G80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="H80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -3862,21 +4259,24 @@
       <c r="G81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="H81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C82" t="s">
+        <v>354</v>
+      </c>
+      <c r="D82" t="s">
         <v>355</v>
       </c>
-      <c r="D82" t="s">
-        <v>356</v>
-      </c>
       <c r="E82">
         <v>1</v>
       </c>
@@ -3886,21 +4286,24 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C83" t="s">
+        <v>356</v>
+      </c>
+      <c r="D83" t="s">
         <v>357</v>
       </c>
-      <c r="D83" t="s">
-        <v>358</v>
-      </c>
       <c r="E83">
         <v>1</v>
       </c>
@@ -3910,14 +4313,17 @@
       <c r="G83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="H83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -3928,14 +4334,23 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>330</v>
+        <v>329</v>
+      </c>
+      <c r="C85" t="s">
+        <v>649</v>
+      </c>
+      <c r="D85" t="s">
+        <v>650</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -3946,20 +4361,23 @@
       <c r="G85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="H85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C86" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D86" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -3970,21 +4388,24 @@
       <c r="G86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="H86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C87" t="s">
+        <v>358</v>
+      </c>
+      <c r="D87" t="s">
         <v>359</v>
       </c>
-      <c r="D87" t="s">
-        <v>360</v>
-      </c>
       <c r="E87">
         <v>1</v>
       </c>
@@ -3994,8 +4415,11 @@
       <c r="G87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="H87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -4012,8 +4436,11 @@
       <c r="G88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="H88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -4030,14 +4457,17 @@
       <c r="G89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:7">
+      <c r="H89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -4048,14 +4478,17 @@
       <c r="G90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:7">
+      <c r="H90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -4066,8 +4499,11 @@
       <c r="G91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="H91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -4084,20 +4520,23 @@
       <c r="G92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:7">
+      <c r="H92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C93" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D93" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -4108,14 +4547,17 @@
       <c r="G93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:7">
+      <c r="H93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -4126,14 +4568,17 @@
       <c r="G94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:7">
+      <c r="H94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -4144,14 +4589,17 @@
       <c r="G95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:7">
+      <c r="H95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -4162,8 +4610,11 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -4172,11 +4623,11 @@
         <v>90</v>
       </c>
       <c r="C97" t="s">
+        <v>360</v>
+      </c>
+      <c r="D97" t="s">
         <v>361</v>
       </c>
-      <c r="D97" t="s">
-        <v>362</v>
-      </c>
       <c r="E97">
         <v>1</v>
       </c>
@@ -4186,20 +4637,23 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C98" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D98" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -4210,8 +4664,11 @@
       <c r="G98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:7">
+      <c r="H98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -4220,11 +4677,11 @@
         <v>102</v>
       </c>
       <c r="C99" t="s">
+        <v>362</v>
+      </c>
+      <c r="D99" t="s">
         <v>363</v>
       </c>
-      <c r="D99" t="s">
-        <v>364</v>
-      </c>
       <c r="E99">
         <v>1</v>
       </c>
@@ -4234,20 +4691,23 @@
       <c r="G99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C100" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D100" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -4258,20 +4718,23 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C101" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D101" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -4282,8 +4745,11 @@
       <c r="G101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:7">
+      <c r="H101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -4300,8 +4766,11 @@
       <c r="G102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -4318,8 +4787,11 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -4328,11 +4800,11 @@
         <v>104</v>
       </c>
       <c r="C104" t="s">
+        <v>571</v>
+      </c>
+      <c r="D104" t="s">
         <v>572</v>
       </c>
-      <c r="D104" t="s">
-        <v>573</v>
-      </c>
       <c r="E104">
         <v>0</v>
       </c>
@@ -4342,8 +4814,11 @@
       <c r="G104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:7">
+      <c r="H104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -4360,21 +4835,24 @@
       <c r="G105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:7">
+      <c r="H105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C106" t="s">
+        <v>573</v>
+      </c>
+      <c r="D106" t="s">
         <v>574</v>
       </c>
-      <c r="D106" t="s">
-        <v>575</v>
-      </c>
       <c r="E106">
         <v>0</v>
       </c>
@@ -4384,8 +4862,11 @@
       <c r="G106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:7">
+      <c r="H106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -4402,21 +4883,24 @@
       <c r="G107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:7">
+      <c r="H107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C108" t="s">
+        <v>366</v>
+      </c>
+      <c r="D108" t="s">
         <v>367</v>
       </c>
-      <c r="D108" t="s">
-        <v>368</v>
-      </c>
       <c r="E108">
         <v>1</v>
       </c>
@@ -4426,14 +4910,17 @@
       <c r="G108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:7">
+      <c r="H108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -4444,14 +4931,17 @@
       <c r="G109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:7">
+      <c r="H109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -4462,8 +4952,11 @@
       <c r="G110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:7">
+      <c r="H110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -4480,8 +4973,11 @@
       <c r="G111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:7">
+      <c r="H111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -4489,6 +4985,12 @@
       <c r="B112" t="s">
         <v>39</v>
       </c>
+      <c r="C112" t="s">
+        <v>635</v>
+      </c>
+      <c r="D112" t="s">
+        <v>638</v>
+      </c>
       <c r="E112">
         <v>0</v>
       </c>
@@ -4498,14 +5000,23 @@
       <c r="G112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:7">
+      <c r="H112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>215</v>
+        <v>214</v>
+      </c>
+      <c r="C113" t="s">
+        <v>644</v>
+      </c>
+      <c r="D113" t="s">
+        <v>343</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -4516,8 +5027,11 @@
       <c r="G113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:7">
+      <c r="H113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -4534,21 +5048,24 @@
       <c r="G114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:7">
+      <c r="H114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C115" t="s">
+        <v>368</v>
+      </c>
+      <c r="D115" t="s">
         <v>369</v>
       </c>
-      <c r="D115" t="s">
-        <v>370</v>
-      </c>
       <c r="E115">
         <v>1</v>
       </c>
@@ -4558,14 +5075,17 @@
       <c r="G115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:7">
+      <c r="H115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -4576,14 +5096,17 @@
       <c r="G116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:7">
+      <c r="H116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -4594,14 +5117,23 @@
       <c r="G117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:7">
+      <c r="H117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>196</v>
+        <v>195</v>
+      </c>
+      <c r="C118" t="s">
+        <v>642</v>
+      </c>
+      <c r="D118" t="s">
+        <v>643</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -4612,14 +5144,17 @@
       <c r="G118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:7">
+      <c r="H118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -4630,21 +5165,24 @@
       <c r="G119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:7">
+      <c r="H119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C120" t="s">
+        <v>454</v>
+      </c>
+      <c r="D120" t="s">
         <v>455</v>
       </c>
-      <c r="D120" t="s">
-        <v>456</v>
-      </c>
       <c r="E120">
         <v>1</v>
       </c>
@@ -4654,14 +5192,17 @@
       <c r="G120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:7">
+      <c r="H120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -4672,8 +5213,11 @@
       <c r="G121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:7">
+      <c r="H121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -4682,10 +5226,10 @@
         <v>62</v>
       </c>
       <c r="C122" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D122" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -4696,14 +5240,23 @@
       <c r="G122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:7">
+      <c r="H122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123">
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>133</v>
+        <v>132</v>
+      </c>
+      <c r="C123" t="s">
+        <v>636</v>
+      </c>
+      <c r="D123" t="s">
+        <v>653</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -4714,14 +5267,17 @@
       <c r="G123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:7">
+      <c r="H123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124">
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -4732,14 +5288,17 @@
       <c r="G124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:7">
+      <c r="H124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -4750,14 +5309,17 @@
       <c r="G125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:7">
+      <c r="H125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -4768,8 +5330,11 @@
       <c r="G126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:7">
+      <c r="H126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127">
         <f t="shared" si="1"/>
         <v>126</v>
@@ -4778,11 +5343,11 @@
         <v>94</v>
       </c>
       <c r="C127" t="s">
+        <v>370</v>
+      </c>
+      <c r="D127" t="s">
         <v>371</v>
       </c>
-      <c r="D127" t="s">
-        <v>372</v>
-      </c>
       <c r="E127">
         <v>1</v>
       </c>
@@ -4792,20 +5357,23 @@
       <c r="G127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:7">
+      <c r="H127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128">
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C128" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D128" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -4816,14 +5384,17 @@
       <c r="G128">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:7">
+      <c r="H128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129">
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -4834,14 +5405,17 @@
       <c r="G129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:7">
+      <c r="H129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130">
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -4852,14 +5426,17 @@
       <c r="G130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:7">
+      <c r="H130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131">
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -4870,20 +5447,23 @@
       <c r="G131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:7">
+      <c r="H131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132">
         <f t="shared" ref="A132:A195" si="2">A131+1</f>
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C132" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D132" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -4894,8 +5474,11 @@
       <c r="G132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:7">
+      <c r="H132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -4912,14 +5495,17 @@
       <c r="G133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:7">
+      <c r="H133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134">
         <f t="shared" si="2"/>
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -4930,14 +5516,17 @@
       <c r="G134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:7">
+      <c r="H134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135">
         <f t="shared" si="2"/>
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -4948,21 +5537,24 @@
       <c r="G135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:7">
+      <c r="H135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136">
         <f t="shared" si="2"/>
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C136" t="s">
+        <v>576</v>
+      </c>
+      <c r="D136" t="s">
         <v>577</v>
       </c>
-      <c r="D136" t="s">
-        <v>578</v>
-      </c>
       <c r="E136">
         <v>0</v>
       </c>
@@ -4972,14 +5564,23 @@
       <c r="G136">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:7">
+      <c r="H136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137">
         <f t="shared" si="2"/>
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>228</v>
+        <v>227</v>
+      </c>
+      <c r="C137" t="s">
+        <v>645</v>
+      </c>
+      <c r="D137" t="s">
+        <v>646</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -4990,8 +5591,11 @@
       <c r="G137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:7">
+      <c r="H137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -5008,21 +5612,24 @@
       <c r="G138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:7">
+      <c r="H138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139">
         <f t="shared" si="2"/>
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C139" t="s">
+        <v>372</v>
+      </c>
+      <c r="D139" t="s">
         <v>373</v>
       </c>
-      <c r="D139" t="s">
-        <v>374</v>
-      </c>
       <c r="E139">
         <v>1</v>
       </c>
@@ -5032,14 +5639,17 @@
       <c r="G139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:7">
+      <c r="H139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140">
         <f t="shared" si="2"/>
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -5050,14 +5660,17 @@
       <c r="G140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:7">
+      <c r="H140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -5068,14 +5681,17 @@
       <c r="G141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:7">
+      <c r="H141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142">
         <f t="shared" si="2"/>
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -5086,14 +5702,17 @@
       <c r="G142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:7">
+      <c r="H142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143">
         <f t="shared" si="2"/>
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -5104,20 +5723,23 @@
       <c r="G143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:7">
+      <c r="H143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144">
         <f t="shared" si="2"/>
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C144" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D144" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -5128,8 +5750,11 @@
       <c r="G144">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:7">
+      <c r="H144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -5138,10 +5763,10 @@
         <v>29</v>
       </c>
       <c r="C145" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D145" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E145">
         <v>1</v>
@@ -5152,21 +5777,24 @@
       <c r="G145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:7">
+      <c r="H145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146">
         <f t="shared" si="2"/>
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C146" t="s">
+        <v>375</v>
+      </c>
+      <c r="D146" t="s">
         <v>376</v>
       </c>
-      <c r="D146" t="s">
-        <v>377</v>
-      </c>
       <c r="E146">
         <v>1</v>
       </c>
@@ -5176,8 +5804,11 @@
       <c r="G146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:7">
+      <c r="H146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -5186,10 +5817,10 @@
         <v>125</v>
       </c>
       <c r="C147" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D147" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E147">
         <v>1</v>
@@ -5200,8 +5831,11 @@
       <c r="G147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:7">
+      <c r="H147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -5218,14 +5852,17 @@
       <c r="G148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:7">
+      <c r="H148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149">
         <f t="shared" si="2"/>
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E149">
         <v>0</v>
@@ -5236,21 +5873,24 @@
       <c r="G149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:7">
+      <c r="H149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150">
         <f t="shared" si="2"/>
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C150" t="s">
+        <v>579</v>
+      </c>
+      <c r="D150" t="s">
         <v>580</v>
       </c>
-      <c r="D150" t="s">
-        <v>581</v>
-      </c>
       <c r="E150">
         <v>0</v>
       </c>
@@ -5260,14 +5900,17 @@
       <c r="G150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:7">
+      <c r="H150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E151">
         <v>0</v>
@@ -5278,8 +5921,11 @@
       <c r="G151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:7">
+      <c r="H151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -5288,11 +5934,11 @@
         <v>96</v>
       </c>
       <c r="C152" t="s">
+        <v>581</v>
+      </c>
+      <c r="D152" t="s">
         <v>582</v>
       </c>
-      <c r="D152" t="s">
-        <v>583</v>
-      </c>
       <c r="E152">
         <v>0</v>
       </c>
@@ -5302,14 +5948,17 @@
       <c r="G152">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:7">
+      <c r="H152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153">
         <f t="shared" si="2"/>
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E153">
         <v>0</v>
@@ -5320,8 +5969,11 @@
       <c r="G153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:7">
+      <c r="H153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -5330,11 +5982,11 @@
         <v>97</v>
       </c>
       <c r="C154" t="s">
+        <v>380</v>
+      </c>
+      <c r="D154" t="s">
         <v>381</v>
       </c>
-      <c r="D154" t="s">
-        <v>382</v>
-      </c>
       <c r="E154">
         <v>1</v>
       </c>
@@ -5344,14 +5996,17 @@
       <c r="G154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:7">
+      <c r="H154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155">
         <f t="shared" si="2"/>
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -5362,21 +6017,24 @@
       <c r="G155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:7">
+      <c r="H155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156">
         <f t="shared" si="2"/>
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C156" t="s">
+        <v>382</v>
+      </c>
+      <c r="D156" t="s">
         <v>383</v>
       </c>
-      <c r="D156" t="s">
-        <v>384</v>
-      </c>
       <c r="E156">
         <v>1</v>
       </c>
@@ -5386,14 +6044,17 @@
       <c r="G156">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:7">
+      <c r="H156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157">
         <f t="shared" si="2"/>
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E157">
         <v>0</v>
@@ -5404,14 +6065,17 @@
       <c r="G157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:7">
+      <c r="H157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158">
         <f t="shared" si="2"/>
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E158">
         <v>0</v>
@@ -5422,20 +6086,23 @@
       <c r="G158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:7">
+      <c r="H158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159">
         <f t="shared" si="2"/>
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C159" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D159" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -5446,8 +6113,11 @@
       <c r="G159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:7">
+      <c r="H159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -5456,11 +6126,11 @@
         <v>98</v>
       </c>
       <c r="C160" t="s">
+        <v>384</v>
+      </c>
+      <c r="D160" t="s">
         <v>385</v>
       </c>
-      <c r="D160" t="s">
-        <v>386</v>
-      </c>
       <c r="E160">
         <v>0</v>
       </c>
@@ -5470,14 +6140,17 @@
       <c r="G160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:7">
+      <c r="H160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E161">
         <v>0</v>
@@ -5488,8 +6161,11 @@
       <c r="G161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:7">
+      <c r="H161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -5506,14 +6182,17 @@
       <c r="G162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:7">
+      <c r="H162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163">
         <f t="shared" si="2"/>
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E163">
         <v>0</v>
@@ -5524,8 +6203,11 @@
       <c r="G163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:7">
+      <c r="H163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -5542,21 +6224,24 @@
       <c r="G164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:7">
+      <c r="H164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165">
         <f t="shared" si="2"/>
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C165" t="s">
+        <v>583</v>
+      </c>
+      <c r="D165" t="s">
         <v>584</v>
       </c>
-      <c r="D165" t="s">
-        <v>585</v>
-      </c>
       <c r="E165">
         <v>0</v>
       </c>
@@ -5566,8 +6251,11 @@
       <c r="G165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:7">
+      <c r="H165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -5576,10 +6264,10 @@
         <v>63</v>
       </c>
       <c r="C166" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D166" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E166">
         <v>1</v>
@@ -5590,8 +6278,11 @@
       <c r="G166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:7">
+      <c r="H166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -5600,11 +6291,11 @@
         <v>99</v>
       </c>
       <c r="C167" t="s">
+        <v>387</v>
+      </c>
+      <c r="D167" t="s">
         <v>388</v>
       </c>
-      <c r="D167" t="s">
-        <v>389</v>
-      </c>
       <c r="E167">
         <v>1</v>
       </c>
@@ -5614,14 +6305,17 @@
       <c r="G167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:7">
+      <c r="H167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168">
         <f t="shared" si="2"/>
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E168">
         <v>0</v>
@@ -5632,8 +6326,11 @@
       <c r="G168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:7">
+      <c r="H168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -5641,6 +6338,12 @@
       <c r="B169" t="s">
         <v>87</v>
       </c>
+      <c r="C169" t="s">
+        <v>637</v>
+      </c>
+      <c r="D169" t="s">
+        <v>639</v>
+      </c>
       <c r="E169">
         <v>0</v>
       </c>
@@ -5650,14 +6353,17 @@
       <c r="G169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:7">
+      <c r="H169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170">
         <f t="shared" si="2"/>
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E170">
         <v>0</v>
@@ -5668,14 +6374,17 @@
       <c r="G170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:7">
+      <c r="H170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171">
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E171">
         <v>0</v>
@@ -5686,21 +6395,24 @@
       <c r="G171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:7">
+      <c r="H171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172">
         <f t="shared" si="2"/>
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C172" t="s">
+        <v>452</v>
+      </c>
+      <c r="D172" t="s">
         <v>453</v>
       </c>
-      <c r="D172" t="s">
-        <v>454</v>
-      </c>
       <c r="E172">
         <v>1</v>
       </c>
@@ -5710,8 +6422,11 @@
       <c r="G172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:7">
+      <c r="H172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -5728,14 +6443,17 @@
       <c r="G173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:7">
+      <c r="H173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174">
         <f t="shared" si="2"/>
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E174">
         <v>0</v>
@@ -5746,21 +6464,24 @@
       <c r="G174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:7">
+      <c r="H174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175">
         <f t="shared" si="2"/>
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C175" t="s">
+        <v>585</v>
+      </c>
+      <c r="D175" t="s">
         <v>586</v>
       </c>
-      <c r="D175" t="s">
-        <v>587</v>
-      </c>
       <c r="E175">
         <v>0</v>
       </c>
@@ -5770,8 +6491,11 @@
       <c r="G175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:7">
+      <c r="H175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -5780,10 +6504,10 @@
         <v>55</v>
       </c>
       <c r="C176" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D176" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E176">
         <v>0</v>
@@ -5794,8 +6518,11 @@
       <c r="G176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:7">
+      <c r="H176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -5812,20 +6539,23 @@
       <c r="G177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:7">
+      <c r="H177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178">
         <f t="shared" si="2"/>
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C178" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D178" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E178">
         <v>0</v>
@@ -5836,14 +6566,17 @@
       <c r="G178">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:7">
+      <c r="H178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179">
         <f t="shared" si="2"/>
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E179">
         <v>0</v>
@@ -5854,14 +6587,17 @@
       <c r="G179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:7">
+      <c r="H179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180">
         <f t="shared" si="2"/>
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E180">
         <v>0</v>
@@ -5872,14 +6608,17 @@
       <c r="G180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:7">
+      <c r="H180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E181">
         <v>0</v>
@@ -5890,20 +6629,23 @@
       <c r="G181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:7">
+      <c r="H181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182">
         <f t="shared" si="2"/>
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C182" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D182" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E182">
         <v>1</v>
@@ -5914,14 +6656,17 @@
       <c r="G182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:7">
+      <c r="H182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183">
         <f t="shared" si="2"/>
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E183">
         <v>0</v>
@@ -5932,14 +6677,17 @@
       <c r="G183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:7">
+      <c r="H183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184">
         <f t="shared" si="2"/>
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E184">
         <v>0</v>
@@ -5950,14 +6698,17 @@
       <c r="G184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:7">
+      <c r="H184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185">
         <f t="shared" si="2"/>
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E185">
         <v>0</v>
@@ -5968,8 +6719,11 @@
       <c r="G185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:7">
+      <c r="H185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -5978,10 +6732,10 @@
         <v>65</v>
       </c>
       <c r="C186" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D186" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E186">
         <v>0</v>
@@ -5992,21 +6746,24 @@
       <c r="G186">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:7">
+      <c r="H186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187">
         <f t="shared" si="2"/>
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C187" t="s">
+        <v>587</v>
+      </c>
+      <c r="D187" t="s">
         <v>588</v>
       </c>
-      <c r="D187" t="s">
-        <v>589</v>
-      </c>
       <c r="E187">
         <v>0</v>
       </c>
@@ -6016,14 +6773,17 @@
       <c r="G187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:7">
+      <c r="H187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188">
         <f t="shared" si="2"/>
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E188">
         <v>0</v>
@@ -6034,20 +6794,23 @@
       <c r="G188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:7">
+      <c r="H188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189">
         <f t="shared" si="2"/>
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C189" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D189" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E189">
         <v>0</v>
@@ -6058,14 +6821,17 @@
       <c r="G189">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:7">
+      <c r="H189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190">
         <f t="shared" si="2"/>
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E190">
         <v>0</v>
@@ -6076,14 +6842,23 @@
       <c r="G190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:7">
+      <c r="H190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191">
         <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>288</v>
+        <v>287</v>
+      </c>
+      <c r="C191" t="s">
+        <v>654</v>
+      </c>
+      <c r="D191" t="s">
+        <v>655</v>
       </c>
       <c r="E191">
         <v>0</v>
@@ -6094,14 +6869,17 @@
       <c r="G191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:7">
+      <c r="H191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192">
         <f t="shared" si="2"/>
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E192">
         <v>0</v>
@@ -6112,14 +6890,17 @@
       <c r="G192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:7">
+      <c r="H192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
       <c r="A193">
         <f t="shared" si="2"/>
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E193">
         <v>0</v>
@@ -6130,8 +6911,11 @@
       <c r="G193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:7">
+      <c r="H193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -6140,11 +6924,11 @@
         <v>18</v>
       </c>
       <c r="C194" t="s">
+        <v>392</v>
+      </c>
+      <c r="D194" t="s">
         <v>393</v>
       </c>
-      <c r="D194" t="s">
-        <v>394</v>
-      </c>
       <c r="E194">
         <v>1</v>
       </c>
@@ -6154,20 +6938,23 @@
       <c r="G194">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="1:7">
+      <c r="H194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195">
         <f t="shared" si="2"/>
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C195" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D195" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E195">
         <v>0</v>
@@ -6178,8 +6965,11 @@
       <c r="G195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:7">
+      <c r="H195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196">
         <f t="shared" ref="A196:A259" si="3">A195+1</f>
         <v>195</v>
@@ -6196,8 +6986,11 @@
       <c r="G196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:7">
+      <c r="H196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
       <c r="A197">
         <f t="shared" si="3"/>
         <v>196</v>
@@ -6206,10 +6999,10 @@
         <v>54</v>
       </c>
       <c r="C197" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D197" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E197">
         <v>0</v>
@@ -6220,14 +7013,17 @@
       <c r="G197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:7">
+      <c r="H197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
       <c r="A198">
         <f t="shared" si="3"/>
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E198">
         <v>0</v>
@@ -6238,8 +7034,11 @@
       <c r="G198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:7">
+      <c r="H198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
       <c r="A199">
         <f t="shared" si="3"/>
         <v>198</v>
@@ -6248,11 +7047,11 @@
         <v>64</v>
       </c>
       <c r="C199" t="s">
+        <v>394</v>
+      </c>
+      <c r="D199" t="s">
         <v>395</v>
       </c>
-      <c r="D199" t="s">
-        <v>396</v>
-      </c>
       <c r="E199">
         <v>1</v>
       </c>
@@ -6262,14 +7061,17 @@
       <c r="G199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:7">
+      <c r="H199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
       <c r="A200">
         <f t="shared" si="3"/>
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E200">
         <v>0</v>
@@ -6280,21 +7082,24 @@
       <c r="G200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:7">
+      <c r="H200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
       <c r="A201">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C201" t="s">
+        <v>396</v>
+      </c>
+      <c r="D201" t="s">
         <v>397</v>
       </c>
-      <c r="D201" t="s">
-        <v>398</v>
-      </c>
       <c r="E201">
         <v>1</v>
       </c>
@@ -6304,8 +7109,11 @@
       <c r="G201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:7">
+      <c r="H201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
       <c r="A202">
         <f t="shared" si="3"/>
         <v>201</v>
@@ -6322,8 +7130,11 @@
       <c r="G202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:7">
+      <c r="H202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
       <c r="A203">
         <f t="shared" si="3"/>
         <v>202</v>
@@ -6332,10 +7143,10 @@
         <v>9</v>
       </c>
       <c r="C203" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D203" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E203">
         <v>0</v>
@@ -6346,8 +7157,11 @@
       <c r="G203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:7">
+      <c r="H203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
       <c r="A204">
         <f t="shared" si="3"/>
         <v>203</v>
@@ -6356,10 +7170,10 @@
         <v>32</v>
       </c>
       <c r="C204" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D204" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E204">
         <v>0</v>
@@ -6370,8 +7184,11 @@
       <c r="G204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:7">
+      <c r="H204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
       <c r="A205">
         <f t="shared" si="3"/>
         <v>204</v>
@@ -6380,10 +7197,10 @@
         <v>19</v>
       </c>
       <c r="C205" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D205" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E205">
         <v>0</v>
@@ -6394,14 +7211,17 @@
       <c r="G205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:7">
+      <c r="H205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
       <c r="A206">
         <f t="shared" si="3"/>
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E206">
         <v>0</v>
@@ -6412,14 +7232,17 @@
       <c r="G206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:7">
+      <c r="H206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
       <c r="A207">
         <f t="shared" si="3"/>
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E207">
         <v>0</v>
@@ -6430,20 +7253,23 @@
       <c r="G207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:7">
+      <c r="H207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
       <c r="A208">
         <f t="shared" si="3"/>
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C208" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D208" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E208">
         <v>0</v>
@@ -6454,20 +7280,23 @@
       <c r="G208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:7">
+      <c r="H208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
       <c r="A209">
         <f t="shared" si="3"/>
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C209" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D209" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E209">
         <v>0</v>
@@ -6478,8 +7307,11 @@
       <c r="G209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:7">
+      <c r="H209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
       <c r="A210">
         <f t="shared" si="3"/>
         <v>209</v>
@@ -6487,6 +7319,12 @@
       <c r="B210" t="s">
         <v>107</v>
       </c>
+      <c r="C210" t="s">
+        <v>622</v>
+      </c>
+      <c r="D210" t="s">
+        <v>623</v>
+      </c>
       <c r="E210">
         <v>0</v>
       </c>
@@ -6496,21 +7334,24 @@
       <c r="G210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:7">
+      <c r="H210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
       <c r="A211">
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C211" t="s">
+        <v>398</v>
+      </c>
+      <c r="D211" t="s">
         <v>399</v>
       </c>
-      <c r="D211" t="s">
-        <v>400</v>
-      </c>
       <c r="E211">
         <v>1</v>
       </c>
@@ -6520,21 +7361,24 @@
       <c r="G211">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="1:7">
+      <c r="H211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
       <c r="A212">
         <f t="shared" si="3"/>
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C212" t="s">
+        <v>589</v>
+      </c>
+      <c r="D212" t="s">
         <v>590</v>
       </c>
-      <c r="D212" t="s">
-        <v>591</v>
-      </c>
       <c r="E212">
         <v>0</v>
       </c>
@@ -6544,8 +7388,11 @@
       <c r="G212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:7">
+      <c r="H212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
       <c r="A213">
         <f t="shared" si="3"/>
         <v>212</v>
@@ -6554,10 +7401,10 @@
         <v>108</v>
       </c>
       <c r="C213" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D213" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E213">
         <v>0</v>
@@ -6568,8 +7415,11 @@
       <c r="G213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:7">
+      <c r="H213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
       <c r="A214">
         <f t="shared" si="3"/>
         <v>213</v>
@@ -6586,8 +7436,11 @@
       <c r="G214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:7">
+      <c r="H214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
       <c r="A215">
         <f t="shared" si="3"/>
         <v>214</v>
@@ -6604,20 +7457,23 @@
       <c r="G215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:7">
+      <c r="H215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
       <c r="A216">
         <f t="shared" si="3"/>
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C216" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D216" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E216">
         <v>0</v>
@@ -6628,8 +7484,11 @@
       <c r="G216">
         <v>1</v>
       </c>
-    </row>
-    <row r="217" spans="1:7">
+      <c r="H216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
       <c r="A217">
         <f t="shared" si="3"/>
         <v>216</v>
@@ -6646,14 +7505,17 @@
       <c r="G217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:7">
+      <c r="H217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
       <c r="A218">
         <f t="shared" si="3"/>
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E218">
         <v>0</v>
@@ -6664,14 +7526,17 @@
       <c r="G218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:7">
+      <c r="H218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
       <c r="A219">
         <f t="shared" si="3"/>
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E219">
         <v>0</v>
@@ -6682,14 +7547,17 @@
       <c r="G219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:7">
+      <c r="H219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
       <c r="A220">
         <f t="shared" si="3"/>
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E220">
         <v>0</v>
@@ -6700,8 +7568,11 @@
       <c r="G220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:7">
+      <c r="H220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
       <c r="A221">
         <f t="shared" si="3"/>
         <v>220</v>
@@ -6710,11 +7581,11 @@
         <v>2</v>
       </c>
       <c r="C221" t="s">
+        <v>400</v>
+      </c>
+      <c r="D221" t="s">
         <v>401</v>
       </c>
-      <c r="D221" t="s">
-        <v>402</v>
-      </c>
       <c r="E221">
         <v>1</v>
       </c>
@@ -6724,21 +7595,24 @@
       <c r="G221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:7">
+      <c r="H221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
       <c r="A222">
         <f t="shared" si="3"/>
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C222" t="s">
+        <v>402</v>
+      </c>
+      <c r="D222" t="s">
         <v>403</v>
       </c>
-      <c r="D222" t="s">
-        <v>404</v>
-      </c>
       <c r="E222">
         <v>1</v>
       </c>
@@ -6748,20 +7622,23 @@
       <c r="G222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:7">
+      <c r="H222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
       <c r="A223">
         <f t="shared" si="3"/>
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C223" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D223" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E223">
         <v>0</v>
@@ -6772,20 +7649,23 @@
       <c r="G223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:7">
+      <c r="H223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
       <c r="A224">
         <f t="shared" si="3"/>
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C224" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D224" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E224">
         <v>0</v>
@@ -6796,21 +7676,24 @@
       <c r="G224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:7">
+      <c r="H224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
       <c r="A225">
         <f t="shared" si="3"/>
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C225" t="s">
+        <v>405</v>
+      </c>
+      <c r="D225" t="s">
         <v>406</v>
       </c>
-      <c r="D225" t="s">
-        <v>407</v>
-      </c>
       <c r="E225">
         <v>1</v>
       </c>
@@ -6820,20 +7703,23 @@
       <c r="G225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:7">
+      <c r="H225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
       <c r="A226">
         <f t="shared" si="3"/>
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C226" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D226" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E226">
         <v>1</v>
@@ -6844,21 +7730,24 @@
       <c r="G226">
         <v>1</v>
       </c>
-    </row>
-    <row r="227" spans="1:7">
+      <c r="H226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
       <c r="A227">
         <f t="shared" si="3"/>
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C227" t="s">
+        <v>408</v>
+      </c>
+      <c r="D227" t="s">
         <v>409</v>
       </c>
-      <c r="D227" t="s">
-        <v>410</v>
-      </c>
       <c r="E227">
         <v>1</v>
       </c>
@@ -6868,20 +7757,23 @@
       <c r="G227">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:7">
+      <c r="H227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
       <c r="A228">
         <f t="shared" si="3"/>
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C228" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D228" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E228">
         <v>0</v>
@@ -6892,14 +7784,17 @@
       <c r="G228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:7">
+      <c r="H228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
       <c r="A229">
         <f t="shared" si="3"/>
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E229">
         <v>0</v>
@@ -6910,20 +7805,23 @@
       <c r="G229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:7">
+      <c r="H229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
       <c r="A230">
         <f t="shared" si="3"/>
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C230" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D230" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E230">
         <v>0</v>
@@ -6934,8 +7832,11 @@
       <c r="G230">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:7">
+      <c r="H230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
       <c r="A231">
         <f t="shared" si="3"/>
         <v>230</v>
@@ -6944,10 +7845,10 @@
         <v>115</v>
       </c>
       <c r="C231" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D231" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E231">
         <v>0</v>
@@ -6958,8 +7859,11 @@
       <c r="G231">
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="1:7">
+      <c r="H231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
       <c r="A232">
         <f t="shared" si="3"/>
         <v>231</v>
@@ -6968,11 +7872,11 @@
         <v>116</v>
       </c>
       <c r="C232" t="s">
+        <v>410</v>
+      </c>
+      <c r="D232" t="s">
         <v>411</v>
       </c>
-      <c r="D232" t="s">
-        <v>412</v>
-      </c>
       <c r="E232">
         <v>1</v>
       </c>
@@ -6982,21 +7886,24 @@
       <c r="G232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:7">
+      <c r="H232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
       <c r="A233">
         <f t="shared" si="3"/>
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C233" t="s">
+        <v>412</v>
+      </c>
+      <c r="D233" t="s">
         <v>413</v>
       </c>
-      <c r="D233" t="s">
-        <v>414</v>
-      </c>
       <c r="E233">
         <v>1</v>
       </c>
@@ -7006,8 +7913,11 @@
       <c r="G233">
         <v>1</v>
       </c>
-    </row>
-    <row r="234" spans="1:7">
+      <c r="H233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
       <c r="A234">
         <f t="shared" si="3"/>
         <v>233</v>
@@ -7024,8 +7934,11 @@
       <c r="G234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:7">
+      <c r="H234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
       <c r="A235">
         <f t="shared" si="3"/>
         <v>234</v>
@@ -7042,14 +7955,17 @@
       <c r="G235">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:7">
+      <c r="H235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
       <c r="A236">
         <f t="shared" si="3"/>
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E236">
         <v>0</v>
@@ -7060,8 +7976,11 @@
       <c r="G236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:7">
+      <c r="H236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
       <c r="A237">
         <f t="shared" si="3"/>
         <v>236</v>
@@ -7078,8 +7997,11 @@
       <c r="G237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:7">
+      <c r="H237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
       <c r="A238">
         <f t="shared" si="3"/>
         <v>237</v>
@@ -7088,10 +8010,10 @@
         <v>12</v>
       </c>
       <c r="C238" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D238" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E238">
         <v>1</v>
@@ -7102,20 +8024,23 @@
       <c r="G238">
         <v>1</v>
       </c>
-    </row>
-    <row r="239" spans="1:7">
+      <c r="H238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
       <c r="A239">
         <f t="shared" si="3"/>
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C239" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D239" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E239">
         <v>0</v>
@@ -7126,8 +8051,11 @@
       <c r="G239">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:7">
+      <c r="H239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
       <c r="A240">
         <f t="shared" si="3"/>
         <v>239</v>
@@ -7136,10 +8064,10 @@
         <v>13</v>
       </c>
       <c r="C240" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D240" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E240">
         <v>0</v>
@@ -7150,8 +8078,11 @@
       <c r="G240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:7">
+      <c r="H240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
       <c r="A241">
         <f t="shared" si="3"/>
         <v>240</v>
@@ -7160,11 +8091,11 @@
         <v>45</v>
       </c>
       <c r="C241" t="s">
+        <v>449</v>
+      </c>
+      <c r="D241" t="s">
         <v>450</v>
       </c>
-      <c r="D241" t="s">
-        <v>451</v>
-      </c>
       <c r="E241">
         <v>1</v>
       </c>
@@ -7174,8 +8105,11 @@
       <c r="G241">
         <v>1</v>
       </c>
-    </row>
-    <row r="242" spans="1:7">
+      <c r="H241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
       <c r="A242">
         <f t="shared" si="3"/>
         <v>241</v>
@@ -7192,14 +8126,17 @@
       <c r="G242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:7">
+      <c r="H242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
       <c r="A243">
         <f t="shared" si="3"/>
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E243">
         <v>0</v>
@@ -7210,14 +8147,17 @@
       <c r="G243">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:7">
+      <c r="H243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
       <c r="A244">
         <f t="shared" si="3"/>
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E244">
         <v>0</v>
@@ -7228,14 +8168,17 @@
       <c r="G244">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:7">
+      <c r="H244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
       <c r="A245">
         <f t="shared" si="3"/>
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E245">
         <v>0</v>
@@ -7246,21 +8189,24 @@
       <c r="G245">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:7">
+      <c r="H245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
       <c r="A246">
         <f t="shared" si="3"/>
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C246" t="s">
+        <v>593</v>
+      </c>
+      <c r="D246" t="s">
         <v>594</v>
       </c>
-      <c r="D246" t="s">
-        <v>595</v>
-      </c>
       <c r="E246">
         <v>0</v>
       </c>
@@ -7270,20 +8216,23 @@
       <c r="G246">
         <v>1</v>
       </c>
-    </row>
-    <row r="247" spans="1:7">
+      <c r="H246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
       <c r="A247">
         <f t="shared" si="3"/>
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C247" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D247" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E247">
         <v>1</v>
@@ -7294,8 +8243,11 @@
       <c r="G247">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:7">
+      <c r="H247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
       <c r="A248">
         <f t="shared" si="3"/>
         <v>247</v>
@@ -7312,8 +8264,11 @@
       <c r="G248">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:7">
+      <c r="H248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
       <c r="A249">
         <f t="shared" si="3"/>
         <v>248</v>
@@ -7322,10 +8277,10 @@
         <v>113</v>
       </c>
       <c r="C249" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D249" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E249">
         <v>0</v>
@@ -7336,8 +8291,11 @@
       <c r="G249">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:7">
+      <c r="H249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
       <c r="A250">
         <f t="shared" si="3"/>
         <v>249</v>
@@ -7346,11 +8304,11 @@
         <v>15</v>
       </c>
       <c r="C250" t="s">
+        <v>595</v>
+      </c>
+      <c r="D250" t="s">
         <v>596</v>
       </c>
-      <c r="D250" t="s">
-        <v>597</v>
-      </c>
       <c r="E250">
         <v>0</v>
       </c>
@@ -7360,8 +8318,11 @@
       <c r="G250">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:7">
+      <c r="H250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
       <c r="A251">
         <f t="shared" si="3"/>
         <v>250</v>
@@ -7378,14 +8339,17 @@
       <c r="G251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:7">
+      <c r="H251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
       <c r="A252">
         <f t="shared" si="3"/>
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E252">
         <v>0</v>
@@ -7396,21 +8360,24 @@
       <c r="G252">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:7">
+      <c r="H252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
       <c r="A253">
         <f t="shared" si="3"/>
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C253" t="s">
+        <v>597</v>
+      </c>
+      <c r="D253" t="s">
         <v>598</v>
       </c>
-      <c r="D253" t="s">
-        <v>599</v>
-      </c>
       <c r="E253">
         <v>0</v>
       </c>
@@ -7420,8 +8387,11 @@
       <c r="G253">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:7">
+      <c r="H253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
       <c r="A254">
         <f t="shared" si="3"/>
         <v>253</v>
@@ -7430,10 +8400,10 @@
         <v>91</v>
       </c>
       <c r="C254" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D254" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E254">
         <v>1</v>
@@ -7444,8 +8414,11 @@
       <c r="G254">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:7">
+      <c r="H254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
       <c r="A255">
         <f t="shared" si="3"/>
         <v>254</v>
@@ -7454,11 +8427,11 @@
         <v>103</v>
       </c>
       <c r="C255" t="s">
+        <v>364</v>
+      </c>
+      <c r="D255" t="s">
         <v>365</v>
       </c>
-      <c r="D255" t="s">
-        <v>366</v>
-      </c>
       <c r="E255">
         <v>1</v>
       </c>
@@ -7468,21 +8441,24 @@
       <c r="G255">
         <v>1</v>
       </c>
-    </row>
-    <row r="256" spans="1:7">
+      <c r="H255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
       <c r="A256">
         <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C256" t="s">
+        <v>417</v>
+      </c>
+      <c r="D256" t="s">
         <v>418</v>
       </c>
-      <c r="D256" t="s">
-        <v>419</v>
-      </c>
       <c r="E256">
         <v>1</v>
       </c>
@@ -7492,14 +8468,17 @@
       <c r="G256">
         <v>1</v>
       </c>
-    </row>
-    <row r="257" spans="1:7">
+      <c r="H256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
       <c r="A257">
         <f t="shared" si="3"/>
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E257">
         <v>0</v>
@@ -7510,20 +8489,23 @@
       <c r="G257">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:7">
+      <c r="H257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
       <c r="A258">
         <f t="shared" si="3"/>
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C258" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D258" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E258">
         <v>0</v>
@@ -7534,8 +8516,11 @@
       <c r="G258">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:7">
+      <c r="H258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
       <c r="A259">
         <f t="shared" si="3"/>
         <v>258</v>
@@ -7544,11 +8529,11 @@
         <v>26</v>
       </c>
       <c r="C259" t="s">
+        <v>419</v>
+      </c>
+      <c r="D259" t="s">
         <v>420</v>
       </c>
-      <c r="D259" t="s">
-        <v>421</v>
-      </c>
       <c r="E259">
         <v>1</v>
       </c>
@@ -7558,8 +8543,11 @@
       <c r="G259">
         <v>1</v>
       </c>
-    </row>
-    <row r="260" spans="1:7">
+      <c r="H259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
       <c r="A260">
         <f t="shared" ref="A260:A323" si="4">A259+1</f>
         <v>259</v>
@@ -7576,14 +8564,17 @@
       <c r="G260">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:7">
+      <c r="H260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
       <c r="A261">
         <f t="shared" si="4"/>
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E261">
         <v>0</v>
@@ -7594,8 +8585,11 @@
       <c r="G261">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:7">
+      <c r="H261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
       <c r="A262">
         <f t="shared" si="4"/>
         <v>261</v>
@@ -7603,6 +8597,12 @@
       <c r="B262" t="s">
         <v>6</v>
       </c>
+      <c r="C262" t="s">
+        <v>634</v>
+      </c>
+      <c r="D262" t="s">
+        <v>343</v>
+      </c>
       <c r="E262">
         <v>0</v>
       </c>
@@ -7612,8 +8612,11 @@
       <c r="G262">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:7">
+      <c r="H262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
       <c r="A263">
         <f t="shared" si="4"/>
         <v>262</v>
@@ -7622,10 +8625,10 @@
         <v>92</v>
       </c>
       <c r="C263" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D263" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E263">
         <v>1</v>
@@ -7636,8 +8639,11 @@
       <c r="G263">
         <v>1</v>
       </c>
-    </row>
-    <row r="264" spans="1:7">
+      <c r="H263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
       <c r="A264">
         <f t="shared" si="4"/>
         <v>263</v>
@@ -7654,8 +8660,11 @@
       <c r="G264">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:7">
+      <c r="H264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
       <c r="A265">
         <f t="shared" si="4"/>
         <v>264</v>
@@ -7672,8 +8681,11 @@
       <c r="G265">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:7">
+      <c r="H265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
       <c r="A266">
         <f t="shared" si="4"/>
         <v>265</v>
@@ -7682,10 +8694,10 @@
         <v>16</v>
       </c>
       <c r="C266" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D266" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E266">
         <v>0</v>
@@ -7696,8 +8708,11 @@
       <c r="G266">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:7">
+      <c r="H266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
       <c r="A267">
         <f t="shared" si="4"/>
         <v>266</v>
@@ -7706,10 +8721,10 @@
         <v>27</v>
       </c>
       <c r="C267" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D267" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E267">
         <v>0</v>
@@ -7720,8 +8735,11 @@
       <c r="G267">
         <v>1</v>
       </c>
-    </row>
-    <row r="268" spans="1:7">
+      <c r="H267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
       <c r="A268">
         <f t="shared" si="4"/>
         <v>267</v>
@@ -7730,10 +8748,10 @@
         <v>93</v>
       </c>
       <c r="C268" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D268" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E268">
         <v>0</v>
@@ -7744,8 +8762,11 @@
       <c r="G268">
         <v>1</v>
       </c>
-    </row>
-    <row r="269" spans="1:7">
+      <c r="H268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
       <c r="A269">
         <f t="shared" si="4"/>
         <v>268</v>
@@ -7754,11 +8775,11 @@
         <v>95</v>
       </c>
       <c r="C269" t="s">
+        <v>599</v>
+      </c>
+      <c r="D269" t="s">
         <v>600</v>
       </c>
-      <c r="D269" t="s">
-        <v>601</v>
-      </c>
       <c r="E269">
         <v>0</v>
       </c>
@@ -7768,20 +8789,23 @@
       <c r="G269">
         <v>1</v>
       </c>
-    </row>
-    <row r="270" spans="1:7">
+      <c r="H269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
       <c r="A270">
         <f t="shared" si="4"/>
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C270" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D270" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E270">
         <v>1</v>
@@ -7792,14 +8816,23 @@
       <c r="G270">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:7">
+      <c r="H270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
       <c r="A271">
         <f t="shared" si="4"/>
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>264</v>
+        <v>263</v>
+      </c>
+      <c r="C271" t="s">
+        <v>631</v>
+      </c>
+      <c r="D271" t="s">
+        <v>343</v>
       </c>
       <c r="E271">
         <v>0</v>
@@ -7810,14 +8843,17 @@
       <c r="G271">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:7">
+      <c r="H271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
       <c r="A272">
         <f t="shared" si="4"/>
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E272">
         <v>0</v>
@@ -7828,8 +8864,11 @@
       <c r="G272">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:7">
+      <c r="H272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
       <c r="A273">
         <f t="shared" si="4"/>
         <v>272</v>
@@ -7838,11 +8877,11 @@
         <v>71</v>
       </c>
       <c r="C273" t="s">
+        <v>543</v>
+      </c>
+      <c r="D273" t="s">
         <v>544</v>
       </c>
-      <c r="D273" t="s">
-        <v>545</v>
-      </c>
       <c r="E273">
         <v>0</v>
       </c>
@@ -7852,20 +8891,23 @@
       <c r="G273">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:7">
+      <c r="H273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
       <c r="A274">
         <f t="shared" si="4"/>
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C274" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D274" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E274">
         <v>0</v>
@@ -7876,14 +8918,23 @@
       <c r="G274">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:7">
+      <c r="H274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
       <c r="A275">
         <f t="shared" si="4"/>
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>477</v>
+        <v>476</v>
+      </c>
+      <c r="C275" t="s">
+        <v>624</v>
+      </c>
+      <c r="D275" t="s">
+        <v>625</v>
       </c>
       <c r="E275">
         <v>0</v>
@@ -7894,14 +8945,17 @@
       <c r="G275">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:7">
+      <c r="H275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
       <c r="A276">
         <f t="shared" si="4"/>
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E276">
         <v>0</v>
@@ -7912,20 +8966,23 @@
       <c r="G276">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:7">
+      <c r="H276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
       <c r="A277">
         <f t="shared" si="4"/>
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C277" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D277" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E277">
         <v>0</v>
@@ -7936,8 +8993,11 @@
       <c r="G277">
         <v>1</v>
       </c>
-    </row>
-    <row r="278" spans="1:7">
+      <c r="H277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
       <c r="A278">
         <f t="shared" si="4"/>
         <v>277</v>
@@ -7954,14 +9014,17 @@
       <c r="G278">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:7">
+      <c r="H278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
       <c r="A279">
         <f t="shared" si="4"/>
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E279">
         <v>0</v>
@@ -7972,20 +9035,23 @@
       <c r="G279">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:7">
+      <c r="H279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
       <c r="A280">
         <f t="shared" si="4"/>
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C280" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D280" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E280">
         <v>0</v>
@@ -7996,8 +9062,11 @@
       <c r="G280">
         <v>1</v>
       </c>
-    </row>
-    <row r="281" spans="1:7">
+      <c r="H280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
       <c r="A281">
         <f t="shared" si="4"/>
         <v>280</v>
@@ -8006,10 +9075,10 @@
         <v>88</v>
       </c>
       <c r="C281" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D281" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -8020,8 +9089,11 @@
       <c r="G281">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:7">
+      <c r="H281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8">
       <c r="A282">
         <f t="shared" si="4"/>
         <v>281</v>
@@ -8030,11 +9102,11 @@
         <v>28</v>
       </c>
       <c r="C282" t="s">
+        <v>422</v>
+      </c>
+      <c r="D282" t="s">
         <v>423</v>
       </c>
-      <c r="D282" t="s">
-        <v>424</v>
-      </c>
       <c r="E282">
         <v>1</v>
       </c>
@@ -8044,14 +9116,17 @@
       <c r="G282">
         <v>1</v>
       </c>
-    </row>
-    <row r="283" spans="1:7">
+      <c r="H282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8">
       <c r="A283">
         <f t="shared" si="4"/>
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E283">
         <v>0</v>
@@ -8062,14 +9137,23 @@
       <c r="G283">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:7">
+      <c r="H283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
       <c r="A284">
         <f t="shared" si="4"/>
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>274</v>
+        <v>273</v>
+      </c>
+      <c r="C284" t="s">
+        <v>647</v>
+      </c>
+      <c r="D284" t="s">
+        <v>648</v>
       </c>
       <c r="E284">
         <v>0</v>
@@ -8080,8 +9164,11 @@
       <c r="G284">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:7">
+      <c r="H284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
       <c r="A285">
         <f t="shared" si="4"/>
         <v>284</v>
@@ -8090,10 +9177,10 @@
         <v>127</v>
       </c>
       <c r="C285" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D285" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E285">
         <v>0</v>
@@ -8104,8 +9191,11 @@
       <c r="G285">
         <v>1</v>
       </c>
-    </row>
-    <row r="286" spans="1:7">
+      <c r="H285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
       <c r="A286">
         <f t="shared" si="4"/>
         <v>285</v>
@@ -8114,11 +9204,11 @@
         <v>73</v>
       </c>
       <c r="C286" t="s">
+        <v>604</v>
+      </c>
+      <c r="D286" t="s">
         <v>605</v>
       </c>
-      <c r="D286" t="s">
-        <v>606</v>
-      </c>
       <c r="E286">
         <v>0</v>
       </c>
@@ -8128,8 +9218,11 @@
       <c r="G286">
         <v>1</v>
       </c>
-    </row>
-    <row r="287" spans="1:7">
+      <c r="H286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
       <c r="A287">
         <f t="shared" si="4"/>
         <v>286</v>
@@ -8138,11 +9231,11 @@
         <v>41</v>
       </c>
       <c r="C287" t="s">
+        <v>456</v>
+      </c>
+      <c r="D287" t="s">
         <v>457</v>
       </c>
-      <c r="D287" t="s">
-        <v>458</v>
-      </c>
       <c r="E287">
         <v>1</v>
       </c>
@@ -8152,14 +9245,17 @@
       <c r="G287">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:7">
+      <c r="H287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
       <c r="A288">
         <f t="shared" si="4"/>
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E288">
         <v>0</v>
@@ -8170,8 +9266,11 @@
       <c r="G288">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:7">
+      <c r="H288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8">
       <c r="A289">
         <f t="shared" si="4"/>
         <v>288</v>
@@ -8188,21 +9287,24 @@
       <c r="G289">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:7">
+      <c r="H289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
       <c r="A290">
         <f t="shared" si="4"/>
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C290" t="s">
+        <v>424</v>
+      </c>
+      <c r="D290" t="s">
         <v>425</v>
       </c>
-      <c r="D290" t="s">
-        <v>426</v>
-      </c>
       <c r="E290">
         <v>1</v>
       </c>
@@ -8212,8 +9314,11 @@
       <c r="G290">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:7">
+      <c r="H290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
       <c r="A291">
         <f t="shared" si="4"/>
         <v>290</v>
@@ -8222,11 +9327,11 @@
         <v>30</v>
       </c>
       <c r="C291" t="s">
+        <v>378</v>
+      </c>
+      <c r="D291" t="s">
         <v>379</v>
       </c>
-      <c r="D291" t="s">
-        <v>380</v>
-      </c>
       <c r="E291">
         <v>1</v>
       </c>
@@ -8236,8 +9341,11 @@
       <c r="G291">
         <v>1</v>
       </c>
-    </row>
-    <row r="292" spans="1:7">
+      <c r="H291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8">
       <c r="A292">
         <f t="shared" si="4"/>
         <v>291</v>
@@ -8246,11 +9354,11 @@
         <v>105</v>
       </c>
       <c r="C292" t="s">
+        <v>389</v>
+      </c>
+      <c r="D292" t="s">
         <v>390</v>
       </c>
-      <c r="D292" t="s">
-        <v>391</v>
-      </c>
       <c r="E292">
         <v>1</v>
       </c>
@@ -8260,21 +9368,24 @@
       <c r="G292">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:7">
+      <c r="H292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
       <c r="A293">
         <f t="shared" si="4"/>
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C293" t="s">
+        <v>426</v>
+      </c>
+      <c r="D293" t="s">
         <v>427</v>
       </c>
-      <c r="D293" t="s">
-        <v>428</v>
-      </c>
       <c r="E293">
         <v>1</v>
       </c>
@@ -8284,14 +9395,23 @@
       <c r="G293">
         <v>1</v>
       </c>
-    </row>
-    <row r="294" spans="1:7">
+      <c r="H293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8">
       <c r="A294">
         <f t="shared" si="4"/>
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>156</v>
+        <v>155</v>
+      </c>
+      <c r="C294" t="s">
+        <v>656</v>
+      </c>
+      <c r="D294" t="s">
+        <v>657</v>
       </c>
       <c r="E294">
         <v>0</v>
@@ -8302,8 +9422,11 @@
       <c r="G294">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:7">
+      <c r="H294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8">
       <c r="A295">
         <f t="shared" si="4"/>
         <v>294</v>
@@ -8312,10 +9435,10 @@
         <v>31</v>
       </c>
       <c r="C295" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D295" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E295">
         <v>0</v>
@@ -8326,14 +9449,17 @@
       <c r="G295">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:7">
+      <c r="H295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8">
       <c r="A296">
         <f t="shared" si="4"/>
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E296">
         <v>0</v>
@@ -8344,8 +9470,11 @@
       <c r="G296">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:7">
+      <c r="H296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8">
       <c r="A297">
         <f t="shared" si="4"/>
         <v>296</v>
@@ -8354,10 +9483,10 @@
         <v>52</v>
       </c>
       <c r="C297" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D297" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E297">
         <v>0</v>
@@ -8368,8 +9497,11 @@
       <c r="G297">
         <v>1</v>
       </c>
-    </row>
-    <row r="298" spans="1:7">
+      <c r="H297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8">
       <c r="A298">
         <f t="shared" si="4"/>
         <v>297</v>
@@ -8386,14 +9518,17 @@
       <c r="G298">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:7">
+      <c r="H298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8">
       <c r="A299">
         <f t="shared" si="4"/>
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E299">
         <v>0</v>
@@ -8404,14 +9539,17 @@
       <c r="G299">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:7">
+      <c r="H299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8">
       <c r="A300">
         <f t="shared" si="4"/>
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E300">
         <v>0</v>
@@ -8422,14 +9560,17 @@
       <c r="G300">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:7">
+      <c r="H300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8">
       <c r="A301">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E301">
         <v>0</v>
@@ -8440,20 +9581,23 @@
       <c r="G301">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:7">
+      <c r="H301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8">
       <c r="A302">
         <f t="shared" si="4"/>
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C302" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D302" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E302">
         <v>0</v>
@@ -8464,8 +9608,11 @@
       <c r="G302">
         <v>1</v>
       </c>
-    </row>
-    <row r="303" spans="1:7">
+      <c r="H302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8">
       <c r="A303">
         <f t="shared" si="4"/>
         <v>302</v>
@@ -8482,14 +9629,23 @@
       <c r="G303">
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="1:7">
+      <c r="H303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8">
       <c r="A304">
         <f t="shared" si="4"/>
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>304</v>
+        <v>303</v>
+      </c>
+      <c r="C304" t="s">
+        <v>660</v>
+      </c>
+      <c r="D304" t="s">
+        <v>420</v>
       </c>
       <c r="E304">
         <v>0</v>
@@ -8500,8 +9656,11 @@
       <c r="G304">
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:7">
+      <c r="H304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8">
       <c r="A305">
         <f t="shared" si="4"/>
         <v>304</v>
@@ -8518,20 +9677,23 @@
       <c r="G305">
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="1:7">
+      <c r="H305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8">
       <c r="A306">
         <f t="shared" si="4"/>
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C306" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D306" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E306">
         <v>0</v>
@@ -8542,14 +9704,17 @@
       <c r="G306">
         <v>1</v>
       </c>
-    </row>
-    <row r="307" spans="1:7">
+      <c r="H306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8">
       <c r="A307">
         <f t="shared" si="4"/>
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E307">
         <v>0</v>
@@ -8560,14 +9725,23 @@
       <c r="G307">
         <v>0</v>
       </c>
-    </row>
-    <row r="308" spans="1:7">
+      <c r="H307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8">
       <c r="A308">
         <f t="shared" si="4"/>
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>266</v>
+        <v>265</v>
+      </c>
+      <c r="C308" t="s">
+        <v>632</v>
+      </c>
+      <c r="D308" t="s">
+        <v>633</v>
       </c>
       <c r="E308">
         <v>0</v>
@@ -8578,20 +9752,23 @@
       <c r="G308">
         <v>0</v>
       </c>
-    </row>
-    <row r="309" spans="1:7">
+      <c r="H308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8">
       <c r="A309">
         <f t="shared" si="4"/>
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C309" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D309" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E309">
         <v>0</v>
@@ -8602,14 +9779,17 @@
       <c r="G309">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:7">
+      <c r="H309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8">
       <c r="A310">
         <f t="shared" si="4"/>
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E310">
         <v>0</v>
@@ -8620,21 +9800,24 @@
       <c r="G310">
         <v>0</v>
       </c>
-    </row>
-    <row r="311" spans="1:7">
+      <c r="H310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8">
       <c r="A311">
         <f t="shared" si="4"/>
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C311" t="s">
+        <v>607</v>
+      </c>
+      <c r="D311" t="s">
         <v>608</v>
       </c>
-      <c r="D311" t="s">
-        <v>609</v>
-      </c>
       <c r="E311">
         <v>0</v>
       </c>
@@ -8644,8 +9827,11 @@
       <c r="G311">
         <v>0</v>
       </c>
-    </row>
-    <row r="312" spans="1:7">
+      <c r="H311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8">
       <c r="A312">
         <f t="shared" si="4"/>
         <v>311</v>
@@ -8654,11 +9840,11 @@
         <v>106</v>
       </c>
       <c r="C312" t="s">
+        <v>428</v>
+      </c>
+      <c r="D312" t="s">
         <v>429</v>
       </c>
-      <c r="D312" t="s">
-        <v>430</v>
-      </c>
       <c r="E312">
         <v>1</v>
       </c>
@@ -8668,14 +9854,17 @@
       <c r="G312">
         <v>0</v>
       </c>
-    </row>
-    <row r="313" spans="1:7">
+      <c r="H312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8">
       <c r="A313">
         <f t="shared" si="4"/>
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E313">
         <v>0</v>
@@ -8686,14 +9875,17 @@
       <c r="G313">
         <v>0</v>
       </c>
-    </row>
-    <row r="314" spans="1:7">
+      <c r="H313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8">
       <c r="A314">
         <f t="shared" si="4"/>
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E314">
         <v>0</v>
@@ -8704,14 +9896,17 @@
       <c r="G314">
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="1:7">
+      <c r="H314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8">
       <c r="A315">
         <f t="shared" si="4"/>
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E315">
         <v>0</v>
@@ -8722,14 +9917,17 @@
       <c r="G315">
         <v>0</v>
       </c>
-    </row>
-    <row r="316" spans="1:7">
+      <c r="H315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8">
       <c r="A316">
         <f t="shared" si="4"/>
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E316">
         <v>0</v>
@@ -8740,14 +9938,17 @@
       <c r="G316">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:7">
+      <c r="H316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8">
       <c r="A317">
         <f t="shared" si="4"/>
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E317">
         <v>0</v>
@@ -8758,14 +9959,17 @@
       <c r="G317">
         <v>0</v>
       </c>
-    </row>
-    <row r="318" spans="1:7">
+      <c r="H317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8">
       <c r="A318">
         <f t="shared" si="4"/>
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E318">
         <v>0</v>
@@ -8776,8 +9980,11 @@
       <c r="G318">
         <v>0</v>
       </c>
-    </row>
-    <row r="319" spans="1:7">
+      <c r="H318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8">
       <c r="A319">
         <f t="shared" si="4"/>
         <v>318</v>
@@ -8786,10 +9993,10 @@
         <v>21</v>
       </c>
       <c r="C319" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D319" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E319">
         <v>0</v>
@@ -8800,20 +10007,23 @@
       <c r="G319">
         <v>0</v>
       </c>
-    </row>
-    <row r="320" spans="1:7">
+      <c r="H319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8">
       <c r="A320">
         <f t="shared" si="4"/>
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C320" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D320" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E320">
         <v>1</v>
@@ -8824,8 +10034,11 @@
       <c r="G320">
         <v>0</v>
       </c>
-    </row>
-    <row r="321" spans="1:7">
+      <c r="H320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8">
       <c r="A321">
         <f t="shared" si="4"/>
         <v>320</v>
@@ -8834,11 +10047,11 @@
         <v>10</v>
       </c>
       <c r="C321" t="s">
+        <v>609</v>
+      </c>
+      <c r="D321" t="s">
         <v>610</v>
       </c>
-      <c r="D321" t="s">
-        <v>611</v>
-      </c>
       <c r="E321">
         <v>0</v>
       </c>
@@ -8848,8 +10061,11 @@
       <c r="G321">
         <v>1</v>
       </c>
-    </row>
-    <row r="322" spans="1:7">
+      <c r="H321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8">
       <c r="A322">
         <f t="shared" si="4"/>
         <v>321</v>
@@ -8858,11 +10074,11 @@
         <v>33</v>
       </c>
       <c r="C322" t="s">
+        <v>431</v>
+      </c>
+      <c r="D322" t="s">
         <v>432</v>
       </c>
-      <c r="D322" t="s">
-        <v>433</v>
-      </c>
       <c r="E322">
         <v>1</v>
       </c>
@@ -8872,14 +10088,17 @@
       <c r="G322">
         <v>1</v>
       </c>
-    </row>
-    <row r="323" spans="1:7">
+      <c r="H322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8">
       <c r="A323">
         <f t="shared" si="4"/>
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E323">
         <v>0</v>
@@ -8890,20 +10109,23 @@
       <c r="G323">
         <v>0</v>
       </c>
-    </row>
-    <row r="324" spans="1:7">
+      <c r="H323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8">
       <c r="A324">
         <f t="shared" ref="A324:A351" si="5">A323+1</f>
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C324" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D324" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E324">
         <v>0</v>
@@ -8914,21 +10136,24 @@
       <c r="G324">
         <v>0</v>
       </c>
-    </row>
-    <row r="325" spans="1:7">
+      <c r="H324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8">
       <c r="A325">
         <f t="shared" si="5"/>
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C325" t="s">
+        <v>433</v>
+      </c>
+      <c r="D325" t="s">
         <v>434</v>
       </c>
-      <c r="D325" t="s">
-        <v>435</v>
-      </c>
       <c r="E325">
         <v>1</v>
       </c>
@@ -8938,21 +10163,24 @@
       <c r="G325">
         <v>1</v>
       </c>
-    </row>
-    <row r="326" spans="1:7">
+      <c r="H325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8">
       <c r="A326">
         <f t="shared" si="5"/>
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C326" t="s">
+        <v>611</v>
+      </c>
+      <c r="D326" t="s">
         <v>612</v>
       </c>
-      <c r="D326" t="s">
-        <v>613</v>
-      </c>
       <c r="E326">
         <v>0</v>
       </c>
@@ -8962,21 +10190,24 @@
       <c r="G326">
         <v>0</v>
       </c>
-    </row>
-    <row r="327" spans="1:7">
+      <c r="H326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8">
       <c r="A327">
         <f t="shared" si="5"/>
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C327" t="s">
+        <v>435</v>
+      </c>
+      <c r="D327" t="s">
         <v>436</v>
       </c>
-      <c r="D327" t="s">
-        <v>437</v>
-      </c>
       <c r="E327">
         <v>1</v>
       </c>
@@ -8986,14 +10217,17 @@
       <c r="G327">
         <v>0</v>
       </c>
-    </row>
-    <row r="328" spans="1:7">
+      <c r="H327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8">
       <c r="A328">
         <f t="shared" si="5"/>
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E328">
         <v>0</v>
@@ -9004,14 +10238,17 @@
       <c r="G328">
         <v>0</v>
       </c>
-    </row>
-    <row r="329" spans="1:7">
+      <c r="H328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8">
       <c r="A329">
         <f t="shared" si="5"/>
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E329">
         <v>0</v>
@@ -9022,21 +10259,24 @@
       <c r="G329">
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="1:7">
+      <c r="H329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8">
       <c r="A330">
         <f t="shared" si="5"/>
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C330" t="s">
+        <v>437</v>
+      </c>
+      <c r="D330" t="s">
         <v>438</v>
       </c>
-      <c r="D330" t="s">
-        <v>439</v>
-      </c>
       <c r="E330">
         <v>1</v>
       </c>
@@ -9046,20 +10286,23 @@
       <c r="G330">
         <v>0</v>
       </c>
-    </row>
-    <row r="331" spans="1:7">
+      <c r="H330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8">
       <c r="A331">
         <f t="shared" si="5"/>
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C331" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D331" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E331">
         <v>0</v>
@@ -9070,8 +10313,11 @@
       <c r="G331">
         <v>1</v>
       </c>
-    </row>
-    <row r="332" spans="1:7">
+      <c r="H331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8">
       <c r="A332">
         <f t="shared" si="5"/>
         <v>331</v>
@@ -9080,10 +10326,10 @@
         <v>66</v>
       </c>
       <c r="C332" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D332" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E332">
         <v>1</v>
@@ -9094,8 +10340,11 @@
       <c r="G332">
         <v>1</v>
       </c>
-    </row>
-    <row r="333" spans="1:7">
+      <c r="H332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8">
       <c r="A333">
         <f t="shared" si="5"/>
         <v>332</v>
@@ -9104,11 +10353,11 @@
         <v>57</v>
       </c>
       <c r="C333" t="s">
+        <v>440</v>
+      </c>
+      <c r="D333" t="s">
         <v>441</v>
       </c>
-      <c r="D333" t="s">
-        <v>442</v>
-      </c>
       <c r="E333">
         <v>1</v>
       </c>
@@ -9118,14 +10367,17 @@
       <c r="G333">
         <v>1</v>
       </c>
-    </row>
-    <row r="334" spans="1:7">
+      <c r="H333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8">
       <c r="A334">
         <f t="shared" si="5"/>
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E334">
         <v>0</v>
@@ -9136,8 +10388,11 @@
       <c r="G334">
         <v>0</v>
       </c>
-    </row>
-    <row r="335" spans="1:7">
+      <c r="H334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8">
       <c r="A335">
         <f t="shared" si="5"/>
         <v>334</v>
@@ -9146,10 +10401,10 @@
         <v>34</v>
       </c>
       <c r="C335" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D335" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E335">
         <v>0</v>
@@ -9160,14 +10415,17 @@
       <c r="G335">
         <v>1</v>
       </c>
-    </row>
-    <row r="336" spans="1:7">
+      <c r="H335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8">
       <c r="A336">
         <f t="shared" si="5"/>
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E336">
         <v>0</v>
@@ -9178,8 +10436,11 @@
       <c r="G336">
         <v>0</v>
       </c>
-    </row>
-    <row r="337" spans="1:7">
+      <c r="H336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8">
       <c r="A337">
         <f t="shared" si="5"/>
         <v>336</v>
@@ -9188,11 +10449,11 @@
         <v>35</v>
       </c>
       <c r="C337" t="s">
+        <v>614</v>
+      </c>
+      <c r="D337" t="s">
         <v>615</v>
       </c>
-      <c r="D337" t="s">
-        <v>616</v>
-      </c>
       <c r="E337">
         <v>0</v>
       </c>
@@ -9202,14 +10463,17 @@
       <c r="G337">
         <v>1</v>
       </c>
-    </row>
-    <row r="338" spans="1:7">
+      <c r="H337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8">
       <c r="A338">
         <f t="shared" si="5"/>
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E338">
         <v>0</v>
@@ -9220,8 +10484,11 @@
       <c r="G338">
         <v>0</v>
       </c>
-    </row>
-    <row r="339" spans="1:7">
+      <c r="H338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8">
       <c r="A339">
         <f t="shared" si="5"/>
         <v>338</v>
@@ -9230,10 +10497,10 @@
         <v>79</v>
       </c>
       <c r="C339" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D339" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E339">
         <v>0</v>
@@ -9244,8 +10511,11 @@
       <c r="G339">
         <v>0</v>
       </c>
-    </row>
-    <row r="340" spans="1:7">
+      <c r="H339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8">
       <c r="A340">
         <f t="shared" si="5"/>
         <v>339</v>
@@ -9254,11 +10524,11 @@
         <v>109</v>
       </c>
       <c r="C340" t="s">
+        <v>442</v>
+      </c>
+      <c r="D340" t="s">
         <v>443</v>
       </c>
-      <c r="D340" t="s">
-        <v>444</v>
-      </c>
       <c r="E340">
         <v>1</v>
       </c>
@@ -9268,14 +10538,17 @@
       <c r="G340">
         <v>1</v>
       </c>
-    </row>
-    <row r="341" spans="1:7">
+      <c r="H340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8">
       <c r="A341">
         <f t="shared" si="5"/>
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E341">
         <v>0</v>
@@ -9286,14 +10559,17 @@
       <c r="G341">
         <v>0</v>
       </c>
-    </row>
-    <row r="342" spans="1:7">
+      <c r="H341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8">
       <c r="A342">
         <f t="shared" si="5"/>
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E342">
         <v>0</v>
@@ -9304,14 +10580,23 @@
       <c r="G342">
         <v>0</v>
       </c>
-    </row>
-    <row r="343" spans="1:7">
+      <c r="H342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8">
       <c r="A343">
         <f t="shared" si="5"/>
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>142</v>
+        <v>141</v>
+      </c>
+      <c r="C343" t="s">
+        <v>651</v>
+      </c>
+      <c r="D343" t="s">
+        <v>652</v>
       </c>
       <c r="E343">
         <v>0</v>
@@ -9322,14 +10607,17 @@
       <c r="G343">
         <v>0</v>
       </c>
-    </row>
-    <row r="344" spans="1:7">
+      <c r="H343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8">
       <c r="A344">
         <f t="shared" si="5"/>
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E344">
         <v>0</v>
@@ -9340,20 +10628,23 @@
       <c r="G344">
         <v>0</v>
       </c>
-    </row>
-    <row r="345" spans="1:7">
+      <c r="H344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8">
       <c r="A345">
         <f t="shared" si="5"/>
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C345" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D345" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E345">
         <v>1</v>
@@ -9364,8 +10655,11 @@
       <c r="G345">
         <v>1</v>
       </c>
-    </row>
-    <row r="346" spans="1:7">
+      <c r="H345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8">
       <c r="A346">
         <f t="shared" si="5"/>
         <v>345</v>
@@ -9374,10 +10668,10 @@
         <v>89</v>
       </c>
       <c r="C346" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D346" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E346">
         <v>0</v>
@@ -9388,21 +10682,24 @@
       <c r="G346">
         <v>1</v>
       </c>
-    </row>
-    <row r="347" spans="1:7">
+      <c r="H346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8">
       <c r="A347">
         <f t="shared" si="5"/>
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C347" t="s">
+        <v>445</v>
+      </c>
+      <c r="D347" t="s">
         <v>446</v>
       </c>
-      <c r="D347" t="s">
-        <v>447</v>
-      </c>
       <c r="E347">
         <v>1</v>
       </c>
@@ -9412,14 +10709,23 @@
       <c r="G347">
         <v>0</v>
       </c>
-    </row>
-    <row r="348" spans="1:7">
+      <c r="H347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8">
       <c r="A348">
         <f t="shared" si="5"/>
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>149</v>
+        <v>148</v>
+      </c>
+      <c r="C348" t="s">
+        <v>640</v>
+      </c>
+      <c r="D348" t="s">
+        <v>641</v>
       </c>
       <c r="E348">
         <v>0</v>
@@ -9430,8 +10736,11 @@
       <c r="G348">
         <v>0</v>
       </c>
-    </row>
-    <row r="349" spans="1:7">
+      <c r="H348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8">
       <c r="A349">
         <f t="shared" si="5"/>
         <v>348</v>
@@ -9440,11 +10749,11 @@
         <v>67</v>
       </c>
       <c r="C349" t="s">
+        <v>447</v>
+      </c>
+      <c r="D349" t="s">
         <v>448</v>
       </c>
-      <c r="D349" t="s">
-        <v>449</v>
-      </c>
       <c r="E349">
         <v>1</v>
       </c>
@@ -9454,21 +10763,24 @@
       <c r="G349">
         <v>1</v>
       </c>
-    </row>
-    <row r="350" spans="1:7">
+      <c r="H349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8">
       <c r="A350">
         <f t="shared" si="5"/>
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C350" t="s">
+        <v>511</v>
+      </c>
+      <c r="D350" t="s">
         <v>512</v>
       </c>
-      <c r="D350" t="s">
-        <v>513</v>
-      </c>
       <c r="E350">
         <v>0</v>
       </c>
@@ -9478,14 +10790,17 @@
       <c r="G350">
         <v>0</v>
       </c>
-    </row>
-    <row r="351" spans="1:7">
+      <c r="H350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8">
       <c r="A351">
         <f t="shared" si="5"/>
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E351">
         <v>0</v>
@@ -9496,16 +10811,20 @@
       <c r="G351">
         <v>0</v>
       </c>
-    </row>
-    <row r="352" spans="1:7">
+      <c r="H351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8">
       <c r="F352" s="2"/>
-      <c r="G352" s="2">
-        <f>SUM(G2:G351)</f>
+      <c r="G352" s="2"/>
+      <c r="H352" s="2">
+        <f>SUM(H2:H351)</f>
         <v>68</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G352"/>
+  <autoFilter ref="H1:H352" xr:uid="{9C676CEE-F29D-45FB-9A9D-7CAA5C31CE68}"/>
   <sortState ref="B1:B351">
     <sortCondition ref="B1"/>
   </sortState>

--- a/scripts/teamInfo_perm.xlsx
+++ b/scripts/teamInfo_perm.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alan\Documents\GitHub\march_madness_auction\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E72658-936A-4128-A590-74B99C124E53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27FFED3-A625-4345-A109-BEAFA0F6951F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21915" yWindow="-18090" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$K$1:$K$1000</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$352</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="732">
   <si>
     <t>team_id</t>
   </si>
@@ -2188,13 +2188,55 @@
   </si>
   <si>
     <t>Youngstown State University</t>
+  </si>
+  <si>
+    <t>in_2022</t>
+  </si>
+  <si>
+    <t>#AD9841</t>
+  </si>
+  <si>
+    <t>#1E4D2B</t>
+  </si>
+  <si>
+    <t>#003F7F</t>
+  </si>
+  <si>
+    <t>#003C71</t>
+  </si>
+  <si>
+    <t>#FFD200</t>
+  </si>
+  <si>
+    <t>#00543C</t>
+  </si>
+  <si>
+    <t>USF.png</t>
+  </si>
+  <si>
+    <t>UDel.png</t>
+  </si>
+  <si>
+    <t>StPetes.png</t>
+  </si>
+  <si>
+    <t>MontSt.png</t>
+  </si>
+  <si>
+    <t>Longwood.png</t>
+  </si>
+  <si>
+    <t>CSU.png</t>
+  </si>
+  <si>
+    <t>Bryant.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2209,15 +2251,23 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arimo"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2240,7 +2290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2249,8 +2299,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2566,10 +2617,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:K1000"/>
+  <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2582,7 +2633,7 @@
     <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2616,8 +2667,11 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="5" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" hidden="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2651,8 +2705,11 @@
       <c r="K2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" hidden="1">
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" hidden="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2682,8 +2739,11 @@
       <c r="K3" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" hidden="1">
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" hidden="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2713,8 +2773,11 @@
       <c r="K4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" hidden="1">
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" hidden="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2744,8 +2807,11 @@
       <c r="K5" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" hidden="1">
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" hidden="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2775,8 +2841,11 @@
       <c r="K6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" hidden="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2810,8 +2879,11 @@
       <c r="K7" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" hidden="1">
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" hidden="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2845,8 +2917,11 @@
       <c r="K8" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" hidden="1">
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" hidden="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2876,8 +2951,11 @@
       <c r="K9" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" hidden="1">
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2911,8 +2989,11 @@
       <c r="K10" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" hidden="1">
+      <c r="L10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" hidden="1">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2946,8 +3027,11 @@
       <c r="K11" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" hidden="1">
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" hidden="1">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2977,8 +3061,11 @@
       <c r="K12" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -3012,8 +3099,11 @@
       <c r="K13" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" hidden="1">
+      <c r="L13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" hidden="1">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -3047,8 +3137,11 @@
       <c r="K14" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" hidden="1">
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" hidden="1">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -3078,8 +3171,11 @@
       <c r="K15" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" hidden="1">
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" hidden="1">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -3109,8 +3205,11 @@
       <c r="K16" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" hidden="1">
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -3120,7 +3219,7 @@
       <c r="C17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E17">
@@ -3144,8 +3243,11 @@
       <c r="K17" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" hidden="1">
+      <c r="L17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" hidden="1">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -3175,8 +3277,11 @@
       <c r="K18" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" hidden="1">
+      <c r="L18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" hidden="1">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -3206,8 +3311,11 @@
       <c r="K19" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" hidden="1">
+      <c r="L19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" hidden="1">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -3237,8 +3345,11 @@
       <c r="K20" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -3272,8 +3383,11 @@
       <c r="K21" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -3307,8 +3421,11 @@
       <c r="K22" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -3338,16 +3455,23 @@
       <c r="K23" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1">
       <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
+      <c r="C24" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>719</v>
+      </c>
       <c r="E24">
         <v>0</v>
       </c>
@@ -3369,8 +3493,11 @@
       <c r="K24" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L24" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -3404,8 +3531,11 @@
       <c r="K25" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L25" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -3439,8 +3569,11 @@
       <c r="K26" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L26" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -3470,8 +3603,11 @@
       <c r="K27" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -3505,8 +3641,11 @@
       <c r="K28" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -3540,8 +3679,11 @@
       <c r="K29" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" customHeight="1">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -3575,8 +3717,11 @@
       <c r="K30" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L30" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -3610,8 +3755,11 @@
       <c r="K31" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L31" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -3641,8 +3789,11 @@
       <c r="K32" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L32" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -3672,8 +3823,11 @@
       <c r="K33" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L33" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -3703,8 +3857,11 @@
       <c r="K34" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L34" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -3734,8 +3891,11 @@
       <c r="K35" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L35" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -3765,8 +3925,11 @@
       <c r="K36" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L36" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -3796,8 +3959,11 @@
       <c r="K37" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L37" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -3827,8 +3993,11 @@
       <c r="K38" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L38" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -3858,8 +4027,11 @@
       <c r="K39" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L39" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -3893,8 +4065,11 @@
       <c r="K40" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L40" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -3928,8 +4103,11 @@
       <c r="K41" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L41" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -3963,8 +4141,11 @@
       <c r="K42" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L42" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" customHeight="1">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -3998,8 +4179,11 @@
       <c r="K43" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L43" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -4033,8 +4217,11 @@
       <c r="K44" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L44" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -4068,8 +4255,11 @@
       <c r="K45" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L45" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -4099,16 +4289,23 @@
       <c r="K46" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L46" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="15.75" customHeight="1">
       <c r="A47" s="3">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
+      <c r="C47" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>720</v>
+      </c>
       <c r="E47">
         <v>0</v>
       </c>
@@ -4130,8 +4327,11 @@
       <c r="K47" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L47" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -4161,8 +4361,11 @@
       <c r="K48" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L48" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -4192,8 +4395,11 @@
       <c r="K49" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L49" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -4223,8 +4429,11 @@
       <c r="K50" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L50" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="15.75" customHeight="1">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -4234,7 +4443,7 @@
       <c r="C51" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="8" t="s">
         <v>106</v>
       </c>
       <c r="E51">
@@ -4258,8 +4467,11 @@
       <c r="K51" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L51" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -4289,8 +4501,11 @@
       <c r="K52" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L52" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="15.75" customHeight="1">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -4324,8 +4539,11 @@
       <c r="K53" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L53" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -4355,8 +4573,11 @@
       <c r="K54" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L54" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -4386,8 +4607,11 @@
       <c r="K55" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L55" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -4421,8 +4645,11 @@
       <c r="K56" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L56" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -4456,8 +4683,11 @@
       <c r="K57" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L57" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="15.75" customHeight="1">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -4491,8 +4721,11 @@
       <c r="K58" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L58" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -4522,8 +4755,11 @@
       <c r="K59" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L59" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -4553,8 +4789,11 @@
       <c r="K60" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L60" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -4588,8 +4827,11 @@
       <c r="K61" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L61" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -4619,8 +4861,11 @@
       <c r="K62" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L62" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -4650,8 +4895,11 @@
       <c r="K63" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L63" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -4681,8 +4929,11 @@
       <c r="K64" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L64" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -4716,8 +4967,11 @@
       <c r="K65" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L65" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -4747,8 +5001,11 @@
       <c r="K66" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L66" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -4778,8 +5035,11 @@
       <c r="K67" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L67" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -4813,8 +5073,11 @@
       <c r="K68" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L68" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -4844,8 +5107,11 @@
       <c r="K69" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L69" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -4875,8 +5141,11 @@
       <c r="K70" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L70" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -4910,8 +5179,11 @@
       <c r="K71" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L71" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -4941,8 +5213,11 @@
       <c r="K72" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L72" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -4976,8 +5251,11 @@
       <c r="K73" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L73" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -5007,8 +5285,11 @@
       <c r="K74" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L74" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -5042,8 +5323,11 @@
       <c r="K75" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L75" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -5077,8 +5361,11 @@
       <c r="K76" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L76" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -5108,8 +5395,11 @@
       <c r="K77" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L77" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -5139,8 +5429,11 @@
       <c r="K78" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L78" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -5174,8 +5467,11 @@
       <c r="K79" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L79" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -5209,8 +5505,11 @@
       <c r="K80" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L80" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -5240,8 +5539,11 @@
       <c r="K81" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L81" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="15.75" customHeight="1">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -5275,8 +5577,11 @@
       <c r="K82" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L82" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="15.75" customHeight="1">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -5310,8 +5615,11 @@
       <c r="K83" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L83" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -5341,8 +5649,11 @@
       <c r="K84" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L84" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -5376,8 +5687,11 @@
       <c r="K85" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L85" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -5411,8 +5725,11 @@
       <c r="K86" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L86" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -5446,8 +5763,11 @@
       <c r="K87" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L87" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -5477,8 +5797,11 @@
       <c r="K88" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L88" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -5512,8 +5835,11 @@
       <c r="K89" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L89" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -5543,8 +5869,11 @@
       <c r="K90" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L90" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -5574,8 +5903,11 @@
       <c r="K91" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L91" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -5605,8 +5937,11 @@
       <c r="K92" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L92" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -5640,8 +5975,11 @@
       <c r="K93" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L93" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -5671,8 +6009,11 @@
       <c r="K94" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L94" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -5702,8 +6043,11 @@
       <c r="K95" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L95" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -5733,8 +6077,11 @@
       <c r="K96" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L96" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="15.75" customHeight="1">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -5768,8 +6115,11 @@
       <c r="K97" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L97" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -5803,8 +6153,11 @@
       <c r="K98" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L98" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="15.75" customHeight="1">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -5838,8 +6191,11 @@
       <c r="K99" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L99" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -5873,8 +6229,11 @@
       <c r="K100" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L100" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="15.75" customHeight="1">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -5908,8 +6267,11 @@
       <c r="K101" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L101" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -5939,8 +6301,11 @@
       <c r="K102" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L102" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -5970,8 +6335,11 @@
       <c r="K103" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L103" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -6005,8 +6373,11 @@
       <c r="K104" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L104" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -6036,8 +6407,11 @@
       <c r="K105" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L105" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -6071,8 +6445,11 @@
       <c r="K106" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L106" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -6102,8 +6479,11 @@
       <c r="K107" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L107" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -6137,8 +6517,11 @@
       <c r="K108" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L108" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -6168,8 +6551,11 @@
       <c r="K109" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L109" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -6199,8 +6585,11 @@
       <c r="K110" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L110" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -6234,8 +6623,11 @@
       <c r="K111" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L111" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -6269,8 +6661,11 @@
       <c r="K112" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L112" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -6304,16 +6699,23 @@
       <c r="K113" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L113" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="15.75" customHeight="1">
       <c r="A114" s="3">
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C114" s="5"/>
-      <c r="D114" s="5"/>
+      <c r="C114" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="E114">
         <v>0</v>
       </c>
@@ -6335,8 +6737,11 @@
       <c r="K114" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L114" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="15.75" customHeight="1">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -6370,8 +6775,11 @@
       <c r="K115" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L115" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -6401,8 +6809,11 @@
       <c r="K116" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L116" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -6432,8 +6843,11 @@
       <c r="K117" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L117" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="15.75" customHeight="1">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -6467,8 +6881,11 @@
       <c r="K118" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L118" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -6498,8 +6915,11 @@
       <c r="K119" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L119" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -6533,8 +6953,11 @@
       <c r="K120" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L120" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -6564,8 +6987,11 @@
       <c r="K121" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L121" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="15.75" customHeight="1">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -6599,8 +7025,11 @@
       <c r="K122" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L122" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -6634,8 +7063,11 @@
       <c r="K123" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L123" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -6665,8 +7097,11 @@
       <c r="K124" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L124" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -6696,8 +7131,11 @@
       <c r="K125" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L125" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A126" s="3">
         <v>125</v>
       </c>
@@ -6727,8 +7165,11 @@
       <c r="K126" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L126" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="15.75" customHeight="1">
       <c r="A127" s="3">
         <v>126</v>
       </c>
@@ -6762,8 +7203,11 @@
       <c r="K127" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L127" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A128" s="3">
         <v>127</v>
       </c>
@@ -6797,8 +7241,11 @@
       <c r="K128" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L128" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -6832,8 +7279,11 @@
       <c r="K129" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L129" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -6863,8 +7313,11 @@
       <c r="K130" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L130" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -6894,8 +7347,11 @@
       <c r="K131" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L131" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -6929,16 +7385,23 @@
       <c r="K132" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L132" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" ht="15.75" customHeight="1">
       <c r="A133" s="3">
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C133" s="5"/>
-      <c r="D133" s="5"/>
+      <c r="C133" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>721</v>
+      </c>
       <c r="E133">
         <v>0</v>
       </c>
@@ -6960,8 +7423,11 @@
       <c r="K133" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L133" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A134" s="3">
         <v>133</v>
       </c>
@@ -6995,8 +7461,11 @@
       <c r="K134" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L134" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A135" s="3">
         <v>134</v>
       </c>
@@ -7026,8 +7495,11 @@
       <c r="K135" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L135" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A136" s="3">
         <v>135</v>
       </c>
@@ -7061,8 +7533,11 @@
       <c r="K136" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L136" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" ht="15.75" customHeight="1">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -7096,8 +7571,11 @@
       <c r="K137" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L137" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A138" s="3">
         <v>137</v>
       </c>
@@ -7127,8 +7605,11 @@
       <c r="K138" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L138" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" ht="15.75" customHeight="1">
       <c r="A139" s="3">
         <v>138</v>
       </c>
@@ -7162,8 +7643,11 @@
       <c r="K139" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L139" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A140" s="3">
         <v>139</v>
       </c>
@@ -7193,8 +7677,11 @@
       <c r="K140" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L140" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -7224,12 +7711,15 @@
       <c r="K141" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L141" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" ht="15.75" customHeight="1">
       <c r="A142" s="3">
         <v>141</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B142" s="8" t="s">
         <v>281</v>
       </c>
       <c r="C142" s="1" t="s">
@@ -7259,8 +7749,11 @@
       <c r="K142" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L142" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -7290,8 +7783,11 @@
       <c r="K143" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L143" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A144" s="3">
         <v>143</v>
       </c>
@@ -7325,8 +7821,11 @@
       <c r="K144" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L144" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -7360,8 +7859,11 @@
       <c r="K145" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L145" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -7395,8 +7897,11 @@
       <c r="K146" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L146" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -7430,8 +7935,11 @@
       <c r="K147" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L147" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -7461,8 +7969,11 @@
       <c r="K148" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L148" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -7492,8 +8003,11 @@
       <c r="K149" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L149" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -7527,8 +8041,11 @@
       <c r="K150" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L150" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -7558,8 +8075,11 @@
       <c r="K151" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L151" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -7593,8 +8113,11 @@
       <c r="K152" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L152" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -7624,8 +8147,11 @@
       <c r="K153" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L153" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" ht="15.75" customHeight="1">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -7659,8 +8185,11 @@
       <c r="K154" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L154" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A155" s="3">
         <v>154</v>
       </c>
@@ -7694,8 +8223,11 @@
       <c r="K155" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L155" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A156" s="3">
         <v>155</v>
       </c>
@@ -7729,8 +8261,11 @@
       <c r="K156" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L156" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A157" s="3">
         <v>156</v>
       </c>
@@ -7764,8 +8299,11 @@
       <c r="K157" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L157" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A158" s="3">
         <v>157</v>
       </c>
@@ -7799,8 +8337,11 @@
       <c r="K158" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L158" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A159" s="3">
         <v>158</v>
       </c>
@@ -7834,8 +8375,11 @@
       <c r="K159" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L159" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A160" s="3">
         <v>159</v>
       </c>
@@ -7869,8 +8413,11 @@
       <c r="K160" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L160" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A161" s="3">
         <v>160</v>
       </c>
@@ -7900,8 +8447,11 @@
       <c r="K161" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L161" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A162" s="3">
         <v>161</v>
       </c>
@@ -7931,8 +8481,11 @@
       <c r="K162" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L162" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A163" s="3">
         <v>162</v>
       </c>
@@ -7966,8 +8519,11 @@
       <c r="K163" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L163" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A164" s="3">
         <v>163</v>
       </c>
@@ -7997,8 +8553,11 @@
       <c r="K164" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L164" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A165" s="3">
         <v>164</v>
       </c>
@@ -8032,8 +8591,11 @@
       <c r="K165" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L165" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" ht="15.75" customHeight="1">
       <c r="A166" s="3">
         <v>165</v>
       </c>
@@ -8067,8 +8629,11 @@
       <c r="K166" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L166" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" ht="15.75" customHeight="1">
       <c r="A167" s="3">
         <v>166</v>
       </c>
@@ -8102,8 +8667,11 @@
       <c r="K167" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L167" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A168" s="3">
         <v>167</v>
       </c>
@@ -8133,8 +8701,11 @@
       <c r="K168" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L168" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A169" s="3">
         <v>168</v>
       </c>
@@ -8168,8 +8739,11 @@
       <c r="K169" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L169" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A170" s="3">
         <v>169</v>
       </c>
@@ -8199,8 +8773,11 @@
       <c r="K170" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L170" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A171" s="3">
         <v>170</v>
       </c>
@@ -8230,8 +8807,11 @@
       <c r="K171" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L171" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A172" s="3">
         <v>171</v>
       </c>
@@ -8265,8 +8845,11 @@
       <c r="K172" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L172" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" ht="15.75" customHeight="1">
       <c r="A173" s="3">
         <v>172</v>
       </c>
@@ -8300,8 +8883,11 @@
       <c r="K173" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L173" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A174" s="3">
         <v>173</v>
       </c>
@@ -8331,8 +8917,11 @@
       <c r="K174" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L174" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A175" s="3">
         <v>174</v>
       </c>
@@ -8366,8 +8955,11 @@
       <c r="K175" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L175" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A176" s="3">
         <v>175</v>
       </c>
@@ -8401,8 +8993,11 @@
       <c r="K176" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L176" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A177" s="3">
         <v>176</v>
       </c>
@@ -8436,8 +9031,11 @@
       <c r="K177" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L177" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" ht="15.75" customHeight="1">
       <c r="A178" s="3">
         <v>177</v>
       </c>
@@ -8471,16 +9069,23 @@
       <c r="K178" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L178" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" ht="15.75" customHeight="1">
       <c r="A179" s="3">
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C179" s="5"/>
-      <c r="D179" s="5"/>
+      <c r="C179" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>722</v>
+      </c>
       <c r="E179">
         <v>0</v>
       </c>
@@ -8502,8 +9107,11 @@
       <c r="K179" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L179" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A180" s="3">
         <v>179</v>
       </c>
@@ -8533,8 +9141,11 @@
       <c r="K180" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L180" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A181" s="3">
         <v>180</v>
       </c>
@@ -8564,8 +9175,11 @@
       <c r="K181" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L181" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" ht="15.75" customHeight="1">
       <c r="A182" s="3">
         <v>181</v>
       </c>
@@ -8575,7 +9189,7 @@
       <c r="C182" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="D182" s="1" t="s">
+      <c r="D182" s="8" t="s">
         <v>59</v>
       </c>
       <c r="E182">
@@ -8599,8 +9213,11 @@
       <c r="K182" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L182" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A183" s="3">
         <v>182</v>
       </c>
@@ -8630,8 +9247,11 @@
       <c r="K183" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L183" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A184" s="3">
         <v>183</v>
       </c>
@@ -8661,8 +9281,11 @@
       <c r="K184" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L184" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A185" s="3">
         <v>184</v>
       </c>
@@ -8692,8 +9315,11 @@
       <c r="K185" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L185" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" ht="15.75" customHeight="1">
       <c r="A186" s="3">
         <v>185</v>
       </c>
@@ -8727,8 +9353,11 @@
       <c r="K186" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L186" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A187" s="3">
         <v>186</v>
       </c>
@@ -8762,8 +9391,11 @@
       <c r="K187" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L187" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A188" s="3">
         <v>187</v>
       </c>
@@ -8793,8 +9425,11 @@
       <c r="K188" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L188" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" ht="15.75" customHeight="1">
       <c r="A189" s="3">
         <v>188</v>
       </c>
@@ -8828,8 +9463,11 @@
       <c r="K189" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L189" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A190" s="3">
         <v>189</v>
       </c>
@@ -8859,8 +9497,11 @@
       <c r="K190" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L190" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A191" s="3">
         <v>190</v>
       </c>
@@ -8894,8 +9535,11 @@
       <c r="K191" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L191" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A192" s="3">
         <v>191</v>
       </c>
@@ -8925,8 +9569,11 @@
       <c r="K192" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L192" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A193" s="3">
         <v>192</v>
       </c>
@@ -8956,8 +9603,11 @@
       <c r="K193" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L193" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A194" s="3">
         <v>193</v>
       </c>
@@ -8991,8 +9641,11 @@
       <c r="K194" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L194" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A195" s="3">
         <v>194</v>
       </c>
@@ -9026,8 +9679,11 @@
       <c r="K195" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L195" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A196" s="3">
         <v>195</v>
       </c>
@@ -9057,8 +9713,11 @@
       <c r="K196" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L196" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A197" s="3">
         <v>196</v>
       </c>
@@ -9092,8 +9751,11 @@
       <c r="K197" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L197" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A198" s="3">
         <v>197</v>
       </c>
@@ -9123,8 +9785,11 @@
       <c r="K198" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L198" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A199" s="3">
         <v>198</v>
       </c>
@@ -9158,8 +9823,11 @@
       <c r="K199" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L199" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A200" s="3">
         <v>199</v>
       </c>
@@ -9193,8 +9861,11 @@
       <c r="K200" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L200" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A201" s="3">
         <v>200</v>
       </c>
@@ -9228,8 +9899,11 @@
       <c r="K201" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L201" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A202" s="3">
         <v>201</v>
       </c>
@@ -9259,8 +9933,11 @@
       <c r="K202" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L202" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A203" s="3">
         <v>202</v>
       </c>
@@ -9294,8 +9971,11 @@
       <c r="K203" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L203" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A204" s="3">
         <v>203</v>
       </c>
@@ -9329,8 +10009,11 @@
       <c r="K204" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L204" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A205" s="3">
         <v>204</v>
       </c>
@@ -9364,8 +10047,11 @@
       <c r="K205" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L205" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A206" s="3">
         <v>205</v>
       </c>
@@ -9395,8 +10081,11 @@
       <c r="K206" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L206" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A207" s="3">
         <v>206</v>
       </c>
@@ -9426,8 +10115,11 @@
       <c r="K207" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L207" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A208" s="3">
         <v>207</v>
       </c>
@@ -9461,8 +10153,11 @@
       <c r="K208" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L208" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" ht="15.75" customHeight="1">
       <c r="A209" s="3">
         <v>208</v>
       </c>
@@ -9496,8 +10191,11 @@
       <c r="K209" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L209" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" ht="15.75" customHeight="1">
       <c r="A210" s="3">
         <v>209</v>
       </c>
@@ -9531,8 +10229,11 @@
       <c r="K210" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L210" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" ht="15.75" customHeight="1">
       <c r="A211" s="3">
         <v>210</v>
       </c>
@@ -9566,8 +10267,11 @@
       <c r="K211" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L211" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A212" s="3">
         <v>211</v>
       </c>
@@ -9601,8 +10305,11 @@
       <c r="K212" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L212" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" ht="15.75" customHeight="1">
       <c r="A213" s="3">
         <v>212</v>
       </c>
@@ -9636,8 +10343,11 @@
       <c r="K213" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="214" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L213" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A214" s="3">
         <v>213</v>
       </c>
@@ -9667,8 +10377,11 @@
       <c r="K214" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L214" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A215" s="3">
         <v>214</v>
       </c>
@@ -9698,8 +10411,11 @@
       <c r="K215" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L215" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A216" s="3">
         <v>215</v>
       </c>
@@ -9733,8 +10449,11 @@
       <c r="K216" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L216" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A217" s="3">
         <v>216</v>
       </c>
@@ -9764,8 +10483,11 @@
       <c r="K217" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L217" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A218" s="3">
         <v>217</v>
       </c>
@@ -9795,8 +10517,11 @@
       <c r="K218" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L218" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A219" s="3">
         <v>218</v>
       </c>
@@ -9826,8 +10551,11 @@
       <c r="K219" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L219" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A220" s="3">
         <v>219</v>
       </c>
@@ -9857,8 +10585,11 @@
       <c r="K220" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L220" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A221" s="3">
         <v>220</v>
       </c>
@@ -9892,8 +10623,11 @@
       <c r="K221" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L221" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A222" s="3">
         <v>221</v>
       </c>
@@ -9927,8 +10661,11 @@
       <c r="K222" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L222" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" ht="15.75" customHeight="1">
       <c r="A223" s="3">
         <v>222</v>
       </c>
@@ -9962,8 +10699,11 @@
       <c r="K223" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L223" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" ht="15.75" customHeight="1">
       <c r="A224" s="3">
         <v>223</v>
       </c>
@@ -9997,8 +10737,11 @@
       <c r="K224" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="225" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L224" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" ht="15.75" customHeight="1">
       <c r="A225" s="3">
         <v>224</v>
       </c>
@@ -10032,8 +10775,11 @@
       <c r="K225" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L225" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" ht="15.75" customHeight="1">
       <c r="A226" s="3">
         <v>225</v>
       </c>
@@ -10067,8 +10813,11 @@
       <c r="K226" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L226" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" ht="15.75" customHeight="1">
       <c r="A227" s="3">
         <v>226</v>
       </c>
@@ -10102,8 +10851,11 @@
       <c r="K227" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L227" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A228" s="3">
         <v>227</v>
       </c>
@@ -10137,8 +10889,11 @@
       <c r="K228" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L228" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A229" s="3">
         <v>228</v>
       </c>
@@ -10168,8 +10923,11 @@
       <c r="K229" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L229" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A230" s="3">
         <v>229</v>
       </c>
@@ -10203,8 +10961,11 @@
       <c r="K230" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L230" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A231" s="3">
         <v>230</v>
       </c>
@@ -10238,8 +10999,11 @@
       <c r="K231" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L231" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A232" s="3">
         <v>231</v>
       </c>
@@ -10273,8 +11037,11 @@
       <c r="K232" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L232" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" ht="15.75" customHeight="1">
       <c r="A233" s="3">
         <v>232</v>
       </c>
@@ -10308,8 +11075,11 @@
       <c r="K233" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="234" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L233" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A234" s="3">
         <v>233</v>
       </c>
@@ -10339,8 +11109,11 @@
       <c r="K234" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L234" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A235" s="3">
         <v>234</v>
       </c>
@@ -10374,8 +11147,11 @@
       <c r="K235" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="236" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L235" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A236" s="3">
         <v>235</v>
       </c>
@@ -10405,8 +11181,11 @@
       <c r="K236" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L236" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A237" s="3">
         <v>236</v>
       </c>
@@ -10440,8 +11219,11 @@
       <c r="K237" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L237" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A238" s="3">
         <v>237</v>
       </c>
@@ -10475,8 +11257,11 @@
       <c r="K238" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L238" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A239" s="3">
         <v>238</v>
       </c>
@@ -10510,8 +11295,11 @@
       <c r="K239" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="240" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L239" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" ht="15.75" customHeight="1">
       <c r="A240" s="3">
         <v>239</v>
       </c>
@@ -10545,8 +11333,11 @@
       <c r="K240" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="241" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L240" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A241" s="3">
         <v>240</v>
       </c>
@@ -10580,16 +11371,23 @@
       <c r="K241" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L241" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" ht="15.75" customHeight="1">
       <c r="A242" s="3">
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="C242" s="5"/>
-      <c r="D242" s="5"/>
+      <c r="C242" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="D242" s="5" t="s">
+        <v>723</v>
+      </c>
       <c r="E242">
         <v>0</v>
       </c>
@@ -10611,8 +11409,11 @@
       <c r="K242" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L242" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A243" s="3">
         <v>242</v>
       </c>
@@ -10642,8 +11443,11 @@
       <c r="K243" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L243" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A244" s="3">
         <v>243</v>
       </c>
@@ -10673,8 +11477,11 @@
       <c r="K244" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L244" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A245" s="3">
         <v>244</v>
       </c>
@@ -10704,8 +11511,11 @@
       <c r="K245" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L245" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A246" s="3">
         <v>245</v>
       </c>
@@ -10739,8 +11549,11 @@
       <c r="K246" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="247" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L246" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A247" s="3">
         <v>246</v>
       </c>
@@ -10774,8 +11587,11 @@
       <c r="K247" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L247" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A248" s="3">
         <v>247</v>
       </c>
@@ -10809,8 +11625,11 @@
       <c r="K248" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="249" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L248" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A249" s="3">
         <v>248</v>
       </c>
@@ -10844,8 +11663,11 @@
       <c r="K249" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L249" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" ht="15.75" customHeight="1">
       <c r="A250" s="3">
         <v>249</v>
       </c>
@@ -10879,8 +11701,11 @@
       <c r="K250" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="251" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L250" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A251" s="3">
         <v>250</v>
       </c>
@@ -10910,8 +11735,11 @@
       <c r="K251" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L251" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A252" s="3">
         <v>251</v>
       </c>
@@ -10941,8 +11769,11 @@
       <c r="K252" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L252" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" ht="15.75" customHeight="1">
       <c r="A253" s="3">
         <v>252</v>
       </c>
@@ -10976,8 +11807,11 @@
       <c r="K253" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="254" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L253" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" ht="15.75" customHeight="1">
       <c r="A254" s="3">
         <v>253</v>
       </c>
@@ -11011,8 +11845,11 @@
       <c r="K254" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="255" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L254" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" ht="15.75" customHeight="1">
       <c r="A255" s="3">
         <v>254</v>
       </c>
@@ -11046,8 +11883,11 @@
       <c r="K255" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="256" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L255" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" ht="15.75" customHeight="1">
       <c r="A256" s="3">
         <v>255</v>
       </c>
@@ -11081,8 +11921,11 @@
       <c r="K256" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L256" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A257" s="3">
         <v>256</v>
       </c>
@@ -11112,8 +11955,11 @@
       <c r="K257" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L257" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A258" s="3">
         <v>257</v>
       </c>
@@ -11147,8 +11993,11 @@
       <c r="K258" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L258" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A259" s="3">
         <v>258</v>
       </c>
@@ -11182,8 +12031,11 @@
       <c r="K259" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L259" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A260" s="3">
         <v>259</v>
       </c>
@@ -11213,8 +12065,11 @@
       <c r="K260" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L260" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A261" s="3">
         <v>260</v>
       </c>
@@ -11244,8 +12099,11 @@
       <c r="K261" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L261" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A262" s="3">
         <v>261</v>
       </c>
@@ -11279,8 +12137,11 @@
       <c r="K262" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L262" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A263" s="3">
         <v>262</v>
       </c>
@@ -11314,8 +12175,11 @@
       <c r="K263" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="264" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L263" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A264" s="3">
         <v>263</v>
       </c>
@@ -11345,8 +12209,11 @@
       <c r="K264" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L264" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A265" s="3">
         <v>264</v>
       </c>
@@ -11376,8 +12243,11 @@
       <c r="K265" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L265" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" ht="15.75" customHeight="1">
       <c r="A266" s="3">
         <v>265</v>
       </c>
@@ -11411,8 +12281,11 @@
       <c r="K266" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L266" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" ht="15.75" customHeight="1">
       <c r="A267" s="3">
         <v>266</v>
       </c>
@@ -11446,8 +12319,11 @@
       <c r="K267" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L267" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" ht="15.75" customHeight="1">
       <c r="A268" s="3">
         <v>267</v>
       </c>
@@ -11481,8 +12357,11 @@
       <c r="K268" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="269" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L268" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A269" s="3">
         <v>268</v>
       </c>
@@ -11516,8 +12395,11 @@
       <c r="K269" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L269" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A270" s="3">
         <v>269</v>
       </c>
@@ -11551,8 +12433,11 @@
       <c r="K270" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L270" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A271" s="3">
         <v>270</v>
       </c>
@@ -11586,8 +12471,11 @@
       <c r="K271" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="272" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L271" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A272" s="3">
         <v>271</v>
       </c>
@@ -11617,8 +12505,11 @@
       <c r="K272" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L272" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A273" s="3">
         <v>272</v>
       </c>
@@ -11652,8 +12543,11 @@
       <c r="K273" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L273" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A274" s="3">
         <v>273</v>
       </c>
@@ -11687,8 +12581,11 @@
       <c r="K274" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L274" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A275" s="3">
         <v>274</v>
       </c>
@@ -11722,8 +12619,11 @@
       <c r="K275" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L275" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A276" s="3">
         <v>275</v>
       </c>
@@ -11753,8 +12653,11 @@
       <c r="K276" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L276" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A277" s="3">
         <v>276</v>
       </c>
@@ -11788,8 +12691,11 @@
       <c r="K277" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L277" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A278" s="3">
         <v>277</v>
       </c>
@@ -11819,8 +12725,11 @@
       <c r="K278" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L278" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A279" s="3">
         <v>278</v>
       </c>
@@ -11850,8 +12759,11 @@
       <c r="K279" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L279" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A280" s="3">
         <v>279</v>
       </c>
@@ -11885,8 +12797,11 @@
       <c r="K280" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L280" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A281" s="3">
         <v>280</v>
       </c>
@@ -11920,8 +12835,11 @@
       <c r="K281" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L281" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" ht="15.75" customHeight="1">
       <c r="A282" s="3">
         <v>281</v>
       </c>
@@ -11955,8 +12873,11 @@
       <c r="K282" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="283" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L282" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A283" s="3">
         <v>282</v>
       </c>
@@ -11986,8 +12907,11 @@
       <c r="K283" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L283" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A284" s="3">
         <v>283</v>
       </c>
@@ -12021,8 +12945,11 @@
       <c r="K284" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="285" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L284" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A285" s="3">
         <v>284</v>
       </c>
@@ -12056,8 +12983,11 @@
       <c r="K285" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L285" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A286" s="3">
         <v>285</v>
       </c>
@@ -12091,8 +13021,11 @@
       <c r="K286" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L286" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A287" s="3">
         <v>286</v>
       </c>
@@ -12126,8 +13059,11 @@
       <c r="K287" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L287" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A288" s="3">
         <v>287</v>
       </c>
@@ -12161,8 +13097,11 @@
       <c r="K288" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="289" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L288" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A289" s="3">
         <v>288</v>
       </c>
@@ -12192,8 +13131,11 @@
       <c r="K289" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L289" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A290" s="3">
         <v>289</v>
       </c>
@@ -12227,8 +13169,11 @@
       <c r="K290" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L290" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" ht="15.75" customHeight="1">
       <c r="A291" s="3">
         <v>290</v>
       </c>
@@ -12262,8 +13207,11 @@
       <c r="K291" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L291" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A292" s="3">
         <v>291</v>
       </c>
@@ -12297,8 +13245,11 @@
       <c r="K292" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="293" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L292" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A293" s="3">
         <v>292</v>
       </c>
@@ -12332,8 +13283,11 @@
       <c r="K293" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="294" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L293" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A294" s="3">
         <v>293</v>
       </c>
@@ -12367,8 +13321,11 @@
       <c r="K294" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L294" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A295" s="3">
         <v>294</v>
       </c>
@@ -12402,8 +13359,11 @@
       <c r="K295" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L295" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A296" s="3">
         <v>295</v>
       </c>
@@ -12433,8 +13393,11 @@
       <c r="K296" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L296" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A297" s="3">
         <v>296</v>
       </c>
@@ -12468,8 +13431,11 @@
       <c r="K297" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L297" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12" ht="15.75" customHeight="1">
       <c r="A298" s="3">
         <v>297</v>
       </c>
@@ -12503,8 +13469,11 @@
       <c r="K298" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L298" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A299" s="3">
         <v>298</v>
       </c>
@@ -12534,16 +13503,23 @@
       <c r="K299" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L299" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12" ht="15.75" customHeight="1">
       <c r="A300" s="3">
         <v>299</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="C300" s="5"/>
-      <c r="D300" s="5"/>
+      <c r="C300" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="D300" s="5" t="s">
+        <v>724</v>
+      </c>
       <c r="E300">
         <v>0</v>
       </c>
@@ -12565,8 +13541,11 @@
       <c r="K300" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L300" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A301" s="3">
         <v>300</v>
       </c>
@@ -12596,8 +13575,11 @@
       <c r="K301" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L301" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A302" s="3">
         <v>301</v>
       </c>
@@ -12631,8 +13613,11 @@
       <c r="K302" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="303" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L302" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A303" s="3">
         <v>302</v>
       </c>
@@ -12662,8 +13647,11 @@
       <c r="K303" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L303" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A304" s="3">
         <v>303</v>
       </c>
@@ -12697,8 +13685,11 @@
       <c r="K304" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L304" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A305" s="3">
         <v>304</v>
       </c>
@@ -12728,8 +13719,11 @@
       <c r="K305" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L305" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12" ht="15.75" customHeight="1">
       <c r="A306" s="3">
         <v>305</v>
       </c>
@@ -12763,8 +13757,11 @@
       <c r="K306" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="307" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L306" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A307" s="3">
         <v>306</v>
       </c>
@@ -12794,8 +13791,11 @@
       <c r="K307" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="308" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L307" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:12" ht="15.75" customHeight="1">
       <c r="A308" s="3">
         <v>307</v>
       </c>
@@ -12829,8 +13829,11 @@
       <c r="K308" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="309" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L308" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:12" ht="15.75" customHeight="1">
       <c r="A309" s="3">
         <v>308</v>
       </c>
@@ -12864,8 +13867,11 @@
       <c r="K309" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L309" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A310" s="3">
         <v>309</v>
       </c>
@@ -12895,8 +13901,11 @@
       <c r="K310" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="311" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L310" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A311" s="3">
         <v>310</v>
       </c>
@@ -12930,8 +13939,11 @@
       <c r="K311" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="312" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L311" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12" ht="15.75" customHeight="1">
       <c r="A312" s="3">
         <v>311</v>
       </c>
@@ -12965,8 +13977,11 @@
       <c r="K312" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="313" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L312" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A313" s="3">
         <v>312</v>
       </c>
@@ -12996,8 +14011,11 @@
       <c r="K313" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="314" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L313" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A314" s="3">
         <v>313</v>
       </c>
@@ -13027,8 +14045,11 @@
       <c r="K314" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L314" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A315" s="3">
         <v>314</v>
       </c>
@@ -13058,8 +14079,11 @@
       <c r="K315" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="316" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L315" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A316" s="3">
         <v>315</v>
       </c>
@@ -13089,8 +14113,11 @@
       <c r="K316" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L316" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A317" s="3">
         <v>316</v>
       </c>
@@ -13120,8 +14147,11 @@
       <c r="K317" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="318" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L317" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A318" s="3">
         <v>317</v>
       </c>
@@ -13151,8 +14181,11 @@
       <c r="K318" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="319" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L318" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A319" s="3">
         <v>318</v>
       </c>
@@ -13186,8 +14219,11 @@
       <c r="K319" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="320" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L319" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A320" s="3">
         <v>319</v>
       </c>
@@ -13221,8 +14257,11 @@
       <c r="K320" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="321" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L320" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12" ht="15.75" customHeight="1">
       <c r="A321" s="3">
         <v>320</v>
       </c>
@@ -13256,8 +14295,11 @@
       <c r="K321" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="322" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L321" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A322" s="3">
         <v>321</v>
       </c>
@@ -13291,8 +14333,11 @@
       <c r="K322" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="323" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L322" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A323" s="3">
         <v>322</v>
       </c>
@@ -13326,8 +14371,11 @@
       <c r="K323" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="324" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L323" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A324" s="3">
         <v>323</v>
       </c>
@@ -13361,8 +14409,11 @@
       <c r="K324" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="325" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L324" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12" ht="15.75" customHeight="1">
       <c r="A325" s="3">
         <v>324</v>
       </c>
@@ -13396,8 +14447,11 @@
       <c r="K325" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="326" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L325" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A326" s="3">
         <v>325</v>
       </c>
@@ -13431,8 +14485,11 @@
       <c r="K326" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="327" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L326" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:12" ht="15.75" customHeight="1">
       <c r="A327" s="3">
         <v>326</v>
       </c>
@@ -13466,8 +14523,11 @@
       <c r="K327" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="328" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L327" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A328" s="3">
         <v>327</v>
       </c>
@@ -13501,8 +14561,11 @@
       <c r="K328" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="329" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L328" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A329" s="3">
         <v>328</v>
       </c>
@@ -13532,8 +14595,11 @@
       <c r="K329" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L329" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A330" s="3">
         <v>329</v>
       </c>
@@ -13567,8 +14633,11 @@
       <c r="K330" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="331" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L330" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A331" s="3">
         <v>330</v>
       </c>
@@ -13602,8 +14671,11 @@
       <c r="K331" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L331" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:12" ht="15.75" customHeight="1">
       <c r="A332" s="3">
         <v>331</v>
       </c>
@@ -13637,8 +14709,11 @@
       <c r="K332" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="333" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L332" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A333" s="3">
         <v>332</v>
       </c>
@@ -13672,8 +14747,11 @@
       <c r="K333" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="334" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L333" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A334" s="3">
         <v>333</v>
       </c>
@@ -13703,8 +14781,11 @@
       <c r="K334" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="335" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L334" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:12" ht="15.75" customHeight="1">
       <c r="A335" s="3">
         <v>334</v>
       </c>
@@ -13738,8 +14819,11 @@
       <c r="K335" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="336" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L335" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A336" s="3">
         <v>335</v>
       </c>
@@ -13769,8 +14853,11 @@
       <c r="K336" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="337" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L336" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A337" s="3">
         <v>336</v>
       </c>
@@ -13804,8 +14891,11 @@
       <c r="K337" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="338" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L337" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A338" s="3">
         <v>337</v>
       </c>
@@ -13835,8 +14925,11 @@
       <c r="K338" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="339" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L338" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A339" s="3">
         <v>338</v>
       </c>
@@ -13870,8 +14963,11 @@
       <c r="K339" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="340" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L339" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A340" s="3">
         <v>339</v>
       </c>
@@ -13905,8 +15001,11 @@
       <c r="K340" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="341" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L340" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A341" s="3">
         <v>340</v>
       </c>
@@ -13936,8 +15035,11 @@
       <c r="K341" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="342" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L341" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A342" s="3">
         <v>341</v>
       </c>
@@ -13967,8 +15069,11 @@
       <c r="K342" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="343" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L342" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A343" s="3">
         <v>342</v>
       </c>
@@ -14002,8 +15107,11 @@
       <c r="K343" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="344" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L343" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A344" s="3">
         <v>343</v>
       </c>
@@ -14033,8 +15141,11 @@
       <c r="K344" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="345" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L344" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A345" s="3">
         <v>344</v>
       </c>
@@ -14068,8 +15179,11 @@
       <c r="K345" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="346" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L345" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A346" s="3">
         <v>345</v>
       </c>
@@ -14103,8 +15217,11 @@
       <c r="K346" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="347" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L346" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A347" s="3">
         <v>346</v>
       </c>
@@ -14138,8 +15255,11 @@
       <c r="K347" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="348" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L347" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:12" ht="15.75" customHeight="1">
       <c r="A348" s="3">
         <v>347</v>
       </c>
@@ -14173,8 +15293,11 @@
       <c r="K348" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="349" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L348" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A349" s="3">
         <v>348</v>
       </c>
@@ -14208,8 +15331,11 @@
       <c r="K349" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="350" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L349" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:12" ht="15.75" customHeight="1">
       <c r="A350" s="3">
         <v>349</v>
       </c>
@@ -14243,8 +15369,11 @@
       <c r="K350" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="351" spans="1:11" ht="15.75" hidden="1" customHeight="1">
+      <c r="L350" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:12" ht="15.75" hidden="1" customHeight="1">
       <c r="A351">
         <f>A350+1</f>
         <v>350</v>
@@ -14273,1990 +15402,1997 @@
       <c r="K351" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="352" spans="1:11" ht="15.75" hidden="1" customHeight="1">
-      <c r="E352" s="7">
-        <f t="shared" ref="E352:K352" si="0">SUM(E2:E351)</f>
+      <c r="L351" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:12" ht="15.75" hidden="1" customHeight="1">
+      <c r="E352" s="6">
+        <f t="shared" ref="E352:L352" si="0">SUM(E2:E351)</f>
         <v>68</v>
       </c>
-      <c r="F352" s="7">
+      <c r="F352" s="6">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="G352" s="7">
+      <c r="G352" s="6">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="H352" s="7">
+      <c r="H352" s="6">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="I352" s="7">
+      <c r="I352" s="6">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="J352" s="7">
+      <c r="J352" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K352" s="7">
+      <c r="K352" s="6">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-    </row>
-    <row r="353" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+      <c r="L352" s="6">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="353" spans="9:9" ht="15.75" customHeight="1">
       <c r="I353" s="5"/>
     </row>
-    <row r="354" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="354" spans="9:9" ht="15.75" customHeight="1">
       <c r="I354" s="5"/>
     </row>
-    <row r="355" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="355" spans="9:9" ht="15.75" customHeight="1">
       <c r="I355" s="5"/>
     </row>
-    <row r="356" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="356" spans="9:9" ht="15.75" customHeight="1">
       <c r="I356" s="5"/>
     </row>
-    <row r="357" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="357" spans="9:9" ht="15.75" customHeight="1">
       <c r="I357" s="5"/>
     </row>
-    <row r="358" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="358" spans="9:9" ht="15.75" customHeight="1">
       <c r="I358" s="5"/>
     </row>
-    <row r="359" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="359" spans="9:9" ht="15.75" customHeight="1">
       <c r="I359" s="5"/>
     </row>
-    <row r="360" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="360" spans="9:9" ht="15.75" customHeight="1">
       <c r="I360" s="5"/>
     </row>
-    <row r="361" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="361" spans="9:9" ht="15.75" customHeight="1">
       <c r="I361" s="5"/>
     </row>
-    <row r="362" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="362" spans="9:9" ht="15.75" customHeight="1">
       <c r="I362" s="5"/>
     </row>
-    <row r="363" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="363" spans="9:9" ht="15.75" customHeight="1">
       <c r="I363" s="5"/>
     </row>
-    <row r="364" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="364" spans="9:9" ht="15.75" customHeight="1">
       <c r="I364" s="5"/>
     </row>
-    <row r="365" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="365" spans="9:9" ht="15.75" customHeight="1">
       <c r="I365" s="5"/>
     </row>
-    <row r="366" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="366" spans="9:9" ht="15.75" customHeight="1">
       <c r="I366" s="5"/>
     </row>
-    <row r="367" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="367" spans="9:9" ht="15.75" customHeight="1">
       <c r="I367" s="5"/>
     </row>
-    <row r="368" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="368" spans="9:9" ht="15.75" customHeight="1">
       <c r="I368" s="5"/>
     </row>
-    <row r="369" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="369" spans="9:9" ht="15.75" customHeight="1">
       <c r="I369" s="5"/>
     </row>
-    <row r="370" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="370" spans="9:9" ht="15.75" customHeight="1">
       <c r="I370" s="5"/>
     </row>
-    <row r="371" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="371" spans="9:9" ht="15.75" customHeight="1">
       <c r="I371" s="5"/>
     </row>
-    <row r="372" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="372" spans="9:9" ht="15.75" customHeight="1">
       <c r="I372" s="5"/>
     </row>
-    <row r="373" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="373" spans="9:9" ht="15.75" customHeight="1">
       <c r="I373" s="5"/>
     </row>
-    <row r="374" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="374" spans="9:9" ht="15.75" customHeight="1">
       <c r="I374" s="5"/>
     </row>
-    <row r="375" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="375" spans="9:9" ht="15.75" customHeight="1">
       <c r="I375" s="5"/>
     </row>
-    <row r="376" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="376" spans="9:9" ht="15.75" customHeight="1">
       <c r="I376" s="5"/>
     </row>
-    <row r="377" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="377" spans="9:9" ht="15.75" customHeight="1">
       <c r="I377" s="5"/>
     </row>
-    <row r="378" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="378" spans="9:9" ht="15.75" customHeight="1">
       <c r="I378" s="5"/>
     </row>
-    <row r="379" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="379" spans="9:9" ht="15.75" customHeight="1">
       <c r="I379" s="5"/>
     </row>
-    <row r="380" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="380" spans="9:9" ht="15.75" customHeight="1">
       <c r="I380" s="5"/>
     </row>
-    <row r="381" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="381" spans="9:9" ht="15.75" customHeight="1">
       <c r="I381" s="5"/>
     </row>
-    <row r="382" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="382" spans="9:9" ht="15.75" customHeight="1">
       <c r="I382" s="5"/>
     </row>
-    <row r="383" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="383" spans="9:9" ht="15.75" customHeight="1">
       <c r="I383" s="5"/>
     </row>
-    <row r="384" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="384" spans="9:9" ht="15.75" customHeight="1">
       <c r="I384" s="5"/>
     </row>
-    <row r="385" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="385" spans="9:9" ht="15.75" customHeight="1">
       <c r="I385" s="5"/>
     </row>
-    <row r="386" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="386" spans="9:9" ht="15.75" customHeight="1">
       <c r="I386" s="5"/>
     </row>
-    <row r="387" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="387" spans="9:9" ht="15.75" customHeight="1">
       <c r="I387" s="5"/>
     </row>
-    <row r="388" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="388" spans="9:9" ht="15.75" customHeight="1">
       <c r="I388" s="5"/>
     </row>
-    <row r="389" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="389" spans="9:9" ht="15.75" customHeight="1">
       <c r="I389" s="5"/>
     </row>
-    <row r="390" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="390" spans="9:9" ht="15.75" customHeight="1">
       <c r="I390" s="5"/>
     </row>
-    <row r="391" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="391" spans="9:9" ht="15.75" customHeight="1">
       <c r="I391" s="5"/>
     </row>
-    <row r="392" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="392" spans="9:9" ht="15.75" customHeight="1">
       <c r="I392" s="5"/>
     </row>
-    <row r="393" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="393" spans="9:9" ht="15.75" customHeight="1">
       <c r="I393" s="5"/>
     </row>
-    <row r="394" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="394" spans="9:9" ht="15.75" customHeight="1">
       <c r="I394" s="5"/>
     </row>
-    <row r="395" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="395" spans="9:9" ht="15.75" customHeight="1">
       <c r="I395" s="5"/>
     </row>
-    <row r="396" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="396" spans="9:9" ht="15.75" customHeight="1">
       <c r="I396" s="5"/>
     </row>
-    <row r="397" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="397" spans="9:9" ht="15.75" customHeight="1">
       <c r="I397" s="5"/>
     </row>
-    <row r="398" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="398" spans="9:9" ht="15.75" customHeight="1">
       <c r="I398" s="5"/>
     </row>
-    <row r="399" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="399" spans="9:9" ht="15.75" customHeight="1">
       <c r="I399" s="5"/>
     </row>
-    <row r="400" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="400" spans="9:9" ht="15.75" customHeight="1">
       <c r="I400" s="5"/>
     </row>
-    <row r="401" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="401" spans="9:9" ht="15.75" customHeight="1">
       <c r="I401" s="5"/>
     </row>
-    <row r="402" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="402" spans="9:9" ht="15.75" customHeight="1">
       <c r="I402" s="5"/>
     </row>
-    <row r="403" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="403" spans="9:9" ht="15.75" customHeight="1">
       <c r="I403" s="5"/>
     </row>
-    <row r="404" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="404" spans="9:9" ht="15.75" customHeight="1">
       <c r="I404" s="5"/>
     </row>
-    <row r="405" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="405" spans="9:9" ht="15.75" customHeight="1">
       <c r="I405" s="5"/>
     </row>
-    <row r="406" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="406" spans="9:9" ht="15.75" customHeight="1">
       <c r="I406" s="5"/>
     </row>
-    <row r="407" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="407" spans="9:9" ht="15.75" customHeight="1">
       <c r="I407" s="5"/>
     </row>
-    <row r="408" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="408" spans="9:9" ht="15.75" customHeight="1">
       <c r="I408" s="5"/>
     </row>
-    <row r="409" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="409" spans="9:9" ht="15.75" customHeight="1">
       <c r="I409" s="5"/>
     </row>
-    <row r="410" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="410" spans="9:9" ht="15.75" customHeight="1">
       <c r="I410" s="5"/>
     </row>
-    <row r="411" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="411" spans="9:9" ht="15.75" customHeight="1">
       <c r="I411" s="5"/>
     </row>
-    <row r="412" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="412" spans="9:9" ht="15.75" customHeight="1">
       <c r="I412" s="5"/>
     </row>
-    <row r="413" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="413" spans="9:9" ht="15.75" customHeight="1">
       <c r="I413" s="5"/>
     </row>
-    <row r="414" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="414" spans="9:9" ht="15.75" customHeight="1">
       <c r="I414" s="5"/>
     </row>
-    <row r="415" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="415" spans="9:9" ht="15.75" customHeight="1">
       <c r="I415" s="5"/>
     </row>
-    <row r="416" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="416" spans="9:9" ht="15.75" customHeight="1">
       <c r="I416" s="5"/>
     </row>
-    <row r="417" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="417" spans="9:9" ht="15.75" customHeight="1">
       <c r="I417" s="5"/>
     </row>
-    <row r="418" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="418" spans="9:9" ht="15.75" customHeight="1">
       <c r="I418" s="5"/>
     </row>
-    <row r="419" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="419" spans="9:9" ht="15.75" customHeight="1">
       <c r="I419" s="5"/>
     </row>
-    <row r="420" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="420" spans="9:9" ht="15.75" customHeight="1">
       <c r="I420" s="5"/>
     </row>
-    <row r="421" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="421" spans="9:9" ht="15.75" customHeight="1">
       <c r="I421" s="5"/>
     </row>
-    <row r="422" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="422" spans="9:9" ht="15.75" customHeight="1">
       <c r="I422" s="5"/>
     </row>
-    <row r="423" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="423" spans="9:9" ht="15.75" customHeight="1">
       <c r="I423" s="5"/>
     </row>
-    <row r="424" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="424" spans="9:9" ht="15.75" customHeight="1">
       <c r="I424" s="5"/>
     </row>
-    <row r="425" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="425" spans="9:9" ht="15.75" customHeight="1">
       <c r="I425" s="5"/>
     </row>
-    <row r="426" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="426" spans="9:9" ht="15.75" customHeight="1">
       <c r="I426" s="5"/>
     </row>
-    <row r="427" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="427" spans="9:9" ht="15.75" customHeight="1">
       <c r="I427" s="5"/>
     </row>
-    <row r="428" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="428" spans="9:9" ht="15.75" customHeight="1">
       <c r="I428" s="5"/>
     </row>
-    <row r="429" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="429" spans="9:9" ht="15.75" customHeight="1">
       <c r="I429" s="5"/>
     </row>
-    <row r="430" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="430" spans="9:9" ht="15.75" customHeight="1">
       <c r="I430" s="5"/>
     </row>
-    <row r="431" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="431" spans="9:9" ht="15.75" customHeight="1">
       <c r="I431" s="5"/>
     </row>
-    <row r="432" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="432" spans="9:9" ht="15.75" customHeight="1">
       <c r="I432" s="5"/>
     </row>
-    <row r="433" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="433" spans="9:9" ht="15.75" customHeight="1">
       <c r="I433" s="5"/>
     </row>
-    <row r="434" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="434" spans="9:9" ht="15.75" customHeight="1">
       <c r="I434" s="5"/>
     </row>
-    <row r="435" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="435" spans="9:9" ht="15.75" customHeight="1">
       <c r="I435" s="5"/>
     </row>
-    <row r="436" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="436" spans="9:9" ht="15.75" customHeight="1">
       <c r="I436" s="5"/>
     </row>
-    <row r="437" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="437" spans="9:9" ht="15.75" customHeight="1">
       <c r="I437" s="5"/>
     </row>
-    <row r="438" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="438" spans="9:9" ht="15.75" customHeight="1">
       <c r="I438" s="5"/>
     </row>
-    <row r="439" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="439" spans="9:9" ht="15.75" customHeight="1">
       <c r="I439" s="5"/>
     </row>
-    <row r="440" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="440" spans="9:9" ht="15.75" customHeight="1">
       <c r="I440" s="5"/>
     </row>
-    <row r="441" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="441" spans="9:9" ht="15.75" customHeight="1">
       <c r="I441" s="5"/>
     </row>
-    <row r="442" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="442" spans="9:9" ht="15.75" customHeight="1">
       <c r="I442" s="5"/>
     </row>
-    <row r="443" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="443" spans="9:9" ht="15.75" customHeight="1">
       <c r="I443" s="5"/>
     </row>
-    <row r="444" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="444" spans="9:9" ht="15.75" customHeight="1">
       <c r="I444" s="5"/>
     </row>
-    <row r="445" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="445" spans="9:9" ht="15.75" customHeight="1">
       <c r="I445" s="5"/>
     </row>
-    <row r="446" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="446" spans="9:9" ht="15.75" customHeight="1">
       <c r="I446" s="5"/>
     </row>
-    <row r="447" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="447" spans="9:9" ht="15.75" customHeight="1">
       <c r="I447" s="5"/>
     </row>
-    <row r="448" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="448" spans="9:9" ht="15.75" customHeight="1">
       <c r="I448" s="5"/>
     </row>
-    <row r="449" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="449" spans="9:9" ht="15.75" customHeight="1">
       <c r="I449" s="5"/>
     </row>
-    <row r="450" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="450" spans="9:9" ht="15.75" customHeight="1">
       <c r="I450" s="5"/>
     </row>
-    <row r="451" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="451" spans="9:9" ht="15.75" customHeight="1">
       <c r="I451" s="5"/>
     </row>
-    <row r="452" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="452" spans="9:9" ht="15.75" customHeight="1">
       <c r="I452" s="5"/>
     </row>
-    <row r="453" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="453" spans="9:9" ht="15.75" customHeight="1">
       <c r="I453" s="5"/>
     </row>
-    <row r="454" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="454" spans="9:9" ht="15.75" customHeight="1">
       <c r="I454" s="5"/>
     </row>
-    <row r="455" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="455" spans="9:9" ht="15.75" customHeight="1">
       <c r="I455" s="5"/>
     </row>
-    <row r="456" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="456" spans="9:9" ht="15.75" customHeight="1">
       <c r="I456" s="5"/>
     </row>
-    <row r="457" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="457" spans="9:9" ht="15.75" customHeight="1">
       <c r="I457" s="5"/>
     </row>
-    <row r="458" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="458" spans="9:9" ht="15.75" customHeight="1">
       <c r="I458" s="5"/>
     </row>
-    <row r="459" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="459" spans="9:9" ht="15.75" customHeight="1">
       <c r="I459" s="5"/>
     </row>
-    <row r="460" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="460" spans="9:9" ht="15.75" customHeight="1">
       <c r="I460" s="5"/>
     </row>
-    <row r="461" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="461" spans="9:9" ht="15.75" customHeight="1">
       <c r="I461" s="5"/>
     </row>
-    <row r="462" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="462" spans="9:9" ht="15.75" customHeight="1">
       <c r="I462" s="5"/>
     </row>
-    <row r="463" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="463" spans="9:9" ht="15.75" customHeight="1">
       <c r="I463" s="5"/>
     </row>
-    <row r="464" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="464" spans="9:9" ht="15.75" customHeight="1">
       <c r="I464" s="5"/>
     </row>
-    <row r="465" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="465" spans="9:9" ht="15.75" customHeight="1">
       <c r="I465" s="5"/>
     </row>
-    <row r="466" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="466" spans="9:9" ht="15.75" customHeight="1">
       <c r="I466" s="5"/>
     </row>
-    <row r="467" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="467" spans="9:9" ht="15.75" customHeight="1">
       <c r="I467" s="5"/>
     </row>
-    <row r="468" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="468" spans="9:9" ht="15.75" customHeight="1">
       <c r="I468" s="5"/>
     </row>
-    <row r="469" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="469" spans="9:9" ht="15.75" customHeight="1">
       <c r="I469" s="5"/>
     </row>
-    <row r="470" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="470" spans="9:9" ht="15.75" customHeight="1">
       <c r="I470" s="5"/>
     </row>
-    <row r="471" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="471" spans="9:9" ht="15.75" customHeight="1">
       <c r="I471" s="5"/>
     </row>
-    <row r="472" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="472" spans="9:9" ht="15.75" customHeight="1">
       <c r="I472" s="5"/>
     </row>
-    <row r="473" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="473" spans="9:9" ht="15.75" customHeight="1">
       <c r="I473" s="5"/>
     </row>
-    <row r="474" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="474" spans="9:9" ht="15.75" customHeight="1">
       <c r="I474" s="5"/>
     </row>
-    <row r="475" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="475" spans="9:9" ht="15.75" customHeight="1">
       <c r="I475" s="5"/>
     </row>
-    <row r="476" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="476" spans="9:9" ht="15.75" customHeight="1">
       <c r="I476" s="5"/>
     </row>
-    <row r="477" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="477" spans="9:9" ht="15.75" customHeight="1">
       <c r="I477" s="5"/>
     </row>
-    <row r="478" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="478" spans="9:9" ht="15.75" customHeight="1">
       <c r="I478" s="5"/>
     </row>
-    <row r="479" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="479" spans="9:9" ht="15.75" customHeight="1">
       <c r="I479" s="5"/>
     </row>
-    <row r="480" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="480" spans="9:9" ht="15.75" customHeight="1">
       <c r="I480" s="5"/>
     </row>
-    <row r="481" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="481" spans="9:9" ht="15.75" customHeight="1">
       <c r="I481" s="5"/>
     </row>
-    <row r="482" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="482" spans="9:9" ht="15.75" customHeight="1">
       <c r="I482" s="5"/>
     </row>
-    <row r="483" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="483" spans="9:9" ht="15.75" customHeight="1">
       <c r="I483" s="5"/>
     </row>
-    <row r="484" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="484" spans="9:9" ht="15.75" customHeight="1">
       <c r="I484" s="5"/>
     </row>
-    <row r="485" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="485" spans="9:9" ht="15.75" customHeight="1">
       <c r="I485" s="5"/>
     </row>
-    <row r="486" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="486" spans="9:9" ht="15.75" customHeight="1">
       <c r="I486" s="5"/>
     </row>
-    <row r="487" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="487" spans="9:9" ht="15.75" customHeight="1">
       <c r="I487" s="5"/>
     </row>
-    <row r="488" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="488" spans="9:9" ht="15.75" customHeight="1">
       <c r="I488" s="5"/>
     </row>
-    <row r="489" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="489" spans="9:9" ht="15.75" customHeight="1">
       <c r="I489" s="5"/>
     </row>
-    <row r="490" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="490" spans="9:9" ht="15.75" customHeight="1">
       <c r="I490" s="5"/>
     </row>
-    <row r="491" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="491" spans="9:9" ht="15.75" customHeight="1">
       <c r="I491" s="5"/>
     </row>
-    <row r="492" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="492" spans="9:9" ht="15.75" customHeight="1">
       <c r="I492" s="5"/>
     </row>
-    <row r="493" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="493" spans="9:9" ht="15.75" customHeight="1">
       <c r="I493" s="5"/>
     </row>
-    <row r="494" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="494" spans="9:9" ht="15.75" customHeight="1">
       <c r="I494" s="5"/>
     </row>
-    <row r="495" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="495" spans="9:9" ht="15.75" customHeight="1">
       <c r="I495" s="5"/>
     </row>
-    <row r="496" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="496" spans="9:9" ht="15.75" customHeight="1">
       <c r="I496" s="5"/>
     </row>
-    <row r="497" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="497" spans="9:9" ht="15.75" customHeight="1">
       <c r="I497" s="5"/>
     </row>
-    <row r="498" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="498" spans="9:9" ht="15.75" customHeight="1">
       <c r="I498" s="5"/>
     </row>
-    <row r="499" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="499" spans="9:9" ht="15.75" customHeight="1">
       <c r="I499" s="5"/>
     </row>
-    <row r="500" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="500" spans="9:9" ht="15.75" customHeight="1">
       <c r="I500" s="5"/>
     </row>
-    <row r="501" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="501" spans="9:9" ht="15.75" customHeight="1">
       <c r="I501" s="5"/>
     </row>
-    <row r="502" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="502" spans="9:9" ht="15.75" customHeight="1">
       <c r="I502" s="5"/>
     </row>
-    <row r="503" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="503" spans="9:9" ht="15.75" customHeight="1">
       <c r="I503" s="5"/>
     </row>
-    <row r="504" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="504" spans="9:9" ht="15.75" customHeight="1">
       <c r="I504" s="5"/>
     </row>
-    <row r="505" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="505" spans="9:9" ht="15.75" customHeight="1">
       <c r="I505" s="5"/>
     </row>
-    <row r="506" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="506" spans="9:9" ht="15.75" customHeight="1">
       <c r="I506" s="5"/>
     </row>
-    <row r="507" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="507" spans="9:9" ht="15.75" customHeight="1">
       <c r="I507" s="5"/>
     </row>
-    <row r="508" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="508" spans="9:9" ht="15.75" customHeight="1">
       <c r="I508" s="5"/>
     </row>
-    <row r="509" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="509" spans="9:9" ht="15.75" customHeight="1">
       <c r="I509" s="5"/>
     </row>
-    <row r="510" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="510" spans="9:9" ht="15.75" customHeight="1">
       <c r="I510" s="5"/>
     </row>
-    <row r="511" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="511" spans="9:9" ht="15.75" customHeight="1">
       <c r="I511" s="5"/>
     </row>
-    <row r="512" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="512" spans="9:9" ht="15.75" customHeight="1">
       <c r="I512" s="5"/>
     </row>
-    <row r="513" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="513" spans="9:9" ht="15.75" customHeight="1">
       <c r="I513" s="5"/>
     </row>
-    <row r="514" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="514" spans="9:9" ht="15.75" customHeight="1">
       <c r="I514" s="5"/>
     </row>
-    <row r="515" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="515" spans="9:9" ht="15.75" customHeight="1">
       <c r="I515" s="5"/>
     </row>
-    <row r="516" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="516" spans="9:9" ht="15.75" customHeight="1">
       <c r="I516" s="5"/>
     </row>
-    <row r="517" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="517" spans="9:9" ht="15.75" customHeight="1">
       <c r="I517" s="5"/>
     </row>
-    <row r="518" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="518" spans="9:9" ht="15.75" customHeight="1">
       <c r="I518" s="5"/>
     </row>
-    <row r="519" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="519" spans="9:9" ht="15.75" customHeight="1">
       <c r="I519" s="5"/>
     </row>
-    <row r="520" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="520" spans="9:9" ht="15.75" customHeight="1">
       <c r="I520" s="5"/>
     </row>
-    <row r="521" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="521" spans="9:9" ht="15.75" customHeight="1">
       <c r="I521" s="5"/>
     </row>
-    <row r="522" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="522" spans="9:9" ht="15.75" customHeight="1">
       <c r="I522" s="5"/>
     </row>
-    <row r="523" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="523" spans="9:9" ht="15.75" customHeight="1">
       <c r="I523" s="5"/>
     </row>
-    <row r="524" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="524" spans="9:9" ht="15.75" customHeight="1">
       <c r="I524" s="5"/>
     </row>
-    <row r="525" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="525" spans="9:9" ht="15.75" customHeight="1">
       <c r="I525" s="5"/>
     </row>
-    <row r="526" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="526" spans="9:9" ht="15.75" customHeight="1">
       <c r="I526" s="5"/>
     </row>
-    <row r="527" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="527" spans="9:9" ht="15.75" customHeight="1">
       <c r="I527" s="5"/>
     </row>
-    <row r="528" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="528" spans="9:9" ht="15.75" customHeight="1">
       <c r="I528" s="5"/>
     </row>
-    <row r="529" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="529" spans="9:9" ht="15.75" customHeight="1">
       <c r="I529" s="5"/>
     </row>
-    <row r="530" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="530" spans="9:9" ht="15.75" customHeight="1">
       <c r="I530" s="5"/>
     </row>
-    <row r="531" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="531" spans="9:9" ht="15.75" customHeight="1">
       <c r="I531" s="5"/>
     </row>
-    <row r="532" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="532" spans="9:9" ht="15.75" customHeight="1">
       <c r="I532" s="5"/>
     </row>
-    <row r="533" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="533" spans="9:9" ht="15.75" customHeight="1">
       <c r="I533" s="5"/>
     </row>
-    <row r="534" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="534" spans="9:9" ht="15.75" customHeight="1">
       <c r="I534" s="5"/>
     </row>
-    <row r="535" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="535" spans="9:9" ht="15.75" customHeight="1">
       <c r="I535" s="5"/>
     </row>
-    <row r="536" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="536" spans="9:9" ht="15.75" customHeight="1">
       <c r="I536" s="5"/>
     </row>
-    <row r="537" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="537" spans="9:9" ht="15.75" customHeight="1">
       <c r="I537" s="5"/>
     </row>
-    <row r="538" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="538" spans="9:9" ht="15.75" customHeight="1">
       <c r="I538" s="5"/>
     </row>
-    <row r="539" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="539" spans="9:9" ht="15.75" customHeight="1">
       <c r="I539" s="5"/>
     </row>
-    <row r="540" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="540" spans="9:9" ht="15.75" customHeight="1">
       <c r="I540" s="5"/>
     </row>
-    <row r="541" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="541" spans="9:9" ht="15.75" customHeight="1">
       <c r="I541" s="5"/>
     </row>
-    <row r="542" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="542" spans="9:9" ht="15.75" customHeight="1">
       <c r="I542" s="5"/>
     </row>
-    <row r="543" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="543" spans="9:9" ht="15.75" customHeight="1">
       <c r="I543" s="5"/>
     </row>
-    <row r="544" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="544" spans="9:9" ht="15.75" customHeight="1">
       <c r="I544" s="5"/>
     </row>
-    <row r="545" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="545" spans="9:9" ht="15.75" customHeight="1">
       <c r="I545" s="5"/>
     </row>
-    <row r="546" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="546" spans="9:9" ht="15.75" customHeight="1">
       <c r="I546" s="5"/>
     </row>
-    <row r="547" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="547" spans="9:9" ht="15.75" customHeight="1">
       <c r="I547" s="5"/>
     </row>
-    <row r="548" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="548" spans="9:9" ht="15.75" customHeight="1">
       <c r="I548" s="5"/>
     </row>
-    <row r="549" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="549" spans="9:9" ht="15.75" customHeight="1">
       <c r="I549" s="5"/>
     </row>
-    <row r="550" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="550" spans="9:9" ht="15.75" customHeight="1">
       <c r="I550" s="5"/>
     </row>
-    <row r="551" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="551" spans="9:9" ht="15.75" customHeight="1">
       <c r="I551" s="5"/>
     </row>
-    <row r="552" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="552" spans="9:9" ht="15.75" customHeight="1">
       <c r="I552" s="5"/>
     </row>
-    <row r="553" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="553" spans="9:9" ht="15.75" customHeight="1">
       <c r="I553" s="5"/>
     </row>
-    <row r="554" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="554" spans="9:9" ht="15.75" customHeight="1">
       <c r="I554" s="5"/>
     </row>
-    <row r="555" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="555" spans="9:9" ht="15.75" customHeight="1">
       <c r="I555" s="5"/>
     </row>
-    <row r="556" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="556" spans="9:9" ht="15.75" customHeight="1">
       <c r="I556" s="5"/>
     </row>
-    <row r="557" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="557" spans="9:9" ht="15.75" customHeight="1">
       <c r="I557" s="5"/>
     </row>
-    <row r="558" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="558" spans="9:9" ht="15.75" customHeight="1">
       <c r="I558" s="5"/>
     </row>
-    <row r="559" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="559" spans="9:9" ht="15.75" customHeight="1">
       <c r="I559" s="5"/>
     </row>
-    <row r="560" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="560" spans="9:9" ht="15.75" customHeight="1">
       <c r="I560" s="5"/>
     </row>
-    <row r="561" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="561" spans="9:9" ht="15.75" customHeight="1">
       <c r="I561" s="5"/>
     </row>
-    <row r="562" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="562" spans="9:9" ht="15.75" customHeight="1">
       <c r="I562" s="5"/>
     </row>
-    <row r="563" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="563" spans="9:9" ht="15.75" customHeight="1">
       <c r="I563" s="5"/>
     </row>
-    <row r="564" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="564" spans="9:9" ht="15.75" customHeight="1">
       <c r="I564" s="5"/>
     </row>
-    <row r="565" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="565" spans="9:9" ht="15.75" customHeight="1">
       <c r="I565" s="5"/>
     </row>
-    <row r="566" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="566" spans="9:9" ht="15.75" customHeight="1">
       <c r="I566" s="5"/>
     </row>
-    <row r="567" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="567" spans="9:9" ht="15.75" customHeight="1">
       <c r="I567" s="5"/>
     </row>
-    <row r="568" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="568" spans="9:9" ht="15.75" customHeight="1">
       <c r="I568" s="5"/>
     </row>
-    <row r="569" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="569" spans="9:9" ht="15.75" customHeight="1">
       <c r="I569" s="5"/>
     </row>
-    <row r="570" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="570" spans="9:9" ht="15.75" customHeight="1">
       <c r="I570" s="5"/>
     </row>
-    <row r="571" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="571" spans="9:9" ht="15.75" customHeight="1">
       <c r="I571" s="5"/>
     </row>
-    <row r="572" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="572" spans="9:9" ht="15.75" customHeight="1">
       <c r="I572" s="5"/>
     </row>
-    <row r="573" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="573" spans="9:9" ht="15.75" customHeight="1">
       <c r="I573" s="5"/>
     </row>
-    <row r="574" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="574" spans="9:9" ht="15.75" customHeight="1">
       <c r="I574" s="5"/>
     </row>
-    <row r="575" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="575" spans="9:9" ht="15.75" customHeight="1">
       <c r="I575" s="5"/>
     </row>
-    <row r="576" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="576" spans="9:9" ht="15.75" customHeight="1">
       <c r="I576" s="5"/>
     </row>
-    <row r="577" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="577" spans="9:9" ht="15.75" customHeight="1">
       <c r="I577" s="5"/>
     </row>
-    <row r="578" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="578" spans="9:9" ht="15.75" customHeight="1">
       <c r="I578" s="5"/>
     </row>
-    <row r="579" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="579" spans="9:9" ht="15.75" customHeight="1">
       <c r="I579" s="5"/>
     </row>
-    <row r="580" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="580" spans="9:9" ht="15.75" customHeight="1">
       <c r="I580" s="5"/>
     </row>
-    <row r="581" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="581" spans="9:9" ht="15.75" customHeight="1">
       <c r="I581" s="5"/>
     </row>
-    <row r="582" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="582" spans="9:9" ht="15.75" customHeight="1">
       <c r="I582" s="5"/>
     </row>
-    <row r="583" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="583" spans="9:9" ht="15.75" customHeight="1">
       <c r="I583" s="5"/>
     </row>
-    <row r="584" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="584" spans="9:9" ht="15.75" customHeight="1">
       <c r="I584" s="5"/>
     </row>
-    <row r="585" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="585" spans="9:9" ht="15.75" customHeight="1">
       <c r="I585" s="5"/>
     </row>
-    <row r="586" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="586" spans="9:9" ht="15.75" customHeight="1">
       <c r="I586" s="5"/>
     </row>
-    <row r="587" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="587" spans="9:9" ht="15.75" customHeight="1">
       <c r="I587" s="5"/>
     </row>
-    <row r="588" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="588" spans="9:9" ht="15.75" customHeight="1">
       <c r="I588" s="5"/>
     </row>
-    <row r="589" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="589" spans="9:9" ht="15.75" customHeight="1">
       <c r="I589" s="5"/>
     </row>
-    <row r="590" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="590" spans="9:9" ht="15.75" customHeight="1">
       <c r="I590" s="5"/>
     </row>
-    <row r="591" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="591" spans="9:9" ht="15.75" customHeight="1">
       <c r="I591" s="5"/>
     </row>
-    <row r="592" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="592" spans="9:9" ht="15.75" customHeight="1">
       <c r="I592" s="5"/>
     </row>
-    <row r="593" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="593" spans="9:9" ht="15.75" customHeight="1">
       <c r="I593" s="5"/>
     </row>
-    <row r="594" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="594" spans="9:9" ht="15.75" customHeight="1">
       <c r="I594" s="5"/>
     </row>
-    <row r="595" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="595" spans="9:9" ht="15.75" customHeight="1">
       <c r="I595" s="5"/>
     </row>
-    <row r="596" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="596" spans="9:9" ht="15.75" customHeight="1">
       <c r="I596" s="5"/>
     </row>
-    <row r="597" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="597" spans="9:9" ht="15.75" customHeight="1">
       <c r="I597" s="5"/>
     </row>
-    <row r="598" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="598" spans="9:9" ht="15.75" customHeight="1">
       <c r="I598" s="5"/>
     </row>
-    <row r="599" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="599" spans="9:9" ht="15.75" customHeight="1">
       <c r="I599" s="5"/>
     </row>
-    <row r="600" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="600" spans="9:9" ht="15.75" customHeight="1">
       <c r="I600" s="5"/>
     </row>
-    <row r="601" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="601" spans="9:9" ht="15.75" customHeight="1">
       <c r="I601" s="5"/>
     </row>
-    <row r="602" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="602" spans="9:9" ht="15.75" customHeight="1">
       <c r="I602" s="5"/>
     </row>
-    <row r="603" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="603" spans="9:9" ht="15.75" customHeight="1">
       <c r="I603" s="5"/>
     </row>
-    <row r="604" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="604" spans="9:9" ht="15.75" customHeight="1">
       <c r="I604" s="5"/>
     </row>
-    <row r="605" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="605" spans="9:9" ht="15.75" customHeight="1">
       <c r="I605" s="5"/>
     </row>
-    <row r="606" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="606" spans="9:9" ht="15.75" customHeight="1">
       <c r="I606" s="5"/>
     </row>
-    <row r="607" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="607" spans="9:9" ht="15.75" customHeight="1">
       <c r="I607" s="5"/>
     </row>
-    <row r="608" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="608" spans="9:9" ht="15.75" customHeight="1">
       <c r="I608" s="5"/>
     </row>
-    <row r="609" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="609" spans="9:9" ht="15.75" customHeight="1">
       <c r="I609" s="5"/>
     </row>
-    <row r="610" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="610" spans="9:9" ht="15.75" customHeight="1">
       <c r="I610" s="5"/>
     </row>
-    <row r="611" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="611" spans="9:9" ht="15.75" customHeight="1">
       <c r="I611" s="5"/>
     </row>
-    <row r="612" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="612" spans="9:9" ht="15.75" customHeight="1">
       <c r="I612" s="5"/>
     </row>
-    <row r="613" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="613" spans="9:9" ht="15.75" customHeight="1">
       <c r="I613" s="5"/>
     </row>
-    <row r="614" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="614" spans="9:9" ht="15.75" customHeight="1">
       <c r="I614" s="5"/>
     </row>
-    <row r="615" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="615" spans="9:9" ht="15.75" customHeight="1">
       <c r="I615" s="5"/>
     </row>
-    <row r="616" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="616" spans="9:9" ht="15.75" customHeight="1">
       <c r="I616" s="5"/>
     </row>
-    <row r="617" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="617" spans="9:9" ht="15.75" customHeight="1">
       <c r="I617" s="5"/>
     </row>
-    <row r="618" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="618" spans="9:9" ht="15.75" customHeight="1">
       <c r="I618" s="5"/>
     </row>
-    <row r="619" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="619" spans="9:9" ht="15.75" customHeight="1">
       <c r="I619" s="5"/>
     </row>
-    <row r="620" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="620" spans="9:9" ht="15.75" customHeight="1">
       <c r="I620" s="5"/>
     </row>
-    <row r="621" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="621" spans="9:9" ht="15.75" customHeight="1">
       <c r="I621" s="5"/>
     </row>
-    <row r="622" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="622" spans="9:9" ht="15.75" customHeight="1">
       <c r="I622" s="5"/>
     </row>
-    <row r="623" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="623" spans="9:9" ht="15.75" customHeight="1">
       <c r="I623" s="5"/>
     </row>
-    <row r="624" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="624" spans="9:9" ht="15.75" customHeight="1">
       <c r="I624" s="5"/>
     </row>
-    <row r="625" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="625" spans="9:9" ht="15.75" customHeight="1">
       <c r="I625" s="5"/>
     </row>
-    <row r="626" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="626" spans="9:9" ht="15.75" customHeight="1">
       <c r="I626" s="5"/>
     </row>
-    <row r="627" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="627" spans="9:9" ht="15.75" customHeight="1">
       <c r="I627" s="5"/>
     </row>
-    <row r="628" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="628" spans="9:9" ht="15.75" customHeight="1">
       <c r="I628" s="5"/>
     </row>
-    <row r="629" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="629" spans="9:9" ht="15.75" customHeight="1">
       <c r="I629" s="5"/>
     </row>
-    <row r="630" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="630" spans="9:9" ht="15.75" customHeight="1">
       <c r="I630" s="5"/>
     </row>
-    <row r="631" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="631" spans="9:9" ht="15.75" customHeight="1">
       <c r="I631" s="5"/>
     </row>
-    <row r="632" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="632" spans="9:9" ht="15.75" customHeight="1">
       <c r="I632" s="5"/>
     </row>
-    <row r="633" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="633" spans="9:9" ht="15.75" customHeight="1">
       <c r="I633" s="5"/>
     </row>
-    <row r="634" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="634" spans="9:9" ht="15.75" customHeight="1">
       <c r="I634" s="5"/>
     </row>
-    <row r="635" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="635" spans="9:9" ht="15.75" customHeight="1">
       <c r="I635" s="5"/>
     </row>
-    <row r="636" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="636" spans="9:9" ht="15.75" customHeight="1">
       <c r="I636" s="5"/>
     </row>
-    <row r="637" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="637" spans="9:9" ht="15.75" customHeight="1">
       <c r="I637" s="5"/>
     </row>
-    <row r="638" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="638" spans="9:9" ht="15.75" customHeight="1">
       <c r="I638" s="5"/>
     </row>
-    <row r="639" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="639" spans="9:9" ht="15.75" customHeight="1">
       <c r="I639" s="5"/>
     </row>
-    <row r="640" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="640" spans="9:9" ht="15.75" customHeight="1">
       <c r="I640" s="5"/>
     </row>
-    <row r="641" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="641" spans="9:9" ht="15.75" customHeight="1">
       <c r="I641" s="5"/>
     </row>
-    <row r="642" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="642" spans="9:9" ht="15.75" customHeight="1">
       <c r="I642" s="5"/>
     </row>
-    <row r="643" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="643" spans="9:9" ht="15.75" customHeight="1">
       <c r="I643" s="5"/>
     </row>
-    <row r="644" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="644" spans="9:9" ht="15.75" customHeight="1">
       <c r="I644" s="5"/>
     </row>
-    <row r="645" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="645" spans="9:9" ht="15.75" customHeight="1">
       <c r="I645" s="5"/>
     </row>
-    <row r="646" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="646" spans="9:9" ht="15.75" customHeight="1">
       <c r="I646" s="5"/>
     </row>
-    <row r="647" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="647" spans="9:9" ht="15.75" customHeight="1">
       <c r="I647" s="5"/>
     </row>
-    <row r="648" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="648" spans="9:9" ht="15.75" customHeight="1">
       <c r="I648" s="5"/>
     </row>
-    <row r="649" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="649" spans="9:9" ht="15.75" customHeight="1">
       <c r="I649" s="5"/>
     </row>
-    <row r="650" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="650" spans="9:9" ht="15.75" customHeight="1">
       <c r="I650" s="5"/>
     </row>
-    <row r="651" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="651" spans="9:9" ht="15.75" customHeight="1">
       <c r="I651" s="5"/>
     </row>
-    <row r="652" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="652" spans="9:9" ht="15.75" customHeight="1">
       <c r="I652" s="5"/>
     </row>
-    <row r="653" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="653" spans="9:9" ht="15.75" customHeight="1">
       <c r="I653" s="5"/>
     </row>
-    <row r="654" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="654" spans="9:9" ht="15.75" customHeight="1">
       <c r="I654" s="5"/>
     </row>
-    <row r="655" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="655" spans="9:9" ht="15.75" customHeight="1">
       <c r="I655" s="5"/>
     </row>
-    <row r="656" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="656" spans="9:9" ht="15.75" customHeight="1">
       <c r="I656" s="5"/>
     </row>
-    <row r="657" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="657" spans="9:9" ht="15.75" customHeight="1">
       <c r="I657" s="5"/>
     </row>
-    <row r="658" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="658" spans="9:9" ht="15.75" customHeight="1">
       <c r="I658" s="5"/>
     </row>
-    <row r="659" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="659" spans="9:9" ht="15.75" customHeight="1">
       <c r="I659" s="5"/>
     </row>
-    <row r="660" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="660" spans="9:9" ht="15.75" customHeight="1">
       <c r="I660" s="5"/>
     </row>
-    <row r="661" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="661" spans="9:9" ht="15.75" customHeight="1">
       <c r="I661" s="5"/>
     </row>
-    <row r="662" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="662" spans="9:9" ht="15.75" customHeight="1">
       <c r="I662" s="5"/>
     </row>
-    <row r="663" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="663" spans="9:9" ht="15.75" customHeight="1">
       <c r="I663" s="5"/>
     </row>
-    <row r="664" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="664" spans="9:9" ht="15.75" customHeight="1">
       <c r="I664" s="5"/>
     </row>
-    <row r="665" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="665" spans="9:9" ht="15.75" customHeight="1">
       <c r="I665" s="5"/>
     </row>
-    <row r="666" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="666" spans="9:9" ht="15.75" customHeight="1">
       <c r="I666" s="5"/>
     </row>
-    <row r="667" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="667" spans="9:9" ht="15.75" customHeight="1">
       <c r="I667" s="5"/>
     </row>
-    <row r="668" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="668" spans="9:9" ht="15.75" customHeight="1">
       <c r="I668" s="5"/>
     </row>
-    <row r="669" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="669" spans="9:9" ht="15.75" customHeight="1">
       <c r="I669" s="5"/>
     </row>
-    <row r="670" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="670" spans="9:9" ht="15.75" customHeight="1">
       <c r="I670" s="5"/>
     </row>
-    <row r="671" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="671" spans="9:9" ht="15.75" customHeight="1">
       <c r="I671" s="5"/>
     </row>
-    <row r="672" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="672" spans="9:9" ht="15.75" customHeight="1">
       <c r="I672" s="5"/>
     </row>
-    <row r="673" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="673" spans="9:9" ht="15.75" customHeight="1">
       <c r="I673" s="5"/>
     </row>
-    <row r="674" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="674" spans="9:9" ht="15.75" customHeight="1">
       <c r="I674" s="5"/>
     </row>
-    <row r="675" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="675" spans="9:9" ht="15.75" customHeight="1">
       <c r="I675" s="5"/>
     </row>
-    <row r="676" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="676" spans="9:9" ht="15.75" customHeight="1">
       <c r="I676" s="5"/>
     </row>
-    <row r="677" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="677" spans="9:9" ht="15.75" customHeight="1">
       <c r="I677" s="5"/>
     </row>
-    <row r="678" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="678" spans="9:9" ht="15.75" customHeight="1">
       <c r="I678" s="5"/>
     </row>
-    <row r="679" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="679" spans="9:9" ht="15.75" customHeight="1">
       <c r="I679" s="5"/>
     </row>
-    <row r="680" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="680" spans="9:9" ht="15.75" customHeight="1">
       <c r="I680" s="5"/>
     </row>
-    <row r="681" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="681" spans="9:9" ht="15.75" customHeight="1">
       <c r="I681" s="5"/>
     </row>
-    <row r="682" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="682" spans="9:9" ht="15.75" customHeight="1">
       <c r="I682" s="5"/>
     </row>
-    <row r="683" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="683" spans="9:9" ht="15.75" customHeight="1">
       <c r="I683" s="5"/>
     </row>
-    <row r="684" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="684" spans="9:9" ht="15.75" customHeight="1">
       <c r="I684" s="5"/>
     </row>
-    <row r="685" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="685" spans="9:9" ht="15.75" customHeight="1">
       <c r="I685" s="5"/>
     </row>
-    <row r="686" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="686" spans="9:9" ht="15.75" customHeight="1">
       <c r="I686" s="5"/>
     </row>
-    <row r="687" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="687" spans="9:9" ht="15.75" customHeight="1">
       <c r="I687" s="5"/>
     </row>
-    <row r="688" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="688" spans="9:9" ht="15.75" customHeight="1">
       <c r="I688" s="5"/>
     </row>
-    <row r="689" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="689" spans="9:9" ht="15.75" customHeight="1">
       <c r="I689" s="5"/>
     </row>
-    <row r="690" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="690" spans="9:9" ht="15.75" customHeight="1">
       <c r="I690" s="5"/>
     </row>
-    <row r="691" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="691" spans="9:9" ht="15.75" customHeight="1">
       <c r="I691" s="5"/>
     </row>
-    <row r="692" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="692" spans="9:9" ht="15.75" customHeight="1">
       <c r="I692" s="5"/>
     </row>
-    <row r="693" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="693" spans="9:9" ht="15.75" customHeight="1">
       <c r="I693" s="5"/>
     </row>
-    <row r="694" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="694" spans="9:9" ht="15.75" customHeight="1">
       <c r="I694" s="5"/>
     </row>
-    <row r="695" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="695" spans="9:9" ht="15.75" customHeight="1">
       <c r="I695" s="5"/>
     </row>
-    <row r="696" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="696" spans="9:9" ht="15.75" customHeight="1">
       <c r="I696" s="5"/>
     </row>
-    <row r="697" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="697" spans="9:9" ht="15.75" customHeight="1">
       <c r="I697" s="5"/>
     </row>
-    <row r="698" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="698" spans="9:9" ht="15.75" customHeight="1">
       <c r="I698" s="5"/>
     </row>
-    <row r="699" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="699" spans="9:9" ht="15.75" customHeight="1">
       <c r="I699" s="5"/>
     </row>
-    <row r="700" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="700" spans="9:9" ht="15.75" customHeight="1">
       <c r="I700" s="5"/>
     </row>
-    <row r="701" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="701" spans="9:9" ht="15.75" customHeight="1">
       <c r="I701" s="5"/>
     </row>
-    <row r="702" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="702" spans="9:9" ht="15.75" customHeight="1">
       <c r="I702" s="5"/>
     </row>
-    <row r="703" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="703" spans="9:9" ht="15.75" customHeight="1">
       <c r="I703" s="5"/>
     </row>
-    <row r="704" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="704" spans="9:9" ht="15.75" customHeight="1">
       <c r="I704" s="5"/>
     </row>
-    <row r="705" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="705" spans="9:9" ht="15.75" customHeight="1">
       <c r="I705" s="5"/>
     </row>
-    <row r="706" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="706" spans="9:9" ht="15.75" customHeight="1">
       <c r="I706" s="5"/>
     </row>
-    <row r="707" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="707" spans="9:9" ht="15.75" customHeight="1">
       <c r="I707" s="5"/>
     </row>
-    <row r="708" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="708" spans="9:9" ht="15.75" customHeight="1">
       <c r="I708" s="5"/>
     </row>
-    <row r="709" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="709" spans="9:9" ht="15.75" customHeight="1">
       <c r="I709" s="5"/>
     </row>
-    <row r="710" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="710" spans="9:9" ht="15.75" customHeight="1">
       <c r="I710" s="5"/>
     </row>
-    <row r="711" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="711" spans="9:9" ht="15.75" customHeight="1">
       <c r="I711" s="5"/>
     </row>
-    <row r="712" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="712" spans="9:9" ht="15.75" customHeight="1">
       <c r="I712" s="5"/>
     </row>
-    <row r="713" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="713" spans="9:9" ht="15.75" customHeight="1">
       <c r="I713" s="5"/>
     </row>
-    <row r="714" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="714" spans="9:9" ht="15.75" customHeight="1">
       <c r="I714" s="5"/>
     </row>
-    <row r="715" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="715" spans="9:9" ht="15.75" customHeight="1">
       <c r="I715" s="5"/>
     </row>
-    <row r="716" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="716" spans="9:9" ht="15.75" customHeight="1">
       <c r="I716" s="5"/>
     </row>
-    <row r="717" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="717" spans="9:9" ht="15.75" customHeight="1">
       <c r="I717" s="5"/>
     </row>
-    <row r="718" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="718" spans="9:9" ht="15.75" customHeight="1">
       <c r="I718" s="5"/>
     </row>
-    <row r="719" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="719" spans="9:9" ht="15.75" customHeight="1">
       <c r="I719" s="5"/>
     </row>
-    <row r="720" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="720" spans="9:9" ht="15.75" customHeight="1">
       <c r="I720" s="5"/>
     </row>
-    <row r="721" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="721" spans="9:9" ht="15.75" customHeight="1">
       <c r="I721" s="5"/>
     </row>
-    <row r="722" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="722" spans="9:9" ht="15.75" customHeight="1">
       <c r="I722" s="5"/>
     </row>
-    <row r="723" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="723" spans="9:9" ht="15.75" customHeight="1">
       <c r="I723" s="5"/>
     </row>
-    <row r="724" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="724" spans="9:9" ht="15.75" customHeight="1">
       <c r="I724" s="5"/>
     </row>
-    <row r="725" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="725" spans="9:9" ht="15.75" customHeight="1">
       <c r="I725" s="5"/>
     </row>
-    <row r="726" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="726" spans="9:9" ht="15.75" customHeight="1">
       <c r="I726" s="5"/>
     </row>
-    <row r="727" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="727" spans="9:9" ht="15.75" customHeight="1">
       <c r="I727" s="5"/>
     </row>
-    <row r="728" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="728" spans="9:9" ht="15.75" customHeight="1">
       <c r="I728" s="5"/>
     </row>
-    <row r="729" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="729" spans="9:9" ht="15.75" customHeight="1">
       <c r="I729" s="5"/>
     </row>
-    <row r="730" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="730" spans="9:9" ht="15.75" customHeight="1">
       <c r="I730" s="5"/>
     </row>
-    <row r="731" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="731" spans="9:9" ht="15.75" customHeight="1">
       <c r="I731" s="5"/>
     </row>
-    <row r="732" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="732" spans="9:9" ht="15.75" customHeight="1">
       <c r="I732" s="5"/>
     </row>
-    <row r="733" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="733" spans="9:9" ht="15.75" customHeight="1">
       <c r="I733" s="5"/>
     </row>
-    <row r="734" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="734" spans="9:9" ht="15.75" customHeight="1">
       <c r="I734" s="5"/>
     </row>
-    <row r="735" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="735" spans="9:9" ht="15.75" customHeight="1">
       <c r="I735" s="5"/>
     </row>
-    <row r="736" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="736" spans="9:9" ht="15.75" customHeight="1">
       <c r="I736" s="5"/>
     </row>
-    <row r="737" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="737" spans="9:9" ht="15.75" customHeight="1">
       <c r="I737" s="5"/>
     </row>
-    <row r="738" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="738" spans="9:9" ht="15.75" customHeight="1">
       <c r="I738" s="5"/>
     </row>
-    <row r="739" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="739" spans="9:9" ht="15.75" customHeight="1">
       <c r="I739" s="5"/>
     </row>
-    <row r="740" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="740" spans="9:9" ht="15.75" customHeight="1">
       <c r="I740" s="5"/>
     </row>
-    <row r="741" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="741" spans="9:9" ht="15.75" customHeight="1">
       <c r="I741" s="5"/>
     </row>
-    <row r="742" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="742" spans="9:9" ht="15.75" customHeight="1">
       <c r="I742" s="5"/>
     </row>
-    <row r="743" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="743" spans="9:9" ht="15.75" customHeight="1">
       <c r="I743" s="5"/>
     </row>
-    <row r="744" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="744" spans="9:9" ht="15.75" customHeight="1">
       <c r="I744" s="5"/>
     </row>
-    <row r="745" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="745" spans="9:9" ht="15.75" customHeight="1">
       <c r="I745" s="5"/>
     </row>
-    <row r="746" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="746" spans="9:9" ht="15.75" customHeight="1">
       <c r="I746" s="5"/>
     </row>
-    <row r="747" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="747" spans="9:9" ht="15.75" customHeight="1">
       <c r="I747" s="5"/>
     </row>
-    <row r="748" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="748" spans="9:9" ht="15.75" customHeight="1">
       <c r="I748" s="5"/>
     </row>
-    <row r="749" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="749" spans="9:9" ht="15.75" customHeight="1">
       <c r="I749" s="5"/>
     </row>
-    <row r="750" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="750" spans="9:9" ht="15.75" customHeight="1">
       <c r="I750" s="5"/>
     </row>
-    <row r="751" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="751" spans="9:9" ht="15.75" customHeight="1">
       <c r="I751" s="5"/>
     </row>
-    <row r="752" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="752" spans="9:9" ht="15.75" customHeight="1">
       <c r="I752" s="5"/>
     </row>
-    <row r="753" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="753" spans="9:9" ht="15.75" customHeight="1">
       <c r="I753" s="5"/>
     </row>
-    <row r="754" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="754" spans="9:9" ht="15.75" customHeight="1">
       <c r="I754" s="5"/>
     </row>
-    <row r="755" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="755" spans="9:9" ht="15.75" customHeight="1">
       <c r="I755" s="5"/>
     </row>
-    <row r="756" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="756" spans="9:9" ht="15.75" customHeight="1">
       <c r="I756" s="5"/>
     </row>
-    <row r="757" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="757" spans="9:9" ht="15.75" customHeight="1">
       <c r="I757" s="5"/>
     </row>
-    <row r="758" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="758" spans="9:9" ht="15.75" customHeight="1">
       <c r="I758" s="5"/>
     </row>
-    <row r="759" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="759" spans="9:9" ht="15.75" customHeight="1">
       <c r="I759" s="5"/>
     </row>
-    <row r="760" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="760" spans="9:9" ht="15.75" customHeight="1">
       <c r="I760" s="5"/>
     </row>
-    <row r="761" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="761" spans="9:9" ht="15.75" customHeight="1">
       <c r="I761" s="5"/>
     </row>
-    <row r="762" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="762" spans="9:9" ht="15.75" customHeight="1">
       <c r="I762" s="5"/>
     </row>
-    <row r="763" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="763" spans="9:9" ht="15.75" customHeight="1">
       <c r="I763" s="5"/>
     </row>
-    <row r="764" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="764" spans="9:9" ht="15.75" customHeight="1">
       <c r="I764" s="5"/>
     </row>
-    <row r="765" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="765" spans="9:9" ht="15.75" customHeight="1">
       <c r="I765" s="5"/>
     </row>
-    <row r="766" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="766" spans="9:9" ht="15.75" customHeight="1">
       <c r="I766" s="5"/>
     </row>
-    <row r="767" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="767" spans="9:9" ht="15.75" customHeight="1">
       <c r="I767" s="5"/>
     </row>
-    <row r="768" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="768" spans="9:9" ht="15.75" customHeight="1">
       <c r="I768" s="5"/>
     </row>
-    <row r="769" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="769" spans="9:9" ht="15.75" customHeight="1">
       <c r="I769" s="5"/>
     </row>
-    <row r="770" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="770" spans="9:9" ht="15.75" customHeight="1">
       <c r="I770" s="5"/>
     </row>
-    <row r="771" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="771" spans="9:9" ht="15.75" customHeight="1">
       <c r="I771" s="5"/>
     </row>
-    <row r="772" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="772" spans="9:9" ht="15.75" customHeight="1">
       <c r="I772" s="5"/>
     </row>
-    <row r="773" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="773" spans="9:9" ht="15.75" customHeight="1">
       <c r="I773" s="5"/>
     </row>
-    <row r="774" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="774" spans="9:9" ht="15.75" customHeight="1">
       <c r="I774" s="5"/>
     </row>
-    <row r="775" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="775" spans="9:9" ht="15.75" customHeight="1">
       <c r="I775" s="5"/>
     </row>
-    <row r="776" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="776" spans="9:9" ht="15.75" customHeight="1">
       <c r="I776" s="5"/>
     </row>
-    <row r="777" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="777" spans="9:9" ht="15.75" customHeight="1">
       <c r="I777" s="5"/>
     </row>
-    <row r="778" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="778" spans="9:9" ht="15.75" customHeight="1">
       <c r="I778" s="5"/>
     </row>
-    <row r="779" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="779" spans="9:9" ht="15.75" customHeight="1">
       <c r="I779" s="5"/>
     </row>
-    <row r="780" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="780" spans="9:9" ht="15.75" customHeight="1">
       <c r="I780" s="5"/>
     </row>
-    <row r="781" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="781" spans="9:9" ht="15.75" customHeight="1">
       <c r="I781" s="5"/>
     </row>
-    <row r="782" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="782" spans="9:9" ht="15.75" customHeight="1">
       <c r="I782" s="5"/>
     </row>
-    <row r="783" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="783" spans="9:9" ht="15.75" customHeight="1">
       <c r="I783" s="5"/>
     </row>
-    <row r="784" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="784" spans="9:9" ht="15.75" customHeight="1">
       <c r="I784" s="5"/>
     </row>
-    <row r="785" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="785" spans="9:9" ht="15.75" customHeight="1">
       <c r="I785" s="5"/>
     </row>
-    <row r="786" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="786" spans="9:9" ht="15.75" customHeight="1">
       <c r="I786" s="5"/>
     </row>
-    <row r="787" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="787" spans="9:9" ht="15.75" customHeight="1">
       <c r="I787" s="5"/>
     </row>
-    <row r="788" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="788" spans="9:9" ht="15.75" customHeight="1">
       <c r="I788" s="5"/>
     </row>
-    <row r="789" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="789" spans="9:9" ht="15.75" customHeight="1">
       <c r="I789" s="5"/>
     </row>
-    <row r="790" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="790" spans="9:9" ht="15.75" customHeight="1">
       <c r="I790" s="5"/>
     </row>
-    <row r="791" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="791" spans="9:9" ht="15.75" customHeight="1">
       <c r="I791" s="5"/>
     </row>
-    <row r="792" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="792" spans="9:9" ht="15.75" customHeight="1">
       <c r="I792" s="5"/>
     </row>
-    <row r="793" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="793" spans="9:9" ht="15.75" customHeight="1">
       <c r="I793" s="5"/>
     </row>
-    <row r="794" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="794" spans="9:9" ht="15.75" customHeight="1">
       <c r="I794" s="5"/>
     </row>
-    <row r="795" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="795" spans="9:9" ht="15.75" customHeight="1">
       <c r="I795" s="5"/>
     </row>
-    <row r="796" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="796" spans="9:9" ht="15.75" customHeight="1">
       <c r="I796" s="5"/>
     </row>
-    <row r="797" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="797" spans="9:9" ht="15.75" customHeight="1">
       <c r="I797" s="5"/>
     </row>
-    <row r="798" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="798" spans="9:9" ht="15.75" customHeight="1">
       <c r="I798" s="5"/>
     </row>
-    <row r="799" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="799" spans="9:9" ht="15.75" customHeight="1">
       <c r="I799" s="5"/>
     </row>
-    <row r="800" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="800" spans="9:9" ht="15.75" customHeight="1">
       <c r="I800" s="5"/>
     </row>
-    <row r="801" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="801" spans="9:9" ht="15.75" customHeight="1">
       <c r="I801" s="5"/>
     </row>
-    <row r="802" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="802" spans="9:9" ht="15.75" customHeight="1">
       <c r="I802" s="5"/>
     </row>
-    <row r="803" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="803" spans="9:9" ht="15.75" customHeight="1">
       <c r="I803" s="5"/>
     </row>
-    <row r="804" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="804" spans="9:9" ht="15.75" customHeight="1">
       <c r="I804" s="5"/>
     </row>
-    <row r="805" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="805" spans="9:9" ht="15.75" customHeight="1">
       <c r="I805" s="5"/>
     </row>
-    <row r="806" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="806" spans="9:9" ht="15.75" customHeight="1">
       <c r="I806" s="5"/>
     </row>
-    <row r="807" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="807" spans="9:9" ht="15.75" customHeight="1">
       <c r="I807" s="5"/>
     </row>
-    <row r="808" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="808" spans="9:9" ht="15.75" customHeight="1">
       <c r="I808" s="5"/>
     </row>
-    <row r="809" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="809" spans="9:9" ht="15.75" customHeight="1">
       <c r="I809" s="5"/>
     </row>
-    <row r="810" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="810" spans="9:9" ht="15.75" customHeight="1">
       <c r="I810" s="5"/>
     </row>
-    <row r="811" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="811" spans="9:9" ht="15.75" customHeight="1">
       <c r="I811" s="5"/>
     </row>
-    <row r="812" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="812" spans="9:9" ht="15.75" customHeight="1">
       <c r="I812" s="5"/>
     </row>
-    <row r="813" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="813" spans="9:9" ht="15.75" customHeight="1">
       <c r="I813" s="5"/>
     </row>
-    <row r="814" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="814" spans="9:9" ht="15.75" customHeight="1">
       <c r="I814" s="5"/>
     </row>
-    <row r="815" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="815" spans="9:9" ht="15.75" customHeight="1">
       <c r="I815" s="5"/>
     </row>
-    <row r="816" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="816" spans="9:9" ht="15.75" customHeight="1">
       <c r="I816" s="5"/>
     </row>
-    <row r="817" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="817" spans="9:9" ht="15.75" customHeight="1">
       <c r="I817" s="5"/>
     </row>
-    <row r="818" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="818" spans="9:9" ht="15.75" customHeight="1">
       <c r="I818" s="5"/>
     </row>
-    <row r="819" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="819" spans="9:9" ht="15.75" customHeight="1">
       <c r="I819" s="5"/>
     </row>
-    <row r="820" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="820" spans="9:9" ht="15.75" customHeight="1">
       <c r="I820" s="5"/>
     </row>
-    <row r="821" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="821" spans="9:9" ht="15.75" customHeight="1">
       <c r="I821" s="5"/>
     </row>
-    <row r="822" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="822" spans="9:9" ht="15.75" customHeight="1">
       <c r="I822" s="5"/>
     </row>
-    <row r="823" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="823" spans="9:9" ht="15.75" customHeight="1">
       <c r="I823" s="5"/>
     </row>
-    <row r="824" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="824" spans="9:9" ht="15.75" customHeight="1">
       <c r="I824" s="5"/>
     </row>
-    <row r="825" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="825" spans="9:9" ht="15.75" customHeight="1">
       <c r="I825" s="5"/>
     </row>
-    <row r="826" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="826" spans="9:9" ht="15.75" customHeight="1">
       <c r="I826" s="5"/>
     </row>
-    <row r="827" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="827" spans="9:9" ht="15.75" customHeight="1">
       <c r="I827" s="5"/>
     </row>
-    <row r="828" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="828" spans="9:9" ht="15.75" customHeight="1">
       <c r="I828" s="5"/>
     </row>
-    <row r="829" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="829" spans="9:9" ht="15.75" customHeight="1">
       <c r="I829" s="5"/>
     </row>
-    <row r="830" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="830" spans="9:9" ht="15.75" customHeight="1">
       <c r="I830" s="5"/>
     </row>
-    <row r="831" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="831" spans="9:9" ht="15.75" customHeight="1">
       <c r="I831" s="5"/>
     </row>
-    <row r="832" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="832" spans="9:9" ht="15.75" customHeight="1">
       <c r="I832" s="5"/>
     </row>
-    <row r="833" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="833" spans="9:9" ht="15.75" customHeight="1">
       <c r="I833" s="5"/>
     </row>
-    <row r="834" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="834" spans="9:9" ht="15.75" customHeight="1">
       <c r="I834" s="5"/>
     </row>
-    <row r="835" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="835" spans="9:9" ht="15.75" customHeight="1">
       <c r="I835" s="5"/>
     </row>
-    <row r="836" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="836" spans="9:9" ht="15.75" customHeight="1">
       <c r="I836" s="5"/>
     </row>
-    <row r="837" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="837" spans="9:9" ht="15.75" customHeight="1">
       <c r="I837" s="5"/>
     </row>
-    <row r="838" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="838" spans="9:9" ht="15.75" customHeight="1">
       <c r="I838" s="5"/>
     </row>
-    <row r="839" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="839" spans="9:9" ht="15.75" customHeight="1">
       <c r="I839" s="5"/>
     </row>
-    <row r="840" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="840" spans="9:9" ht="15.75" customHeight="1">
       <c r="I840" s="5"/>
     </row>
-    <row r="841" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="841" spans="9:9" ht="15.75" customHeight="1">
       <c r="I841" s="5"/>
     </row>
-    <row r="842" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="842" spans="9:9" ht="15.75" customHeight="1">
       <c r="I842" s="5"/>
     </row>
-    <row r="843" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="843" spans="9:9" ht="15.75" customHeight="1">
       <c r="I843" s="5"/>
     </row>
-    <row r="844" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="844" spans="9:9" ht="15.75" customHeight="1">
       <c r="I844" s="5"/>
     </row>
-    <row r="845" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="845" spans="9:9" ht="15.75" customHeight="1">
       <c r="I845" s="5"/>
     </row>
-    <row r="846" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="846" spans="9:9" ht="15.75" customHeight="1">
       <c r="I846" s="5"/>
     </row>
-    <row r="847" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="847" spans="9:9" ht="15.75" customHeight="1">
       <c r="I847" s="5"/>
     </row>
-    <row r="848" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="848" spans="9:9" ht="15.75" customHeight="1">
       <c r="I848" s="5"/>
     </row>
-    <row r="849" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="849" spans="9:9" ht="15.75" customHeight="1">
       <c r="I849" s="5"/>
     </row>
-    <row r="850" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="850" spans="9:9" ht="15.75" customHeight="1">
       <c r="I850" s="5"/>
     </row>
-    <row r="851" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="851" spans="9:9" ht="15.75" customHeight="1">
       <c r="I851" s="5"/>
     </row>
-    <row r="852" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="852" spans="9:9" ht="15.75" customHeight="1">
       <c r="I852" s="5"/>
     </row>
-    <row r="853" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="853" spans="9:9" ht="15.75" customHeight="1">
       <c r="I853" s="5"/>
     </row>
-    <row r="854" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="854" spans="9:9" ht="15.75" customHeight="1">
       <c r="I854" s="5"/>
     </row>
-    <row r="855" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="855" spans="9:9" ht="15.75" customHeight="1">
       <c r="I855" s="5"/>
     </row>
-    <row r="856" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="856" spans="9:9" ht="15.75" customHeight="1">
       <c r="I856" s="5"/>
     </row>
-    <row r="857" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="857" spans="9:9" ht="15.75" customHeight="1">
       <c r="I857" s="5"/>
     </row>
-    <row r="858" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="858" spans="9:9" ht="15.75" customHeight="1">
       <c r="I858" s="5"/>
     </row>
-    <row r="859" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="859" spans="9:9" ht="15.75" customHeight="1">
       <c r="I859" s="5"/>
     </row>
-    <row r="860" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="860" spans="9:9" ht="15.75" customHeight="1">
       <c r="I860" s="5"/>
     </row>
-    <row r="861" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="861" spans="9:9" ht="15.75" customHeight="1">
       <c r="I861" s="5"/>
     </row>
-    <row r="862" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="862" spans="9:9" ht="15.75" customHeight="1">
       <c r="I862" s="5"/>
     </row>
-    <row r="863" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="863" spans="9:9" ht="15.75" customHeight="1">
       <c r="I863" s="5"/>
     </row>
-    <row r="864" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="864" spans="9:9" ht="15.75" customHeight="1">
       <c r="I864" s="5"/>
     </row>
-    <row r="865" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="865" spans="9:9" ht="15.75" customHeight="1">
       <c r="I865" s="5"/>
     </row>
-    <row r="866" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="866" spans="9:9" ht="15.75" customHeight="1">
       <c r="I866" s="5"/>
     </row>
-    <row r="867" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="867" spans="9:9" ht="15.75" customHeight="1">
       <c r="I867" s="5"/>
     </row>
-    <row r="868" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="868" spans="9:9" ht="15.75" customHeight="1">
       <c r="I868" s="5"/>
     </row>
-    <row r="869" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="869" spans="9:9" ht="15.75" customHeight="1">
       <c r="I869" s="5"/>
     </row>
-    <row r="870" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="870" spans="9:9" ht="15.75" customHeight="1">
       <c r="I870" s="5"/>
     </row>
-    <row r="871" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="871" spans="9:9" ht="15.75" customHeight="1">
       <c r="I871" s="5"/>
     </row>
-    <row r="872" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="872" spans="9:9" ht="15.75" customHeight="1">
       <c r="I872" s="5"/>
     </row>
-    <row r="873" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="873" spans="9:9" ht="15.75" customHeight="1">
       <c r="I873" s="5"/>
     </row>
-    <row r="874" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="874" spans="9:9" ht="15.75" customHeight="1">
       <c r="I874" s="5"/>
     </row>
-    <row r="875" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="875" spans="9:9" ht="15.75" customHeight="1">
       <c r="I875" s="5"/>
     </row>
-    <row r="876" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="876" spans="9:9" ht="15.75" customHeight="1">
       <c r="I876" s="5"/>
     </row>
-    <row r="877" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="877" spans="9:9" ht="15.75" customHeight="1">
       <c r="I877" s="5"/>
     </row>
-    <row r="878" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="878" spans="9:9" ht="15.75" customHeight="1">
       <c r="I878" s="5"/>
     </row>
-    <row r="879" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="879" spans="9:9" ht="15.75" customHeight="1">
       <c r="I879" s="5"/>
     </row>
-    <row r="880" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="880" spans="9:9" ht="15.75" customHeight="1">
       <c r="I880" s="5"/>
     </row>
-    <row r="881" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="881" spans="9:9" ht="15.75" customHeight="1">
       <c r="I881" s="5"/>
     </row>
-    <row r="882" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="882" spans="9:9" ht="15.75" customHeight="1">
       <c r="I882" s="5"/>
     </row>
-    <row r="883" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="883" spans="9:9" ht="15.75" customHeight="1">
       <c r="I883" s="5"/>
     </row>
-    <row r="884" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="884" spans="9:9" ht="15.75" customHeight="1">
       <c r="I884" s="5"/>
     </row>
-    <row r="885" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="885" spans="9:9" ht="15.75" customHeight="1">
       <c r="I885" s="5"/>
     </row>
-    <row r="886" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="886" spans="9:9" ht="15.75" customHeight="1">
       <c r="I886" s="5"/>
     </row>
-    <row r="887" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="887" spans="9:9" ht="15.75" customHeight="1">
       <c r="I887" s="5"/>
     </row>
-    <row r="888" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="888" spans="9:9" ht="15.75" customHeight="1">
       <c r="I888" s="5"/>
     </row>
-    <row r="889" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="889" spans="9:9" ht="15.75" customHeight="1">
       <c r="I889" s="5"/>
     </row>
-    <row r="890" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="890" spans="9:9" ht="15.75" customHeight="1">
       <c r="I890" s="5"/>
     </row>
-    <row r="891" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="891" spans="9:9" ht="15.75" customHeight="1">
       <c r="I891" s="5"/>
     </row>
-    <row r="892" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="892" spans="9:9" ht="15.75" customHeight="1">
       <c r="I892" s="5"/>
     </row>
-    <row r="893" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="893" spans="9:9" ht="15.75" customHeight="1">
       <c r="I893" s="5"/>
     </row>
-    <row r="894" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="894" spans="9:9" ht="15.75" customHeight="1">
       <c r="I894" s="5"/>
     </row>
-    <row r="895" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="895" spans="9:9" ht="15.75" customHeight="1">
       <c r="I895" s="5"/>
     </row>
-    <row r="896" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="896" spans="9:9" ht="15.75" customHeight="1">
       <c r="I896" s="5"/>
     </row>
-    <row r="897" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="897" spans="9:9" ht="15.75" customHeight="1">
       <c r="I897" s="5"/>
     </row>
-    <row r="898" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="898" spans="9:9" ht="15.75" customHeight="1">
       <c r="I898" s="5"/>
     </row>
-    <row r="899" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="899" spans="9:9" ht="15.75" customHeight="1">
       <c r="I899" s="5"/>
     </row>
-    <row r="900" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="900" spans="9:9" ht="15.75" customHeight="1">
       <c r="I900" s="5"/>
     </row>
-    <row r="901" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="901" spans="9:9" ht="15.75" customHeight="1">
       <c r="I901" s="5"/>
     </row>
-    <row r="902" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="902" spans="9:9" ht="15.75" customHeight="1">
       <c r="I902" s="5"/>
     </row>
-    <row r="903" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="903" spans="9:9" ht="15.75" customHeight="1">
       <c r="I903" s="5"/>
     </row>
-    <row r="904" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="904" spans="9:9" ht="15.75" customHeight="1">
       <c r="I904" s="5"/>
     </row>
-    <row r="905" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="905" spans="9:9" ht="15.75" customHeight="1">
       <c r="I905" s="5"/>
     </row>
-    <row r="906" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="906" spans="9:9" ht="15.75" customHeight="1">
       <c r="I906" s="5"/>
     </row>
-    <row r="907" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="907" spans="9:9" ht="15.75" customHeight="1">
       <c r="I907" s="5"/>
     </row>
-    <row r="908" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="908" spans="9:9" ht="15.75" customHeight="1">
       <c r="I908" s="5"/>
     </row>
-    <row r="909" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="909" spans="9:9" ht="15.75" customHeight="1">
       <c r="I909" s="5"/>
     </row>
-    <row r="910" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="910" spans="9:9" ht="15.75" customHeight="1">
       <c r="I910" s="5"/>
     </row>
-    <row r="911" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="911" spans="9:9" ht="15.75" customHeight="1">
       <c r="I911" s="5"/>
     </row>
-    <row r="912" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="912" spans="9:9" ht="15.75" customHeight="1">
       <c r="I912" s="5"/>
     </row>
-    <row r="913" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="913" spans="9:9" ht="15.75" customHeight="1">
       <c r="I913" s="5"/>
     </row>
-    <row r="914" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="914" spans="9:9" ht="15.75" customHeight="1">
       <c r="I914" s="5"/>
     </row>
-    <row r="915" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="915" spans="9:9" ht="15.75" customHeight="1">
       <c r="I915" s="5"/>
     </row>
-    <row r="916" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="916" spans="9:9" ht="15.75" customHeight="1">
       <c r="I916" s="5"/>
     </row>
-    <row r="917" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="917" spans="9:9" ht="15.75" customHeight="1">
       <c r="I917" s="5"/>
     </row>
-    <row r="918" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="918" spans="9:9" ht="15.75" customHeight="1">
       <c r="I918" s="5"/>
     </row>
-    <row r="919" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="919" spans="9:9" ht="15.75" customHeight="1">
       <c r="I919" s="5"/>
     </row>
-    <row r="920" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="920" spans="9:9" ht="15.75" customHeight="1">
       <c r="I920" s="5"/>
     </row>
-    <row r="921" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="921" spans="9:9" ht="15.75" customHeight="1">
       <c r="I921" s="5"/>
     </row>
-    <row r="922" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="922" spans="9:9" ht="15.75" customHeight="1">
       <c r="I922" s="5"/>
     </row>
-    <row r="923" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="923" spans="9:9" ht="15.75" customHeight="1">
       <c r="I923" s="5"/>
     </row>
-    <row r="924" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="924" spans="9:9" ht="15.75" customHeight="1">
       <c r="I924" s="5"/>
     </row>
-    <row r="925" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="925" spans="9:9" ht="15.75" customHeight="1">
       <c r="I925" s="5"/>
     </row>
-    <row r="926" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="926" spans="9:9" ht="15.75" customHeight="1">
       <c r="I926" s="5"/>
     </row>
-    <row r="927" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="927" spans="9:9" ht="15.75" customHeight="1">
       <c r="I927" s="5"/>
     </row>
-    <row r="928" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="928" spans="9:9" ht="15.75" customHeight="1">
       <c r="I928" s="5"/>
     </row>
-    <row r="929" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="929" spans="9:9" ht="15.75" customHeight="1">
       <c r="I929" s="5"/>
     </row>
-    <row r="930" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="930" spans="9:9" ht="15.75" customHeight="1">
       <c r="I930" s="5"/>
     </row>
-    <row r="931" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="931" spans="9:9" ht="15.75" customHeight="1">
       <c r="I931" s="5"/>
     </row>
-    <row r="932" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="932" spans="9:9" ht="15.75" customHeight="1">
       <c r="I932" s="5"/>
     </row>
-    <row r="933" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="933" spans="9:9" ht="15.75" customHeight="1">
       <c r="I933" s="5"/>
     </row>
-    <row r="934" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="934" spans="9:9" ht="15.75" customHeight="1">
       <c r="I934" s="5"/>
     </row>
-    <row r="935" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="935" spans="9:9" ht="15.75" customHeight="1">
       <c r="I935" s="5"/>
     </row>
-    <row r="936" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="936" spans="9:9" ht="15.75" customHeight="1">
       <c r="I936" s="5"/>
     </row>
-    <row r="937" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="937" spans="9:9" ht="15.75" customHeight="1">
       <c r="I937" s="5"/>
     </row>
-    <row r="938" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="938" spans="9:9" ht="15.75" customHeight="1">
       <c r="I938" s="5"/>
     </row>
-    <row r="939" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="939" spans="9:9" ht="15.75" customHeight="1">
       <c r="I939" s="5"/>
     </row>
-    <row r="940" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="940" spans="9:9" ht="15.75" customHeight="1">
       <c r="I940" s="5"/>
     </row>
-    <row r="941" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="941" spans="9:9" ht="15.75" customHeight="1">
       <c r="I941" s="5"/>
     </row>
-    <row r="942" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="942" spans="9:9" ht="15.75" customHeight="1">
       <c r="I942" s="5"/>
     </row>
-    <row r="943" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="943" spans="9:9" ht="15.75" customHeight="1">
       <c r="I943" s="5"/>
     </row>
-    <row r="944" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="944" spans="9:9" ht="15.75" customHeight="1">
       <c r="I944" s="5"/>
     </row>
-    <row r="945" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="945" spans="9:9" ht="15.75" customHeight="1">
       <c r="I945" s="5"/>
     </row>
-    <row r="946" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="946" spans="9:9" ht="15.75" customHeight="1">
       <c r="I946" s="5"/>
     </row>
-    <row r="947" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="947" spans="9:9" ht="15.75" customHeight="1">
       <c r="I947" s="5"/>
     </row>
-    <row r="948" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="948" spans="9:9" ht="15.75" customHeight="1">
       <c r="I948" s="5"/>
     </row>
-    <row r="949" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="949" spans="9:9" ht="15.75" customHeight="1">
       <c r="I949" s="5"/>
     </row>
-    <row r="950" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="950" spans="9:9" ht="15.75" customHeight="1">
       <c r="I950" s="5"/>
     </row>
-    <row r="951" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="951" spans="9:9" ht="15.75" customHeight="1">
       <c r="I951" s="5"/>
     </row>
-    <row r="952" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="952" spans="9:9" ht="15.75" customHeight="1">
       <c r="I952" s="5"/>
     </row>
-    <row r="953" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="953" spans="9:9" ht="15.75" customHeight="1">
       <c r="I953" s="5"/>
     </row>
-    <row r="954" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="954" spans="9:9" ht="15.75" customHeight="1">
       <c r="I954" s="5"/>
     </row>
-    <row r="955" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="955" spans="9:9" ht="15.75" customHeight="1">
       <c r="I955" s="5"/>
     </row>
-    <row r="956" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="956" spans="9:9" ht="15.75" customHeight="1">
       <c r="I956" s="5"/>
     </row>
-    <row r="957" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="957" spans="9:9" ht="15.75" customHeight="1">
       <c r="I957" s="5"/>
     </row>
-    <row r="958" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="958" spans="9:9" ht="15.75" customHeight="1">
       <c r="I958" s="5"/>
     </row>
-    <row r="959" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="959" spans="9:9" ht="15.75" customHeight="1">
       <c r="I959" s="5"/>
     </row>
-    <row r="960" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="960" spans="9:9" ht="15.75" customHeight="1">
       <c r="I960" s="5"/>
     </row>
-    <row r="961" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="961" spans="9:9" ht="15.75" customHeight="1">
       <c r="I961" s="5"/>
     </row>
-    <row r="962" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="962" spans="9:9" ht="15.75" customHeight="1">
       <c r="I962" s="5"/>
     </row>
-    <row r="963" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="963" spans="9:9" ht="15.75" customHeight="1">
       <c r="I963" s="5"/>
     </row>
-    <row r="964" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="964" spans="9:9" ht="15.75" customHeight="1">
       <c r="I964" s="5"/>
     </row>
-    <row r="965" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="965" spans="9:9" ht="15.75" customHeight="1">
       <c r="I965" s="5"/>
     </row>
-    <row r="966" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="966" spans="9:9" ht="15.75" customHeight="1">
       <c r="I966" s="5"/>
     </row>
-    <row r="967" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="967" spans="9:9" ht="15.75" customHeight="1">
       <c r="I967" s="5"/>
     </row>
-    <row r="968" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="968" spans="9:9" ht="15.75" customHeight="1">
       <c r="I968" s="5"/>
     </row>
-    <row r="969" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="969" spans="9:9" ht="15.75" customHeight="1">
       <c r="I969" s="5"/>
     </row>
-    <row r="970" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="970" spans="9:9" ht="15.75" customHeight="1">
       <c r="I970" s="5"/>
     </row>
-    <row r="971" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="971" spans="9:9" ht="15.75" customHeight="1">
       <c r="I971" s="5"/>
     </row>
-    <row r="972" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="972" spans="9:9" ht="15.75" customHeight="1">
       <c r="I972" s="5"/>
     </row>
-    <row r="973" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="973" spans="9:9" ht="15.75" customHeight="1">
       <c r="I973" s="5"/>
     </row>
-    <row r="974" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="974" spans="9:9" ht="15.75" customHeight="1">
       <c r="I974" s="5"/>
     </row>
-    <row r="975" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="975" spans="9:9" ht="15.75" customHeight="1">
       <c r="I975" s="5"/>
     </row>
-    <row r="976" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="976" spans="9:9" ht="15.75" customHeight="1">
       <c r="I976" s="5"/>
     </row>
-    <row r="977" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="977" spans="9:9" ht="15.75" customHeight="1">
       <c r="I977" s="5"/>
     </row>
-    <row r="978" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="978" spans="9:9" ht="15.75" customHeight="1">
       <c r="I978" s="5"/>
     </row>
-    <row r="979" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="979" spans="9:9" ht="15.75" customHeight="1">
       <c r="I979" s="5"/>
     </row>
-    <row r="980" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="980" spans="9:9" ht="15.75" customHeight="1">
       <c r="I980" s="5"/>
     </row>
-    <row r="981" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="981" spans="9:9" ht="15.75" customHeight="1">
       <c r="I981" s="5"/>
     </row>
-    <row r="982" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="982" spans="9:9" ht="15.75" customHeight="1">
       <c r="I982" s="5"/>
     </row>
-    <row r="983" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="983" spans="9:9" ht="15.75" customHeight="1">
       <c r="I983" s="5"/>
     </row>
-    <row r="984" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="984" spans="9:9" ht="15.75" customHeight="1">
       <c r="I984" s="5"/>
     </row>
-    <row r="985" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="985" spans="9:9" ht="15.75" customHeight="1">
       <c r="I985" s="5"/>
     </row>
-    <row r="986" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="986" spans="9:9" ht="15.75" customHeight="1">
       <c r="I986" s="5"/>
     </row>
-    <row r="987" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="987" spans="9:9" ht="15.75" customHeight="1">
       <c r="I987" s="5"/>
     </row>
-    <row r="988" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="988" spans="9:9" ht="15.75" customHeight="1">
       <c r="I988" s="5"/>
     </row>
-    <row r="989" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="989" spans="9:9" ht="15.75" customHeight="1">
       <c r="I989" s="5"/>
     </row>
-    <row r="990" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="990" spans="9:9" ht="15.75" customHeight="1">
       <c r="I990" s="5"/>
     </row>
-    <row r="991" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="991" spans="9:9" ht="15.75" customHeight="1">
       <c r="I991" s="5"/>
     </row>
-    <row r="992" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="992" spans="9:9" ht="15.75" customHeight="1">
       <c r="I992" s="5"/>
     </row>
-    <row r="993" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="993" spans="9:9" ht="15.75" customHeight="1">
       <c r="I993" s="5"/>
     </row>
-    <row r="994" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="994" spans="9:9" ht="15.75" customHeight="1">
       <c r="I994" s="5"/>
     </row>
-    <row r="995" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="995" spans="9:9" ht="15.75" customHeight="1">
       <c r="I995" s="5"/>
     </row>
-    <row r="996" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="996" spans="9:9" ht="15.75" customHeight="1">
       <c r="I996" s="5"/>
     </row>
-    <row r="997" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="997" spans="9:9" ht="15.75" customHeight="1">
       <c r="I997" s="5"/>
     </row>
-    <row r="998" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="998" spans="9:9" ht="15.75" customHeight="1">
       <c r="I998" s="5"/>
     </row>
-    <row r="999" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="999" spans="9:9" ht="15.75" customHeight="1">
       <c r="I999" s="5"/>
     </row>
-    <row r="1000" spans="9:9" ht="15.75" hidden="1" customHeight="1">
+    <row r="1000" spans="9:9" ht="15.75" customHeight="1">
       <c r="I1000" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="K1:K1000" xr:uid="{61448FF7-A81E-4C70-B8DD-C1DBF0CD5811}">
-    <filterColumn colId="0">
+  <autoFilter ref="A1:L352" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="11">
       <filters>
         <filter val="1"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/scripts/teamInfo_perm.xlsx
+++ b/scripts/teamInfo_perm.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alan\Documents\GitHub\march_madness_auction\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7CD19E-3A67-45B6-A900-C03CC60E7286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BF98BB-CBBC-4A7E-8D2A-72685DB189EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$352</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$352</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="760">
   <si>
     <t>team_id</t>
   </si>
@@ -2257,13 +2257,70 @@
   </si>
   <si>
     <t>#003A63</t>
+  </si>
+  <si>
+    <t>in_2024</t>
+  </si>
+  <si>
+    <t>Duquesne.png</t>
+  </si>
+  <si>
+    <t>Grambling.png</t>
+  </si>
+  <si>
+    <t>McNeese.png</t>
+  </si>
+  <si>
+    <t>Oakland.png</t>
+  </si>
+  <si>
+    <t>Samford.png</t>
+  </si>
+  <si>
+    <t>JMU.png</t>
+  </si>
+  <si>
+    <t>Stetson.png</t>
+  </si>
+  <si>
+    <t>Wagner.png</t>
+  </si>
+  <si>
+    <t>UNM.png</t>
+  </si>
+  <si>
+    <t>Wazzu.png</t>
+  </si>
+  <si>
+    <t>#981E32</t>
+  </si>
+  <si>
+    <t>#004331</t>
+  </si>
+  <si>
+    <t>#BA0C2F</t>
+  </si>
+  <si>
+    <t>#00523E</t>
+  </si>
+  <si>
+    <t>#BC945B</t>
+  </si>
+  <si>
+    <t>#003087</t>
+  </si>
+  <si>
+    <t>#450084</t>
+  </si>
+  <si>
+    <t>#EAA921</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2345,9 +2402,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2385,7 +2442,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2491,7 +2548,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2633,7 +2690,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2642,25 +2699,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M1000"/>
+  <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="P58" sqref="P58"/>
+      <selection pane="bottomLeft" activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="2" width="52.85546875" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="26" width="8.7109375" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="7" max="13" width="8.7109375" hidden="1" customWidth="1"/>
+    <col min="14" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2700,8 +2758,11 @@
       <c r="M1" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" hidden="1">
+      <c r="N1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2741,8 +2802,11 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" hidden="1">
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2776,8 +2840,11 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" hidden="1">
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2811,8 +2878,11 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" hidden="1">
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2846,8 +2916,11 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" hidden="1">
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2881,8 +2954,11 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" hidden="1">
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2922,8 +2998,11 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2963,8 +3042,11 @@
       <c r="M8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" hidden="1">
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2998,8 +3080,11 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -3039,8 +3124,11 @@
       <c r="M10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" hidden="1">
+      <c r="N10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -3080,8 +3168,11 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" hidden="1">
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -3115,8 +3206,11 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -3156,8 +3250,11 @@
       <c r="M13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" hidden="1">
+      <c r="N13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -3197,8 +3294,11 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" hidden="1">
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -3232,8 +3332,11 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" hidden="1">
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -3267,8 +3370,11 @@
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -3308,8 +3414,11 @@
       <c r="M17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" hidden="1">
+      <c r="N17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -3343,8 +3452,11 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" hidden="1">
+      <c r="N18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -3378,8 +3490,11 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" hidden="1">
+      <c r="N19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -3413,8 +3528,11 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -3454,8 +3572,11 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -3495,8 +3616,11 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -3530,8 +3654,11 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -3571,8 +3698,11 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -3612,8 +3742,11 @@
       <c r="M25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -3653,8 +3786,11 @@
       <c r="M26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -3688,8 +3824,11 @@
       <c r="M27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -3729,8 +3868,11 @@
       <c r="M28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -3770,8 +3912,11 @@
       <c r="M29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -3811,8 +3956,11 @@
       <c r="M30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -3852,8 +4000,11 @@
       <c r="M31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -3887,8 +4038,11 @@
       <c r="M32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -3922,8 +4076,11 @@
       <c r="M33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -3957,8 +4114,11 @@
       <c r="M34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -3992,8 +4152,11 @@
       <c r="M35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -4027,8 +4190,11 @@
       <c r="M36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -4062,8 +4228,11 @@
       <c r="M37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -4097,8 +4266,11 @@
       <c r="M38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -4132,8 +4304,11 @@
       <c r="M39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -4173,8 +4348,11 @@
       <c r="M40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -4214,8 +4392,11 @@
       <c r="M41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -4255,8 +4436,11 @@
       <c r="M42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -4296,8 +4480,11 @@
       <c r="M43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -4337,8 +4524,11 @@
       <c r="M44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -4378,8 +4568,11 @@
       <c r="M45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -4413,8 +4606,11 @@
       <c r="M46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -4454,8 +4650,11 @@
       <c r="M47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -4489,8 +4688,11 @@
       <c r="M48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -4524,8 +4726,11 @@
       <c r="M49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -4559,8 +4764,11 @@
       <c r="M50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -4600,8 +4808,11 @@
       <c r="M51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -4635,8 +4846,11 @@
       <c r="M52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -4676,8 +4890,11 @@
       <c r="M53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -4711,8 +4928,11 @@
       <c r="M54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -4746,8 +4966,11 @@
       <c r="M55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -4787,8 +5010,11 @@
       <c r="M56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -4828,8 +5054,11 @@
       <c r="M57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -4869,14 +5098,23 @@
       <c r="M58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>122</v>
       </c>
+      <c r="C59" t="s">
+        <v>742</v>
+      </c>
+      <c r="D59" t="s">
+        <v>754</v>
+      </c>
       <c r="E59">
         <v>0</v>
       </c>
@@ -4904,8 +5142,11 @@
       <c r="M59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -4939,8 +5180,11 @@
       <c r="M60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -4980,8 +5224,11 @@
       <c r="M61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -5015,8 +5262,11 @@
       <c r="M62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -5050,8 +5300,11 @@
       <c r="M63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -5085,8 +5338,11 @@
       <c r="M64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -5126,8 +5382,11 @@
       <c r="M65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -5161,8 +5420,11 @@
       <c r="M66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -5196,8 +5458,11 @@
       <c r="M67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -5237,8 +5502,11 @@
       <c r="M68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -5272,8 +5540,11 @@
       <c r="M69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -5313,8 +5584,11 @@
       <c r="M70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -5354,8 +5628,11 @@
       <c r="M71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -5389,8 +5666,11 @@
       <c r="M72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -5430,8 +5710,11 @@
       <c r="M73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -5465,8 +5748,11 @@
       <c r="M74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -5506,8 +5792,11 @@
       <c r="M75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -5547,8 +5836,11 @@
       <c r="M76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -5582,8 +5874,11 @@
       <c r="M77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -5617,8 +5912,11 @@
       <c r="M78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -5658,8 +5956,11 @@
       <c r="M79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -5699,8 +6000,11 @@
       <c r="M80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -5734,8 +6038,11 @@
       <c r="M81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -5775,8 +6082,11 @@
       <c r="M82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -5816,14 +6126,23 @@
       <c r="M83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>169</v>
       </c>
+      <c r="C84" t="s">
+        <v>743</v>
+      </c>
+      <c r="D84" t="s">
+        <v>759</v>
+      </c>
       <c r="E84">
         <v>0</v>
       </c>
@@ -5851,8 +6170,11 @@
       <c r="M84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -5892,8 +6214,11 @@
       <c r="M85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -5933,8 +6258,11 @@
       <c r="M86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -5974,8 +6302,11 @@
       <c r="M87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -6009,8 +6340,11 @@
       <c r="M88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -6050,8 +6384,11 @@
       <c r="M89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -6085,8 +6422,11 @@
       <c r="M90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -6126,8 +6466,11 @@
       <c r="M91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -6161,8 +6504,11 @@
       <c r="M92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -6202,8 +6548,11 @@
       <c r="M93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -6237,8 +6586,11 @@
       <c r="M94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -6272,8 +6624,11 @@
       <c r="M95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -6307,8 +6662,11 @@
       <c r="M96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -6348,8 +6706,11 @@
       <c r="M97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -6389,8 +6750,11 @@
       <c r="M98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -6430,8 +6794,11 @@
       <c r="M99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -6471,8 +6838,11 @@
       <c r="M100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -6512,8 +6882,11 @@
       <c r="M101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -6547,14 +6920,23 @@
       <c r="M102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>102</v>
       </c>
       <c r="B103" t="s">
         <v>207</v>
       </c>
+      <c r="C103" t="s">
+        <v>747</v>
+      </c>
+      <c r="D103" t="s">
+        <v>758</v>
+      </c>
       <c r="E103">
         <v>0</v>
       </c>
@@ -6582,8 +6964,11 @@
       <c r="M103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -6623,8 +7008,11 @@
       <c r="M104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -6664,8 +7052,11 @@
       <c r="M105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -6705,8 +7096,11 @@
       <c r="M106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -6740,8 +7134,11 @@
       <c r="M107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -6781,8 +7178,11 @@
       <c r="M108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -6816,8 +7216,11 @@
       <c r="M109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -6851,8 +7254,11 @@
       <c r="M110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -6892,8 +7298,11 @@
       <c r="M111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -6933,8 +7342,11 @@
       <c r="M112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -6974,8 +7386,11 @@
       <c r="M113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -7015,8 +7430,11 @@
       <c r="M114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -7056,8 +7474,11 @@
       <c r="M115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -7091,8 +7512,11 @@
       <c r="M116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -7126,8 +7550,11 @@
       <c r="M117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -7167,8 +7594,11 @@
       <c r="M118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -7202,8 +7632,11 @@
       <c r="M119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -7243,8 +7676,11 @@
       <c r="M120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -7278,8 +7714,11 @@
       <c r="M121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -7319,8 +7758,11 @@
       <c r="M122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -7360,14 +7802,23 @@
       <c r="M123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>123</v>
       </c>
       <c r="B124" t="s">
         <v>248</v>
       </c>
+      <c r="C124" t="s">
+        <v>744</v>
+      </c>
+      <c r="D124" t="s">
+        <v>757</v>
+      </c>
       <c r="E124">
         <v>0</v>
       </c>
@@ -7395,8 +7846,11 @@
       <c r="M124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -7430,8 +7884,11 @@
       <c r="M125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -7465,8 +7922,11 @@
       <c r="M126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -7506,8 +7966,11 @@
       <c r="M127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -7547,8 +8010,11 @@
       <c r="M128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -7588,8 +8054,11 @@
       <c r="M129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -7623,8 +8092,11 @@
       <c r="M130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -7658,8 +8130,11 @@
       <c r="M131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -7699,8 +8174,11 @@
       <c r="M132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -7740,8 +8218,11 @@
       <c r="M133">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -7781,8 +8262,11 @@
       <c r="M134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -7816,8 +8300,11 @@
       <c r="M135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -7857,8 +8344,11 @@
       <c r="M136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -7898,8 +8388,11 @@
       <c r="M137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -7933,8 +8426,11 @@
       <c r="M138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -7974,8 +8470,11 @@
       <c r="M139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -8009,8 +8508,11 @@
       <c r="M140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -8044,8 +8546,11 @@
       <c r="M141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -8085,8 +8590,11 @@
       <c r="M142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -8120,8 +8628,11 @@
       <c r="M143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -8161,8 +8672,11 @@
       <c r="M144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -8202,8 +8716,11 @@
       <c r="M145">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -8243,8 +8760,11 @@
       <c r="M146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -8284,8 +8804,11 @@
       <c r="M147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -8319,8 +8842,11 @@
       <c r="M148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -8354,8 +8880,11 @@
       <c r="M149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -8395,8 +8924,11 @@
       <c r="M150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -8430,8 +8962,11 @@
       <c r="M151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -8471,14 +9006,23 @@
       <c r="M152">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>152</v>
       </c>
       <c r="B153" t="s">
         <v>304</v>
       </c>
+      <c r="C153" t="s">
+        <v>745</v>
+      </c>
+      <c r="D153" t="s">
+        <v>756</v>
+      </c>
       <c r="E153">
         <v>0</v>
       </c>
@@ -8506,8 +9050,11 @@
       <c r="M153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -8547,8 +9094,11 @@
       <c r="M154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -8588,8 +9138,11 @@
       <c r="M155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -8629,8 +9182,11 @@
       <c r="M156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -8670,8 +9226,11 @@
       <c r="M157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -8711,8 +9270,11 @@
       <c r="M158">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -8752,8 +9314,11 @@
       <c r="M159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -8793,8 +9358,11 @@
       <c r="M160">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>160</v>
       </c>
@@ -8828,8 +9396,11 @@
       <c r="M161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>161</v>
       </c>
@@ -8863,8 +9434,11 @@
       <c r="M162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>162</v>
       </c>
@@ -8904,8 +9478,11 @@
       <c r="M163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>163</v>
       </c>
@@ -8939,8 +9516,11 @@
       <c r="M164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>164</v>
       </c>
@@ -8980,8 +9560,11 @@
       <c r="M165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>165</v>
       </c>
@@ -9021,8 +9604,11 @@
       <c r="M166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>166</v>
       </c>
@@ -9062,8 +9648,11 @@
       <c r="M167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>167</v>
       </c>
@@ -9097,8 +9686,11 @@
       <c r="M168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>168</v>
       </c>
@@ -9138,8 +9730,11 @@
       <c r="M169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>169</v>
       </c>
@@ -9173,8 +9768,11 @@
       <c r="M170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>170</v>
       </c>
@@ -9208,8 +9806,11 @@
       <c r="M171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>171</v>
       </c>
@@ -9249,8 +9850,11 @@
       <c r="M172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>172</v>
       </c>
@@ -9290,8 +9894,11 @@
       <c r="M173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>173</v>
       </c>
@@ -9325,8 +9932,11 @@
       <c r="M174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>174</v>
       </c>
@@ -9366,8 +9976,11 @@
       <c r="M175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>175</v>
       </c>
@@ -9407,8 +10020,11 @@
       <c r="M176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>176</v>
       </c>
@@ -9448,8 +10064,11 @@
       <c r="M177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>177</v>
       </c>
@@ -9489,8 +10108,11 @@
       <c r="M178">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>178</v>
       </c>
@@ -9530,8 +10152,11 @@
       <c r="M179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>179</v>
       </c>
@@ -9565,14 +10190,23 @@
       <c r="M180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>180</v>
       </c>
       <c r="B181" t="s">
         <v>367</v>
       </c>
+      <c r="C181" t="s">
+        <v>746</v>
+      </c>
+      <c r="D181" t="s">
+        <v>27</v>
+      </c>
       <c r="E181">
         <v>0</v>
       </c>
@@ -9600,8 +10234,11 @@
       <c r="M181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>181</v>
       </c>
@@ -9641,8 +10278,11 @@
       <c r="M182">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>182</v>
       </c>
@@ -9676,8 +10316,11 @@
       <c r="M183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>183</v>
       </c>
@@ -9711,8 +10354,11 @@
       <c r="M184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>184</v>
       </c>
@@ -9746,8 +10392,11 @@
       <c r="M185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>185</v>
       </c>
@@ -9787,8 +10436,11 @@
       <c r="M186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>186</v>
       </c>
@@ -9828,8 +10480,11 @@
       <c r="M187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>187</v>
       </c>
@@ -9863,8 +10518,11 @@
       <c r="M188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>188</v>
       </c>
@@ -9904,8 +10562,11 @@
       <c r="M189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>189</v>
       </c>
@@ -9945,8 +10606,11 @@
       <c r="M190">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>190</v>
       </c>
@@ -9986,8 +10650,11 @@
       <c r="M191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>191</v>
       </c>
@@ -10021,8 +10688,11 @@
       <c r="M192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>192</v>
       </c>
@@ -10056,8 +10726,11 @@
       <c r="M193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>193</v>
       </c>
@@ -10097,8 +10770,11 @@
       <c r="M194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>194</v>
       </c>
@@ -10138,8 +10814,11 @@
       <c r="M195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>195</v>
       </c>
@@ -10173,8 +10852,11 @@
       <c r="M196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>196</v>
       </c>
@@ -10214,8 +10896,11 @@
       <c r="M197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>197</v>
       </c>
@@ -10249,8 +10934,11 @@
       <c r="M198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>198</v>
       </c>
@@ -10290,8 +10978,11 @@
       <c r="M199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>199</v>
       </c>
@@ -10331,8 +11022,11 @@
       <c r="M200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>200</v>
       </c>
@@ -10372,14 +11066,23 @@
       <c r="M201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>201</v>
       </c>
       <c r="B202" t="s">
         <v>408</v>
       </c>
+      <c r="C202" t="s">
+        <v>748</v>
+      </c>
+      <c r="D202" t="s">
+        <v>755</v>
+      </c>
       <c r="E202">
         <v>0</v>
       </c>
@@ -10407,8 +11110,11 @@
       <c r="M202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>202</v>
       </c>
@@ -10448,8 +11154,11 @@
       <c r="M203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>203</v>
       </c>
@@ -10489,8 +11198,11 @@
       <c r="M204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>204</v>
       </c>
@@ -10530,8 +11242,11 @@
       <c r="M205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>205</v>
       </c>
@@ -10565,8 +11280,11 @@
       <c r="M206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>206</v>
       </c>
@@ -10600,8 +11318,11 @@
       <c r="M207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>207</v>
       </c>
@@ -10641,8 +11362,11 @@
       <c r="M208">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>208</v>
       </c>
@@ -10682,8 +11406,11 @@
       <c r="M209">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>209</v>
       </c>
@@ -10723,8 +11450,11 @@
       <c r="M210">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>210</v>
       </c>
@@ -10764,8 +11494,11 @@
       <c r="M211">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>211</v>
       </c>
@@ -10805,8 +11538,11 @@
       <c r="M212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>212</v>
       </c>
@@ -10846,8 +11582,11 @@
       <c r="M213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>213</v>
       </c>
@@ -10881,8 +11620,11 @@
       <c r="M214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>214</v>
       </c>
@@ -10916,8 +11658,11 @@
       <c r="M215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>215</v>
       </c>
@@ -10957,8 +11702,11 @@
       <c r="M216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>216</v>
       </c>
@@ -10992,8 +11740,11 @@
       <c r="M217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>217</v>
       </c>
@@ -11027,8 +11778,11 @@
       <c r="M218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>218</v>
       </c>
@@ -11062,8 +11816,11 @@
       <c r="M219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>219</v>
       </c>
@@ -11097,8 +11854,11 @@
       <c r="M220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>220</v>
       </c>
@@ -11138,8 +11898,11 @@
       <c r="M221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>221</v>
       </c>
@@ -11179,8 +11942,11 @@
       <c r="M222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>222</v>
       </c>
@@ -11220,8 +11986,11 @@
       <c r="M223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>223</v>
       </c>
@@ -11261,8 +12030,11 @@
       <c r="M224">
         <v>1</v>
       </c>
-    </row>
-    <row r="225" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>224</v>
       </c>
@@ -11302,8 +12074,11 @@
       <c r="M225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>225</v>
       </c>
@@ -11343,8 +12118,11 @@
       <c r="M226">
         <v>1</v>
       </c>
-    </row>
-    <row r="227" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>226</v>
       </c>
@@ -11384,8 +12162,11 @@
       <c r="M227">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>227</v>
       </c>
@@ -11425,8 +12206,11 @@
       <c r="M228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>228</v>
       </c>
@@ -11460,8 +12244,11 @@
       <c r="M229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>229</v>
       </c>
@@ -11501,8 +12288,11 @@
       <c r="M230">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>230</v>
       </c>
@@ -11542,8 +12332,11 @@
       <c r="M231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>231</v>
       </c>
@@ -11583,8 +12376,11 @@
       <c r="M232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>232</v>
       </c>
@@ -11624,8 +12420,11 @@
       <c r="M233">
         <v>1</v>
       </c>
-    </row>
-    <row r="234" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>233</v>
       </c>
@@ -11659,8 +12458,11 @@
       <c r="M234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>234</v>
       </c>
@@ -11700,8 +12502,11 @@
       <c r="M235">
         <v>1</v>
       </c>
-    </row>
-    <row r="236" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>235</v>
       </c>
@@ -11735,8 +12540,11 @@
       <c r="M236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>236</v>
       </c>
@@ -11776,8 +12584,11 @@
       <c r="M237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>237</v>
       </c>
@@ -11817,8 +12628,11 @@
       <c r="M238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>238</v>
       </c>
@@ -11858,8 +12672,11 @@
       <c r="M239">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>239</v>
       </c>
@@ -11899,8 +12716,11 @@
       <c r="M240">
         <v>1</v>
       </c>
-    </row>
-    <row r="241" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>240</v>
       </c>
@@ -11940,8 +12760,11 @@
       <c r="M241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>241</v>
       </c>
@@ -11981,8 +12804,11 @@
       <c r="M242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>242</v>
       </c>
@@ -12016,8 +12842,11 @@
       <c r="M243">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>243</v>
       </c>
@@ -12051,8 +12880,11 @@
       <c r="M244">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>244</v>
       </c>
@@ -12086,8 +12918,11 @@
       <c r="M245">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>245</v>
       </c>
@@ -12127,8 +12962,11 @@
       <c r="M246">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>246</v>
       </c>
@@ -12168,8 +13006,11 @@
       <c r="M247">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>247</v>
       </c>
@@ -12209,8 +13050,11 @@
       <c r="M248">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>248</v>
       </c>
@@ -12250,8 +13094,11 @@
       <c r="M249">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>249</v>
       </c>
@@ -12291,8 +13138,11 @@
       <c r="M250">
         <v>1</v>
       </c>
-    </row>
-    <row r="251" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>250</v>
       </c>
@@ -12326,8 +13176,11 @@
       <c r="M251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>251</v>
       </c>
@@ -12361,8 +13214,11 @@
       <c r="M252">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>252</v>
       </c>
@@ -12402,8 +13258,11 @@
       <c r="M253">
         <v>1</v>
       </c>
-    </row>
-    <row r="254" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>253</v>
       </c>
@@ -12443,8 +13302,11 @@
       <c r="M254">
         <v>1</v>
       </c>
-    </row>
-    <row r="255" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>254</v>
       </c>
@@ -12484,8 +13346,11 @@
       <c r="M255">
         <v>1</v>
       </c>
-    </row>
-    <row r="256" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>255</v>
       </c>
@@ -12525,8 +13390,11 @@
       <c r="M256">
         <v>1</v>
       </c>
-    </row>
-    <row r="257" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>256</v>
       </c>
@@ -12566,8 +13434,11 @@
       <c r="M257">
         <v>1</v>
       </c>
-    </row>
-    <row r="258" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>257</v>
       </c>
@@ -12607,8 +13478,11 @@
       <c r="M258">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>258</v>
       </c>
@@ -12648,8 +13522,11 @@
       <c r="M259">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>259</v>
       </c>
@@ -12683,8 +13560,11 @@
       <c r="M260">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>260</v>
       </c>
@@ -12718,8 +13598,11 @@
       <c r="M261">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>261</v>
       </c>
@@ -12759,8 +13642,11 @@
       <c r="M262">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>262</v>
       </c>
@@ -12800,8 +13686,11 @@
       <c r="M263">
         <v>1</v>
       </c>
-    </row>
-    <row r="264" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>263</v>
       </c>
@@ -12835,8 +13724,11 @@
       <c r="M264">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>264</v>
       </c>
@@ -12870,8 +13762,11 @@
       <c r="M265">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>265</v>
       </c>
@@ -12911,8 +13806,11 @@
       <c r="M266">
         <v>1</v>
       </c>
-    </row>
-    <row r="267" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>266</v>
       </c>
@@ -12952,8 +13850,11 @@
       <c r="M267">
         <v>1</v>
       </c>
-    </row>
-    <row r="268" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>267</v>
       </c>
@@ -12993,8 +13894,11 @@
       <c r="M268">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>268</v>
       </c>
@@ -13034,8 +13938,11 @@
       <c r="M269">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>269</v>
       </c>
@@ -13075,8 +13982,11 @@
       <c r="M270">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>270</v>
       </c>
@@ -13116,8 +14026,11 @@
       <c r="M271">
         <v>1</v>
       </c>
-    </row>
-    <row r="272" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>271</v>
       </c>
@@ -13151,8 +14064,11 @@
       <c r="M272">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>272</v>
       </c>
@@ -13192,8 +14108,11 @@
       <c r="M273">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>273</v>
       </c>
@@ -13233,8 +14152,11 @@
       <c r="M274">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>274</v>
       </c>
@@ -13274,8 +14196,11 @@
       <c r="M275">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>275</v>
       </c>
@@ -13309,8 +14234,11 @@
       <c r="M276">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>276</v>
       </c>
@@ -13350,8 +14278,11 @@
       <c r="M277">
         <v>1</v>
       </c>
-    </row>
-    <row r="278" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>277</v>
       </c>
@@ -13385,14 +14316,23 @@
       <c r="M278">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>278</v>
       </c>
       <c r="B279" t="s">
         <v>568</v>
       </c>
+      <c r="C279" t="s">
+        <v>750</v>
+      </c>
+      <c r="D279" t="s">
+        <v>754</v>
+      </c>
       <c r="E279">
         <v>0</v>
       </c>
@@ -13420,8 +14360,11 @@
       <c r="M279">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>279</v>
       </c>
@@ -13461,8 +14404,11 @@
       <c r="M280">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>280</v>
       </c>
@@ -13502,8 +14448,11 @@
       <c r="M281">
         <v>1</v>
       </c>
-    </row>
-    <row r="282" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>281</v>
       </c>
@@ -13543,8 +14492,11 @@
       <c r="M282">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>282</v>
       </c>
@@ -13578,8 +14530,11 @@
       <c r="M283">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>283</v>
       </c>
@@ -13619,8 +14574,11 @@
       <c r="M284">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>284</v>
       </c>
@@ -13660,8 +14618,11 @@
       <c r="M285">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>285</v>
       </c>
@@ -13701,8 +14662,11 @@
       <c r="M286">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>286</v>
       </c>
@@ -13742,8 +14706,11 @@
       <c r="M287">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>287</v>
       </c>
@@ -13783,8 +14750,11 @@
       <c r="M288">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>288</v>
       </c>
@@ -13818,8 +14788,11 @@
       <c r="M289">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>289</v>
       </c>
@@ -13859,8 +14832,11 @@
       <c r="M290">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>290</v>
       </c>
@@ -13900,8 +14876,11 @@
       <c r="M291">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>291</v>
       </c>
@@ -13941,8 +14920,11 @@
       <c r="M292">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>292</v>
       </c>
@@ -13982,8 +14964,11 @@
       <c r="M293">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>293</v>
       </c>
@@ -14023,8 +15008,11 @@
       <c r="M294">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>294</v>
       </c>
@@ -14064,8 +15052,11 @@
       <c r="M295">
         <v>1</v>
       </c>
-    </row>
-    <row r="296" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
         <v>295</v>
       </c>
@@ -14099,8 +15090,11 @@
       <c r="M296">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>296</v>
       </c>
@@ -14140,8 +15134,11 @@
       <c r="M297">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>297</v>
       </c>
@@ -14181,8 +15178,11 @@
       <c r="M298">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>298</v>
       </c>
@@ -14216,8 +15216,11 @@
       <c r="M299">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>299</v>
       </c>
@@ -14257,8 +15260,11 @@
       <c r="M300">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>300</v>
       </c>
@@ -14292,8 +15298,11 @@
       <c r="M301">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>301</v>
       </c>
@@ -14333,8 +15342,11 @@
       <c r="M302">
         <v>0</v>
       </c>
-    </row>
-    <row r="303" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>302</v>
       </c>
@@ -14368,8 +15380,11 @@
       <c r="M303">
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>303</v>
       </c>
@@ -14409,8 +15424,11 @@
       <c r="M304">
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>304</v>
       </c>
@@ -14444,8 +15462,11 @@
       <c r="M305">
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>305</v>
       </c>
@@ -14485,8 +15506,11 @@
       <c r="M306">
         <v>1</v>
       </c>
-    </row>
-    <row r="307" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>306</v>
       </c>
@@ -14520,8 +15544,11 @@
       <c r="M307">
         <v>0</v>
       </c>
-    </row>
-    <row r="308" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
         <v>307</v>
       </c>
@@ -14561,8 +15588,11 @@
       <c r="M308">
         <v>1</v>
       </c>
-    </row>
-    <row r="309" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
         <v>308</v>
       </c>
@@ -14602,8 +15632,11 @@
       <c r="M309">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
         <v>309</v>
       </c>
@@ -14637,8 +15670,11 @@
       <c r="M310">
         <v>0</v>
       </c>
-    </row>
-    <row r="311" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
         <v>310</v>
       </c>
@@ -14678,8 +15714,11 @@
       <c r="M311">
         <v>0</v>
       </c>
-    </row>
-    <row r="312" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
         <v>311</v>
       </c>
@@ -14719,8 +15758,11 @@
       <c r="M312">
         <v>1</v>
       </c>
-    </row>
-    <row r="313" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
         <v>312</v>
       </c>
@@ -14754,8 +15796,11 @@
       <c r="M313">
         <v>0</v>
       </c>
-    </row>
-    <row r="314" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
         <v>313</v>
       </c>
@@ -14789,8 +15834,11 @@
       <c r="M314">
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
         <v>314</v>
       </c>
@@ -14824,8 +15872,11 @@
       <c r="M315">
         <v>0</v>
       </c>
-    </row>
-    <row r="316" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
         <v>315</v>
       </c>
@@ -14859,8 +15910,11 @@
       <c r="M316">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
         <v>316</v>
       </c>
@@ -14894,8 +15948,11 @@
       <c r="M317">
         <v>0</v>
       </c>
-    </row>
-    <row r="318" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
         <v>317</v>
       </c>
@@ -14929,8 +15986,11 @@
       <c r="M318">
         <v>0</v>
       </c>
-    </row>
-    <row r="319" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
         <v>318</v>
       </c>
@@ -14970,8 +16030,11 @@
       <c r="M319">
         <v>0</v>
       </c>
-    </row>
-    <row r="320" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
         <v>319</v>
       </c>
@@ -15011,8 +16074,11 @@
       <c r="M320">
         <v>0</v>
       </c>
-    </row>
-    <row r="321" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
         <v>320</v>
       </c>
@@ -15052,8 +16118,11 @@
       <c r="M321">
         <v>1</v>
       </c>
-    </row>
-    <row r="322" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
         <v>321</v>
       </c>
@@ -15093,8 +16162,11 @@
       <c r="M322">
         <v>1</v>
       </c>
-    </row>
-    <row r="323" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
         <v>322</v>
       </c>
@@ -15134,8 +16206,11 @@
       <c r="M323">
         <v>0</v>
       </c>
-    </row>
-    <row r="324" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
         <v>323</v>
       </c>
@@ -15175,8 +16250,11 @@
       <c r="M324">
         <v>0</v>
       </c>
-    </row>
-    <row r="325" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
         <v>324</v>
       </c>
@@ -15216,8 +16294,11 @@
       <c r="M325">
         <v>0</v>
       </c>
-    </row>
-    <row r="326" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="2">
         <v>325</v>
       </c>
@@ -15257,8 +16338,11 @@
       <c r="M326">
         <v>0</v>
       </c>
-    </row>
-    <row r="327" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="2">
         <v>326</v>
       </c>
@@ -15298,8 +16382,11 @@
       <c r="M327">
         <v>0</v>
       </c>
-    </row>
-    <row r="328" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
         <v>327</v>
       </c>
@@ -15339,8 +16426,11 @@
       <c r="M328">
         <v>1</v>
       </c>
-    </row>
-    <row r="329" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="2">
         <v>328</v>
       </c>
@@ -15374,8 +16464,11 @@
       <c r="M329">
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
         <v>329</v>
       </c>
@@ -15415,8 +16508,11 @@
       <c r="M330">
         <v>0</v>
       </c>
-    </row>
-    <row r="331" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
         <v>330</v>
       </c>
@@ -15456,8 +16552,11 @@
       <c r="M331">
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
         <v>331</v>
       </c>
@@ -15497,8 +16596,11 @@
       <c r="M332">
         <v>0</v>
       </c>
-    </row>
-    <row r="333" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="2">
         <v>332</v>
       </c>
@@ -15538,8 +16640,11 @@
       <c r="M333">
         <v>1</v>
       </c>
-    </row>
-    <row r="334" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="2">
         <v>333</v>
       </c>
@@ -15573,8 +16678,11 @@
       <c r="M334">
         <v>0</v>
       </c>
-    </row>
-    <row r="335" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="2">
         <v>334</v>
       </c>
@@ -15614,14 +16722,23 @@
       <c r="M335">
         <v>0</v>
       </c>
-    </row>
-    <row r="336" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="2">
         <v>335</v>
       </c>
       <c r="B336" t="s">
         <v>685</v>
       </c>
+      <c r="C336" t="s">
+        <v>749</v>
+      </c>
+      <c r="D336" t="s">
+        <v>753</v>
+      </c>
       <c r="E336">
         <v>0</v>
       </c>
@@ -15649,8 +16766,11 @@
       <c r="M336">
         <v>0</v>
       </c>
-    </row>
-    <row r="337" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
         <v>336</v>
       </c>
@@ -15690,14 +16810,23 @@
       <c r="M337">
         <v>0</v>
       </c>
-    </row>
-    <row r="338" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
         <v>337</v>
       </c>
       <c r="B338" t="s">
         <v>689</v>
       </c>
+      <c r="C338" t="s">
+        <v>751</v>
+      </c>
+      <c r="D338" t="s">
+        <v>752</v>
+      </c>
       <c r="E338">
         <v>0</v>
       </c>
@@ -15725,8 +16854,11 @@
       <c r="M338">
         <v>0</v>
       </c>
-    </row>
-    <row r="339" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="2">
         <v>338</v>
       </c>
@@ -15766,8 +16898,11 @@
       <c r="M339">
         <v>0</v>
       </c>
-    </row>
-    <row r="340" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
         <v>339</v>
       </c>
@@ -15807,8 +16942,11 @@
       <c r="M340">
         <v>1</v>
       </c>
-    </row>
-    <row r="341" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
         <v>340</v>
       </c>
@@ -15842,8 +16980,11 @@
       <c r="M341">
         <v>0</v>
       </c>
-    </row>
-    <row r="342" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
         <v>341</v>
       </c>
@@ -15877,8 +17018,11 @@
       <c r="M342">
         <v>0</v>
       </c>
-    </row>
-    <row r="343" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="2">
         <v>342</v>
       </c>
@@ -15918,8 +17062,11 @@
       <c r="M343">
         <v>0</v>
       </c>
-    </row>
-    <row r="344" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
         <v>343</v>
       </c>
@@ -15953,8 +17100,11 @@
       <c r="M344">
         <v>0</v>
       </c>
-    </row>
-    <row r="345" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="2">
         <v>344</v>
       </c>
@@ -15994,8 +17144,11 @@
       <c r="M345">
         <v>0</v>
       </c>
-    </row>
-    <row r="346" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="2">
         <v>345</v>
       </c>
@@ -16035,8 +17188,11 @@
       <c r="M346">
         <v>0</v>
       </c>
-    </row>
-    <row r="347" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="2">
         <v>346</v>
       </c>
@@ -16076,8 +17232,11 @@
       <c r="M347">
         <v>0</v>
       </c>
-    </row>
-    <row r="348" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="2">
         <v>347</v>
       </c>
@@ -16117,8 +17276,11 @@
       <c r="M348">
         <v>0</v>
       </c>
-    </row>
-    <row r="349" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="2">
         <v>348</v>
       </c>
@@ -16158,8 +17320,11 @@
       <c r="M349">
         <v>1</v>
       </c>
-    </row>
-    <row r="350" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="2">
         <v>349</v>
       </c>
@@ -16199,8 +17364,11 @@
       <c r="M350">
         <v>0</v>
       </c>
-    </row>
-    <row r="351" spans="1:13" ht="15.75" hidden="1" customHeight="1">
+      <c r="N350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351">
         <f>A350+1</f>
         <v>350</v>
@@ -16235,8 +17403,11 @@
       <c r="M351">
         <v>0</v>
       </c>
-    </row>
-    <row r="352" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E352" s="4">
         <f t="shared" ref="E352:L352" si="0">SUM(E2:E351)</f>
         <v>68</v>
@@ -16273,658 +17444,662 @@
         <f>SUM(M2:M351)</f>
         <v>68</v>
       </c>
-    </row>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+      <c r="N352" s="4">
+        <f>SUM(N2:N351)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:M352" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="12">
+  <autoFilter ref="A1:N352" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="13">
       <filters>
         <filter val="1"/>
         <filter val="68"/>
